--- a/Activity-Plan.xlsx
+++ b/Activity-Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\RPL_Progress3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Ideally\RPL-Dokumentasi-Ideally\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5A48C8-78C3-437C-928F-6362F9E51CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADE458-116E-4E39-B4C4-621A99A80CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{D50A8981-751F-424B-BBFF-9EDD7F9BB336}"/>
   </bookViews>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -697,6 +697,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,31 +746,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,16 +1456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>45944</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112701</xdr:rowOff>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112703</xdr:rowOff>
+      <xdr:rowOff>112701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1478,9 +1479,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11767297" y="3586525"/>
-          <a:ext cx="1959908" cy="2"/>
+        <a:xfrm>
+          <a:off x="13043647" y="3574676"/>
+          <a:ext cx="963705" cy="11849"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1794,11 +1795,11 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>115506</xdr:rowOff>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>115506</xdr:rowOff>
     </xdr:to>
@@ -1814,9 +1815,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10948147" y="3208330"/>
-          <a:ext cx="1154206" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="11228294" y="3193676"/>
+          <a:ext cx="1949824" cy="14654"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2317,10 +2318,10 @@
   <dimension ref="A1:IS51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
+      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,270 +2336,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
     </row>
     <row r="2" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92"/>
     </row>
     <row r="3" spans="1:253" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="87" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="88"/>
-      <c r="AT3" s="88"/>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="88"/>
-      <c r="AZ3" s="88"/>
-      <c r="BA3" s="88"/>
-      <c r="BB3" s="88"/>
-      <c r="BC3" s="88"/>
-      <c r="BD3" s="89"/>
-      <c r="BE3" s="90" t="s">
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
+      <c r="AX3" s="97"/>
+      <c r="AY3" s="97"/>
+      <c r="AZ3" s="97"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
+      <c r="BC3" s="97"/>
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="91"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="91"/>
-      <c r="BK3" s="91"/>
-      <c r="BL3" s="91"/>
-      <c r="BM3" s="91"/>
-      <c r="BN3" s="91"/>
-      <c r="BO3" s="91"/>
-      <c r="BP3" s="91"/>
-      <c r="BQ3" s="91"/>
-      <c r="BR3" s="91"/>
-      <c r="BS3" s="91"/>
-      <c r="BT3" s="91"/>
-      <c r="BU3" s="91"/>
-      <c r="BV3" s="91"/>
-      <c r="BW3" s="91"/>
-      <c r="BX3" s="91"/>
-      <c r="BY3" s="91"/>
-      <c r="BZ3" s="91"/>
-      <c r="CA3" s="91"/>
-      <c r="CB3" s="91"/>
-      <c r="CC3" s="91"/>
-      <c r="CD3" s="91"/>
-      <c r="CE3" s="91"/>
-      <c r="CF3" s="91"/>
-      <c r="CG3" s="91"/>
-      <c r="CH3" s="92"/>
-      <c r="CI3" s="90" t="s">
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="86"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="86"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="86"/>
+      <c r="BQ3" s="86"/>
+      <c r="BR3" s="86"/>
+      <c r="BS3" s="86"/>
+      <c r="BT3" s="86"/>
+      <c r="BU3" s="86"/>
+      <c r="BV3" s="86"/>
+      <c r="BW3" s="86"/>
+      <c r="BX3" s="86"/>
+      <c r="BY3" s="86"/>
+      <c r="BZ3" s="86"/>
+      <c r="CA3" s="86"/>
+      <c r="CB3" s="86"/>
+      <c r="CC3" s="86"/>
+      <c r="CD3" s="86"/>
+      <c r="CE3" s="86"/>
+      <c r="CF3" s="86"/>
+      <c r="CG3" s="86"/>
+      <c r="CH3" s="87"/>
+      <c r="CI3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="CJ3" s="91"/>
-      <c r="CK3" s="91"/>
-      <c r="CL3" s="91"/>
-      <c r="CM3" s="91"/>
-      <c r="CN3" s="91"/>
-      <c r="CO3" s="91"/>
-      <c r="CP3" s="91"/>
-      <c r="CQ3" s="91"/>
-      <c r="CR3" s="91"/>
-      <c r="CS3" s="91"/>
-      <c r="CT3" s="91"/>
-      <c r="CU3" s="91"/>
-      <c r="CV3" s="91"/>
-      <c r="CW3" s="91"/>
-      <c r="CX3" s="91"/>
-      <c r="CY3" s="91"/>
-      <c r="CZ3" s="91"/>
-      <c r="DA3" s="91"/>
-      <c r="DB3" s="91"/>
-      <c r="DC3" s="91"/>
-      <c r="DD3" s="91"/>
-      <c r="DE3" s="91"/>
-      <c r="DF3" s="91"/>
-      <c r="DG3" s="91"/>
-      <c r="DH3" s="91"/>
-      <c r="DI3" s="91"/>
-      <c r="DJ3" s="91"/>
-      <c r="DK3" s="91"/>
-      <c r="DL3" s="91"/>
-      <c r="DM3" s="92"/>
-      <c r="DN3" s="90" t="s">
+      <c r="CJ3" s="86"/>
+      <c r="CK3" s="86"/>
+      <c r="CL3" s="86"/>
+      <c r="CM3" s="86"/>
+      <c r="CN3" s="86"/>
+      <c r="CO3" s="86"/>
+      <c r="CP3" s="86"/>
+      <c r="CQ3" s="86"/>
+      <c r="CR3" s="86"/>
+      <c r="CS3" s="86"/>
+      <c r="CT3" s="86"/>
+      <c r="CU3" s="86"/>
+      <c r="CV3" s="86"/>
+      <c r="CW3" s="86"/>
+      <c r="CX3" s="86"/>
+      <c r="CY3" s="86"/>
+      <c r="CZ3" s="86"/>
+      <c r="DA3" s="86"/>
+      <c r="DB3" s="86"/>
+      <c r="DC3" s="86"/>
+      <c r="DD3" s="86"/>
+      <c r="DE3" s="86"/>
+      <c r="DF3" s="86"/>
+      <c r="DG3" s="86"/>
+      <c r="DH3" s="86"/>
+      <c r="DI3" s="86"/>
+      <c r="DJ3" s="86"/>
+      <c r="DK3" s="86"/>
+      <c r="DL3" s="86"/>
+      <c r="DM3" s="87"/>
+      <c r="DN3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="DO3" s="91"/>
-      <c r="DP3" s="91"/>
-      <c r="DQ3" s="91"/>
-      <c r="DR3" s="91"/>
-      <c r="DS3" s="91"/>
-      <c r="DT3" s="91"/>
-      <c r="DU3" s="91"/>
-      <c r="DV3" s="91"/>
-      <c r="DW3" s="91"/>
-      <c r="DX3" s="91"/>
-      <c r="DY3" s="91"/>
-      <c r="DZ3" s="91"/>
-      <c r="EA3" s="91"/>
-      <c r="EB3" s="91"/>
-      <c r="EC3" s="91"/>
-      <c r="ED3" s="91"/>
-      <c r="EE3" s="91"/>
-      <c r="EF3" s="91"/>
-      <c r="EG3" s="91"/>
-      <c r="EH3" s="91"/>
-      <c r="EI3" s="91"/>
-      <c r="EJ3" s="91"/>
-      <c r="EK3" s="91"/>
-      <c r="EL3" s="91"/>
-      <c r="EM3" s="91"/>
-      <c r="EN3" s="91"/>
-      <c r="EO3" s="91"/>
-      <c r="EP3" s="91"/>
-      <c r="EQ3" s="91"/>
-      <c r="ER3" s="92"/>
+      <c r="DO3" s="86"/>
+      <c r="DP3" s="86"/>
+      <c r="DQ3" s="86"/>
+      <c r="DR3" s="86"/>
+      <c r="DS3" s="86"/>
+      <c r="DT3" s="86"/>
+      <c r="DU3" s="86"/>
+      <c r="DV3" s="86"/>
+      <c r="DW3" s="86"/>
+      <c r="DX3" s="86"/>
+      <c r="DY3" s="86"/>
+      <c r="DZ3" s="86"/>
+      <c r="EA3" s="86"/>
+      <c r="EB3" s="86"/>
+      <c r="EC3" s="86"/>
+      <c r="ED3" s="86"/>
+      <c r="EE3" s="86"/>
+      <c r="EF3" s="86"/>
+      <c r="EG3" s="86"/>
+      <c r="EH3" s="86"/>
+      <c r="EI3" s="86"/>
+      <c r="EJ3" s="86"/>
+      <c r="EK3" s="86"/>
+      <c r="EL3" s="86"/>
+      <c r="EM3" s="86"/>
+      <c r="EN3" s="86"/>
+      <c r="EO3" s="86"/>
+      <c r="EP3" s="86"/>
+      <c r="EQ3" s="86"/>
+      <c r="ER3" s="87"/>
       <c r="ES3" s="42"/>
       <c r="ET3" s="42"/>
       <c r="EU3" s="42"/>
@@ -2706,11 +2707,11 @@
       <c r="IS3" s="42"/>
     </row>
     <row r="4" spans="1:253" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="44">
         <v>11</v>
       </c>
@@ -2807,7 +2808,7 @@
       <c r="AK4" s="44">
         <v>12</v>
       </c>
-      <c r="AL4" s="96">
+      <c r="AL4" s="82">
         <v>13</v>
       </c>
       <c r="AM4" s="44">
@@ -4182,71 +4183,71 @@
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="95"/>
-      <c r="AX11" s="95"/>
-      <c r="AY11" s="95"/>
-      <c r="AZ11" s="95"/>
-      <c r="BA11" s="95"/>
-      <c r="BB11" s="95"/>
-      <c r="BC11" s="95"/>
-      <c r="BD11" s="95"/>
-      <c r="BE11" s="95"/>
-      <c r="BF11" s="95"/>
-      <c r="BG11" s="95"/>
-      <c r="BH11" s="95"/>
-      <c r="BI11" s="95"/>
-      <c r="BJ11" s="95"/>
-      <c r="BK11" s="95"/>
-      <c r="BL11" s="95"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="90"/>
+      <c r="BK11" s="90"/>
+      <c r="BL11" s="90"/>
     </row>
     <row r="12" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
@@ -5044,7 +5045,7 @@
       <c r="IS14" s="1"/>
     </row>
     <row r="15" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A15" s="97">
+      <c r="A15" s="83">
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -5309,7 +5310,7 @@
       <c r="IS15" s="1"/>
     </row>
     <row r="16" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A16" s="97">
+      <c r="A16" s="83">
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -5356,8 +5357,8 @@
       <c r="AI16" s="80"/>
       <c r="AJ16" s="80"/>
       <c r="AK16" s="80"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
       <c r="AN16" s="21"/>
       <c r="AO16" s="21"/>
       <c r="AP16" s="21"/>
@@ -5616,21 +5617,21 @@
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
       <c r="AJ17" s="80"/>
       <c r="AK17" s="80"/>
       <c r="AL17" s="80"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="80"/>
+      <c r="AP17" s="80"/>
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="80"/>
+      <c r="AS17" s="80"/>
+      <c r="AT17" s="80"/>
+      <c r="AU17" s="80"/>
       <c r="AV17" s="21"/>
       <c r="AW17" s="21"/>
       <c r="AX17" s="21"/>
@@ -5888,14 +5889,14 @@
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80"/>
+      <c r="AS18" s="80"/>
+      <c r="AT18" s="80"/>
+      <c r="AU18" s="80"/>
       <c r="AV18" s="21"/>
       <c r="AW18" s="21"/>
       <c r="AX18" s="21"/>
@@ -6158,9 +6159,9 @@
       <c r="AP19" s="21"/>
       <c r="AQ19" s="21"/>
       <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
+      <c r="AS19" s="80"/>
+      <c r="AT19" s="80"/>
+      <c r="AU19" s="80"/>
       <c r="AV19" s="21"/>
       <c r="AW19" s="21"/>
       <c r="AX19" s="21"/>
@@ -6369,7 +6370,7 @@
       <c r="IS19" s="1"/>
     </row>
     <row r="20" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A20" s="97">
+      <c r="A20" s="83">
         <v>9</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -6634,7 +6635,7 @@
       <c r="IS20" s="1"/>
     </row>
     <row r="21" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A21" s="97">
+      <c r="A21" s="83">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -7697,71 +7698,71 @@
       <c r="A25" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="93"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="93"/>
-      <c r="AM25" s="93"/>
-      <c r="AN25" s="93"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
-      <c r="AQ25" s="93"/>
-      <c r="AR25" s="93"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="93"/>
-      <c r="AV25" s="93"/>
-      <c r="AW25" s="93"/>
-      <c r="AX25" s="93"/>
-      <c r="AY25" s="93"/>
-      <c r="AZ25" s="93"/>
-      <c r="BA25" s="93"/>
-      <c r="BB25" s="93"/>
-      <c r="BC25" s="93"/>
-      <c r="BD25" s="93"/>
-      <c r="BE25" s="93"/>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="93"/>
-      <c r="BH25" s="93"/>
-      <c r="BI25" s="93"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="93"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="88"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="88"/>
+      <c r="AP25" s="88"/>
+      <c r="AQ25" s="88"/>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="88"/>
+      <c r="AZ25" s="88"/>
+      <c r="BA25" s="88"/>
+      <c r="BB25" s="88"/>
+      <c r="BC25" s="88"/>
+      <c r="BD25" s="88"/>
+      <c r="BE25" s="88"/>
+      <c r="BF25" s="88"/>
+      <c r="BG25" s="88"/>
+      <c r="BH25" s="88"/>
+      <c r="BI25" s="88"/>
+      <c r="BJ25" s="88"/>
+      <c r="BK25" s="88"/>
+      <c r="BL25" s="88"/>
     </row>
     <row r="26" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A26" s="60">
@@ -7821,16 +7822,16 @@
       <c r="AI26" s="78"/>
       <c r="AJ26" s="78"/>
       <c r="AK26" s="78"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="78"/>
       <c r="AQ26" s="30"/>
       <c r="AR26" s="30"/>
       <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
+      <c r="AT26" s="99"/>
+      <c r="AU26" s="99"/>
       <c r="AV26" s="30"/>
       <c r="AW26" s="30"/>
       <c r="AX26" s="30"/>
@@ -8087,8 +8088,8 @@
       <c r="AJ27" s="80"/>
       <c r="AK27" s="80"/>
       <c r="AL27" s="80"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
       <c r="AO27" s="21"/>
       <c r="AP27" s="21"/>
       <c r="AQ27" s="21"/>
@@ -8572,71 +8573,71 @@
       <c r="A29" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="93"/>
-      <c r="AK29" s="93"/>
-      <c r="AL29" s="93"/>
-      <c r="AM29" s="93"/>
-      <c r="AN29" s="93"/>
-      <c r="AO29" s="93"/>
-      <c r="AP29" s="93"/>
-      <c r="AQ29" s="93"/>
-      <c r="AR29" s="93"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="93"/>
-      <c r="AU29" s="93"/>
-      <c r="AV29" s="93"/>
-      <c r="AW29" s="93"/>
-      <c r="AX29" s="93"/>
-      <c r="AY29" s="93"/>
-      <c r="AZ29" s="93"/>
-      <c r="BA29" s="93"/>
-      <c r="BB29" s="93"/>
-      <c r="BC29" s="93"/>
-      <c r="BD29" s="93"/>
-      <c r="BE29" s="93"/>
-      <c r="BF29" s="93"/>
-      <c r="BG29" s="93"/>
-      <c r="BH29" s="93"/>
-      <c r="BI29" s="93"/>
-      <c r="BJ29" s="93"/>
-      <c r="BK29" s="93"/>
-      <c r="BL29" s="93"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="88"/>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="88"/>
+      <c r="AP29" s="88"/>
+      <c r="AQ29" s="88"/>
+      <c r="AR29" s="88"/>
+      <c r="AS29" s="88"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="88"/>
+      <c r="BA29" s="88"/>
+      <c r="BB29" s="88"/>
+      <c r="BC29" s="88"/>
+      <c r="BD29" s="88"/>
+      <c r="BE29" s="88"/>
+      <c r="BF29" s="88"/>
+      <c r="BG29" s="88"/>
+      <c r="BH29" s="88"/>
+      <c r="BI29" s="88"/>
+      <c r="BJ29" s="88"/>
+      <c r="BK29" s="88"/>
+      <c r="BL29" s="88"/>
     </row>
     <row r="30" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
@@ -12652,36 +12653,36 @@
       <c r="AF45" s="17"/>
       <c r="AG45" s="73"/>
       <c r="AH45" s="73"/>
-      <c r="AI45" s="94"/>
-      <c r="AJ45" s="94"/>
-      <c r="AK45" s="94"/>
-      <c r="AL45" s="94"/>
-      <c r="AM45" s="94"/>
-      <c r="AN45" s="94"/>
-      <c r="AO45" s="94"/>
-      <c r="AP45" s="94"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="94"/>
-      <c r="AS45" s="94"/>
-      <c r="AT45" s="94"/>
-      <c r="AU45" s="94"/>
-      <c r="AV45" s="94"/>
-      <c r="AW45" s="94"/>
-      <c r="AX45" s="94"/>
-      <c r="AY45" s="94"/>
-      <c r="AZ45" s="94"/>
-      <c r="BA45" s="94"/>
-      <c r="BB45" s="94"/>
-      <c r="BC45" s="94"/>
-      <c r="BD45" s="94"/>
-      <c r="BE45" s="94"/>
-      <c r="BF45" s="94"/>
-      <c r="BG45" s="94"/>
-      <c r="BH45" s="94"/>
-      <c r="BI45" s="94"/>
-      <c r="BJ45" s="94"/>
-      <c r="BK45" s="94"/>
-      <c r="BL45" s="94"/>
+      <c r="AI45" s="89"/>
+      <c r="AJ45" s="89"/>
+      <c r="AK45" s="89"/>
+      <c r="AL45" s="89"/>
+      <c r="AM45" s="89"/>
+      <c r="AN45" s="89"/>
+      <c r="AO45" s="89"/>
+      <c r="AP45" s="89"/>
+      <c r="AQ45" s="89"/>
+      <c r="AR45" s="89"/>
+      <c r="AS45" s="89"/>
+      <c r="AT45" s="89"/>
+      <c r="AU45" s="89"/>
+      <c r="AV45" s="89"/>
+      <c r="AW45" s="89"/>
+      <c r="AX45" s="89"/>
+      <c r="AY45" s="89"/>
+      <c r="AZ45" s="89"/>
+      <c r="BA45" s="89"/>
+      <c r="BB45" s="89"/>
+      <c r="BC45" s="89"/>
+      <c r="BD45" s="89"/>
+      <c r="BE45" s="89"/>
+      <c r="BF45" s="89"/>
+      <c r="BG45" s="89"/>
+      <c r="BH45" s="89"/>
+      <c r="BI45" s="89"/>
+      <c r="BJ45" s="89"/>
+      <c r="BK45" s="89"/>
+      <c r="BL45" s="89"/>
     </row>
     <row r="46" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
@@ -13233,13 +13234,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="CI3:DM3"/>
-    <mergeCell ref="DN3:ER3"/>
-    <mergeCell ref="B29:BL29"/>
-    <mergeCell ref="AI45:BL45"/>
-    <mergeCell ref="B11:BL11"/>
-    <mergeCell ref="B25:BL25"/>
-    <mergeCell ref="BE3:CH3"/>
     <mergeCell ref="A1:AR1"/>
     <mergeCell ref="A2:AR2"/>
     <mergeCell ref="E3:E4"/>
@@ -13249,6 +13243,13 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:Y3"/>
     <mergeCell ref="Z3:BD3"/>
+    <mergeCell ref="CI3:DM3"/>
+    <mergeCell ref="DN3:ER3"/>
+    <mergeCell ref="B29:BL29"/>
+    <mergeCell ref="AI45:BL45"/>
+    <mergeCell ref="B11:BL11"/>
+    <mergeCell ref="B25:BL25"/>
+    <mergeCell ref="BE3:CH3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13258,6 +13259,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x010100B2104835603E494C8E73FA282078A2A1" ma:contentTypeVersion="3" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="8909ba6cd089f1cad09b5d19bbf1fb99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a2d2fc0-172c-493e-9700-481b0102245d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31284ce68694fe7d11028b04c62020b4" ns2:_="">
     <xsd:import namespace="2a2d2fc0-172c-493e-9700-481b0102245d"/>
@@ -13395,15 +13405,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13411,6 +13412,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAEF3D-215E-428B-AE72-4BFAC95A48D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B3975D8-E299-4F26-AE13-046589BA6C39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13428,14 +13437,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAEF3D-215E-428B-AE72-4BFAC95A48D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB288A8-B438-4DBD-A4D1-DB25AF880886}">
   <ds:schemaRefs>

--- a/Activity-Plan.xlsx
+++ b/Activity-Plan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Ideally\RPL-Dokumentasi-Ideally\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPL\Dokumentasi\RPL-Dokumentasi-Ideally\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADE458-116E-4E39-B4C4-621A99A80CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6DCC4-14E2-4923-8D11-40C26D8A86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{D50A8981-751F-424B-BBFF-9EDD7F9BB336}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D50A8981-751F-424B-BBFF-9EDD7F9BB336}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Activity Plan'!$AK$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Activity Plan'!$AK$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>ACTIVITY PLAN</t>
   </si>
@@ -180,30 +180,6 @@
     <t>Pengerjaan</t>
   </si>
   <si>
-    <t>Layanan Desain Taman</t>
-  </si>
-  <si>
-    <t>Layanan Konstruksi Taman</t>
-  </si>
-  <si>
-    <t>Layanan Pemeliharaan Taman</t>
-  </si>
-  <si>
-    <t>Layanan Penjualan</t>
-  </si>
-  <si>
-    <t>Landing Page</t>
-  </si>
-  <si>
-    <t>Company Profile</t>
-  </si>
-  <si>
-    <t>Kontak dan Konsultasi Kebutuhan</t>
-  </si>
-  <si>
-    <t>Landing Page Marketplace</t>
-  </si>
-  <si>
     <t>Katalog Produk dan Kategori Produk</t>
   </si>
   <si>
@@ -217,9 +193,6 @@
   </si>
   <si>
     <t>Keranjang dan Pemesanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revalina Fitriani &amp; Shadrina </t>
   </si>
   <si>
     <t>Proses Pembayaran</t>
@@ -253,6 +226,9 @@
   </si>
   <si>
     <t>Pembuatan Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Beranda Marketplace</t>
   </si>
 </sst>
 </file>
@@ -514,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -579,15 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,12 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,25 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,7 +688,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,13 +792,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1960,14 +1920,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>36979</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>51921</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>103738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>194236</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>103738</xdr:rowOff>
     </xdr:to>
@@ -1984,8 +1944,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11960038" y="5292062"/>
-          <a:ext cx="1554256" cy="0"/>
+          <a:off x="15075274" y="5206150"/>
+          <a:ext cx="1606550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2315,1274 +2275,1274 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606ABAC-FB63-4E28-B28E-9A6A90AAA9B1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IS51"/>
+  <dimension ref="A1:IS44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomRight" activeCell="BG32" sqref="BG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
     <col min="6" max="43" width="3" bestFit="1" customWidth="1"/>
     <col min="44" max="253" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:253" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
     </row>
-    <row r="2" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="92"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
     </row>
-    <row r="3" spans="1:253" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:253" s="7" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="96" t="s">
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="97"/>
-      <c r="AZ3" s="97"/>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="97"/>
-      <c r="BC3" s="97"/>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="85" t="s">
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="85"/>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="86"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="86"/>
-      <c r="BO3" s="86"/>
-      <c r="BP3" s="86"/>
-      <c r="BQ3" s="86"/>
-      <c r="BR3" s="86"/>
-      <c r="BS3" s="86"/>
-      <c r="BT3" s="86"/>
-      <c r="BU3" s="86"/>
-      <c r="BV3" s="86"/>
-      <c r="BW3" s="86"/>
-      <c r="BX3" s="86"/>
-      <c r="BY3" s="86"/>
-      <c r="BZ3" s="86"/>
-      <c r="CA3" s="86"/>
-      <c r="CB3" s="86"/>
-      <c r="CC3" s="86"/>
-      <c r="CD3" s="86"/>
-      <c r="CE3" s="86"/>
-      <c r="CF3" s="86"/>
-      <c r="CG3" s="86"/>
-      <c r="CH3" s="87"/>
-      <c r="CI3" s="85" t="s">
+      <c r="BF3" s="88"/>
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="88"/>
+      <c r="BI3" s="88"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="88"/>
+      <c r="BM3" s="88"/>
+      <c r="BN3" s="88"/>
+      <c r="BO3" s="88"/>
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
+      <c r="BX3" s="88"/>
+      <c r="BY3" s="88"/>
+      <c r="BZ3" s="88"/>
+      <c r="CA3" s="88"/>
+      <c r="CB3" s="88"/>
+      <c r="CC3" s="88"/>
+      <c r="CD3" s="88"/>
+      <c r="CE3" s="88"/>
+      <c r="CF3" s="88"/>
+      <c r="CG3" s="88"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="CJ3" s="86"/>
-      <c r="CK3" s="86"/>
-      <c r="CL3" s="86"/>
-      <c r="CM3" s="86"/>
-      <c r="CN3" s="86"/>
-      <c r="CO3" s="86"/>
-      <c r="CP3" s="86"/>
-      <c r="CQ3" s="86"/>
-      <c r="CR3" s="86"/>
-      <c r="CS3" s="86"/>
-      <c r="CT3" s="86"/>
-      <c r="CU3" s="86"/>
-      <c r="CV3" s="86"/>
-      <c r="CW3" s="86"/>
-      <c r="CX3" s="86"/>
-      <c r="CY3" s="86"/>
-      <c r="CZ3" s="86"/>
-      <c r="DA3" s="86"/>
-      <c r="DB3" s="86"/>
-      <c r="DC3" s="86"/>
-      <c r="DD3" s="86"/>
-      <c r="DE3" s="86"/>
-      <c r="DF3" s="86"/>
-      <c r="DG3" s="86"/>
-      <c r="DH3" s="86"/>
-      <c r="DI3" s="86"/>
-      <c r="DJ3" s="86"/>
-      <c r="DK3" s="86"/>
-      <c r="DL3" s="86"/>
-      <c r="DM3" s="87"/>
-      <c r="DN3" s="85" t="s">
+      <c r="CJ3" s="88"/>
+      <c r="CK3" s="88"/>
+      <c r="CL3" s="88"/>
+      <c r="CM3" s="88"/>
+      <c r="CN3" s="88"/>
+      <c r="CO3" s="88"/>
+      <c r="CP3" s="88"/>
+      <c r="CQ3" s="88"/>
+      <c r="CR3" s="88"/>
+      <c r="CS3" s="88"/>
+      <c r="CT3" s="88"/>
+      <c r="CU3" s="88"/>
+      <c r="CV3" s="88"/>
+      <c r="CW3" s="88"/>
+      <c r="CX3" s="88"/>
+      <c r="CY3" s="88"/>
+      <c r="CZ3" s="88"/>
+      <c r="DA3" s="88"/>
+      <c r="DB3" s="88"/>
+      <c r="DC3" s="88"/>
+      <c r="DD3" s="88"/>
+      <c r="DE3" s="88"/>
+      <c r="DF3" s="88"/>
+      <c r="DG3" s="88"/>
+      <c r="DH3" s="88"/>
+      <c r="DI3" s="88"/>
+      <c r="DJ3" s="88"/>
+      <c r="DK3" s="88"/>
+      <c r="DL3" s="88"/>
+      <c r="DM3" s="89"/>
+      <c r="DN3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="DO3" s="86"/>
-      <c r="DP3" s="86"/>
-      <c r="DQ3" s="86"/>
-      <c r="DR3" s="86"/>
-      <c r="DS3" s="86"/>
-      <c r="DT3" s="86"/>
-      <c r="DU3" s="86"/>
-      <c r="DV3" s="86"/>
-      <c r="DW3" s="86"/>
-      <c r="DX3" s="86"/>
-      <c r="DY3" s="86"/>
-      <c r="DZ3" s="86"/>
-      <c r="EA3" s="86"/>
-      <c r="EB3" s="86"/>
-      <c r="EC3" s="86"/>
-      <c r="ED3" s="86"/>
-      <c r="EE3" s="86"/>
-      <c r="EF3" s="86"/>
-      <c r="EG3" s="86"/>
-      <c r="EH3" s="86"/>
-      <c r="EI3" s="86"/>
-      <c r="EJ3" s="86"/>
-      <c r="EK3" s="86"/>
-      <c r="EL3" s="86"/>
-      <c r="EM3" s="86"/>
-      <c r="EN3" s="86"/>
-      <c r="EO3" s="86"/>
-      <c r="EP3" s="86"/>
-      <c r="EQ3" s="86"/>
-      <c r="ER3" s="87"/>
-      <c r="ES3" s="42"/>
-      <c r="ET3" s="42"/>
-      <c r="EU3" s="42"/>
-      <c r="EV3" s="42"/>
-      <c r="EW3" s="42"/>
-      <c r="EX3" s="42"/>
-      <c r="EY3" s="42"/>
-      <c r="EZ3" s="42"/>
-      <c r="FA3" s="42"/>
-      <c r="FB3" s="42"/>
-      <c r="FC3" s="42"/>
-      <c r="FD3" s="42"/>
-      <c r="FE3" s="42"/>
-      <c r="FF3" s="42"/>
-      <c r="FG3" s="42"/>
-      <c r="FH3" s="42"/>
-      <c r="FI3" s="42"/>
-      <c r="FJ3" s="42"/>
-      <c r="FK3" s="42"/>
-      <c r="FL3" s="42"/>
-      <c r="FM3" s="42"/>
-      <c r="FN3" s="42"/>
-      <c r="FO3" s="42"/>
-      <c r="FP3" s="42"/>
-      <c r="FQ3" s="42"/>
-      <c r="FR3" s="42"/>
-      <c r="FS3" s="42"/>
-      <c r="FT3" s="42"/>
-      <c r="FU3" s="42"/>
-      <c r="FV3" s="42"/>
-      <c r="FW3" s="42"/>
-      <c r="FX3" s="42"/>
-      <c r="FY3" s="42"/>
-      <c r="FZ3" s="42"/>
-      <c r="GA3" s="42"/>
-      <c r="GB3" s="42"/>
-      <c r="GC3" s="42"/>
-      <c r="GD3" s="42"/>
-      <c r="GE3" s="42"/>
-      <c r="GF3" s="42"/>
-      <c r="GG3" s="42"/>
-      <c r="GH3" s="42"/>
-      <c r="GI3" s="42"/>
-      <c r="GJ3" s="42"/>
-      <c r="GK3" s="42"/>
-      <c r="GL3" s="42"/>
-      <c r="GM3" s="42"/>
-      <c r="GN3" s="42"/>
-      <c r="GO3" s="42"/>
-      <c r="GP3" s="42"/>
-      <c r="GQ3" s="42"/>
-      <c r="GR3" s="42"/>
-      <c r="GS3" s="42"/>
-      <c r="GT3" s="42"/>
-      <c r="GU3" s="42"/>
-      <c r="GV3" s="42"/>
-      <c r="GW3" s="42"/>
-      <c r="GX3" s="42"/>
-      <c r="GY3" s="42"/>
-      <c r="GZ3" s="42"/>
-      <c r="HA3" s="42"/>
-      <c r="HB3" s="42"/>
-      <c r="HC3" s="42"/>
-      <c r="HD3" s="42"/>
-      <c r="HE3" s="42"/>
-      <c r="HF3" s="42"/>
-      <c r="HG3" s="42"/>
-      <c r="HH3" s="42"/>
-      <c r="HI3" s="42"/>
-      <c r="HJ3" s="42"/>
-      <c r="HK3" s="42"/>
-      <c r="HL3" s="42"/>
-      <c r="HM3" s="42"/>
-      <c r="HN3" s="42"/>
-      <c r="HO3" s="42"/>
-      <c r="HP3" s="42"/>
-      <c r="HQ3" s="42"/>
-      <c r="HR3" s="42"/>
-      <c r="HS3" s="42"/>
-      <c r="HT3" s="42"/>
-      <c r="HU3" s="42"/>
-      <c r="HV3" s="42"/>
-      <c r="HW3" s="42"/>
-      <c r="HX3" s="42"/>
-      <c r="HY3" s="42"/>
-      <c r="HZ3" s="42"/>
-      <c r="IA3" s="42"/>
-      <c r="IB3" s="42"/>
-      <c r="IC3" s="42"/>
-      <c r="ID3" s="42"/>
-      <c r="IE3" s="42"/>
-      <c r="IF3" s="42"/>
-      <c r="IG3" s="42"/>
-      <c r="IH3" s="42"/>
-      <c r="II3" s="42"/>
-      <c r="IJ3" s="42"/>
-      <c r="IK3" s="42"/>
-      <c r="IL3" s="42"/>
-      <c r="IM3" s="42"/>
-      <c r="IN3" s="42"/>
-      <c r="IO3" s="42"/>
-      <c r="IP3" s="42"/>
-      <c r="IQ3" s="42"/>
-      <c r="IR3" s="42"/>
-      <c r="IS3" s="42"/>
+      <c r="DO3" s="88"/>
+      <c r="DP3" s="88"/>
+      <c r="DQ3" s="88"/>
+      <c r="DR3" s="88"/>
+      <c r="DS3" s="88"/>
+      <c r="DT3" s="88"/>
+      <c r="DU3" s="88"/>
+      <c r="DV3" s="88"/>
+      <c r="DW3" s="88"/>
+      <c r="DX3" s="88"/>
+      <c r="DY3" s="88"/>
+      <c r="DZ3" s="88"/>
+      <c r="EA3" s="88"/>
+      <c r="EB3" s="88"/>
+      <c r="EC3" s="88"/>
+      <c r="ED3" s="88"/>
+      <c r="EE3" s="88"/>
+      <c r="EF3" s="88"/>
+      <c r="EG3" s="88"/>
+      <c r="EH3" s="88"/>
+      <c r="EI3" s="88"/>
+      <c r="EJ3" s="88"/>
+      <c r="EK3" s="88"/>
+      <c r="EL3" s="88"/>
+      <c r="EM3" s="88"/>
+      <c r="EN3" s="88"/>
+      <c r="EO3" s="88"/>
+      <c r="EP3" s="88"/>
+      <c r="EQ3" s="88"/>
+      <c r="ER3" s="89"/>
+      <c r="ES3" s="39"/>
+      <c r="ET3" s="39"/>
+      <c r="EU3" s="39"/>
+      <c r="EV3" s="39"/>
+      <c r="EW3" s="39"/>
+      <c r="EX3" s="39"/>
+      <c r="EY3" s="39"/>
+      <c r="EZ3" s="39"/>
+      <c r="FA3" s="39"/>
+      <c r="FB3" s="39"/>
+      <c r="FC3" s="39"/>
+      <c r="FD3" s="39"/>
+      <c r="FE3" s="39"/>
+      <c r="FF3" s="39"/>
+      <c r="FG3" s="39"/>
+      <c r="FH3" s="39"/>
+      <c r="FI3" s="39"/>
+      <c r="FJ3" s="39"/>
+      <c r="FK3" s="39"/>
+      <c r="FL3" s="39"/>
+      <c r="FM3" s="39"/>
+      <c r="FN3" s="39"/>
+      <c r="FO3" s="39"/>
+      <c r="FP3" s="39"/>
+      <c r="FQ3" s="39"/>
+      <c r="FR3" s="39"/>
+      <c r="FS3" s="39"/>
+      <c r="FT3" s="39"/>
+      <c r="FU3" s="39"/>
+      <c r="FV3" s="39"/>
+      <c r="FW3" s="39"/>
+      <c r="FX3" s="39"/>
+      <c r="FY3" s="39"/>
+      <c r="FZ3" s="39"/>
+      <c r="GA3" s="39"/>
+      <c r="GB3" s="39"/>
+      <c r="GC3" s="39"/>
+      <c r="GD3" s="39"/>
+      <c r="GE3" s="39"/>
+      <c r="GF3" s="39"/>
+      <c r="GG3" s="39"/>
+      <c r="GH3" s="39"/>
+      <c r="GI3" s="39"/>
+      <c r="GJ3" s="39"/>
+      <c r="GK3" s="39"/>
+      <c r="GL3" s="39"/>
+      <c r="GM3" s="39"/>
+      <c r="GN3" s="39"/>
+      <c r="GO3" s="39"/>
+      <c r="GP3" s="39"/>
+      <c r="GQ3" s="39"/>
+      <c r="GR3" s="39"/>
+      <c r="GS3" s="39"/>
+      <c r="GT3" s="39"/>
+      <c r="GU3" s="39"/>
+      <c r="GV3" s="39"/>
+      <c r="GW3" s="39"/>
+      <c r="GX3" s="39"/>
+      <c r="GY3" s="39"/>
+      <c r="GZ3" s="39"/>
+      <c r="HA3" s="39"/>
+      <c r="HB3" s="39"/>
+      <c r="HC3" s="39"/>
+      <c r="HD3" s="39"/>
+      <c r="HE3" s="39"/>
+      <c r="HF3" s="39"/>
+      <c r="HG3" s="39"/>
+      <c r="HH3" s="39"/>
+      <c r="HI3" s="39"/>
+      <c r="HJ3" s="39"/>
+      <c r="HK3" s="39"/>
+      <c r="HL3" s="39"/>
+      <c r="HM3" s="39"/>
+      <c r="HN3" s="39"/>
+      <c r="HO3" s="39"/>
+      <c r="HP3" s="39"/>
+      <c r="HQ3" s="39"/>
+      <c r="HR3" s="39"/>
+      <c r="HS3" s="39"/>
+      <c r="HT3" s="39"/>
+      <c r="HU3" s="39"/>
+      <c r="HV3" s="39"/>
+      <c r="HW3" s="39"/>
+      <c r="HX3" s="39"/>
+      <c r="HY3" s="39"/>
+      <c r="HZ3" s="39"/>
+      <c r="IA3" s="39"/>
+      <c r="IB3" s="39"/>
+      <c r="IC3" s="39"/>
+      <c r="ID3" s="39"/>
+      <c r="IE3" s="39"/>
+      <c r="IF3" s="39"/>
+      <c r="IG3" s="39"/>
+      <c r="IH3" s="39"/>
+      <c r="II3" s="39"/>
+      <c r="IJ3" s="39"/>
+      <c r="IK3" s="39"/>
+      <c r="IL3" s="39"/>
+      <c r="IM3" s="39"/>
+      <c r="IN3" s="39"/>
+      <c r="IO3" s="39"/>
+      <c r="IP3" s="39"/>
+      <c r="IQ3" s="39"/>
+      <c r="IR3" s="39"/>
+      <c r="IS3" s="39"/>
     </row>
-    <row r="4" spans="1:253" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="44">
+    <row r="4" spans="1:253" s="7" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="41">
         <v>11</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="41">
         <v>12</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="41">
         <v>13</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="41">
         <v>14</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="41">
         <v>15</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="41">
         <v>16</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="41">
         <v>17</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="41">
         <v>18</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="41">
         <v>19</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="41">
         <v>20</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="41">
         <v>21</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="41">
         <v>22</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="41">
         <v>23</v>
       </c>
-      <c r="S4" s="44">
+      <c r="S4" s="41">
         <v>24</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="41">
         <v>25</v>
       </c>
-      <c r="U4" s="44">
+      <c r="U4" s="41">
         <v>26</v>
       </c>
-      <c r="V4" s="44">
+      <c r="V4" s="41">
         <v>27</v>
       </c>
-      <c r="W4" s="44">
+      <c r="W4" s="41">
         <v>28</v>
       </c>
-      <c r="X4" s="44">
+      <c r="X4" s="41">
         <v>29</v>
       </c>
-      <c r="Y4" s="44">
+      <c r="Y4" s="41">
         <v>30</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="Z4" s="41">
         <v>1</v>
       </c>
-      <c r="AA4" s="44">
+      <c r="AA4" s="41">
         <v>2</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AB4" s="41">
         <v>3</v>
       </c>
-      <c r="AC4" s="44">
+      <c r="AC4" s="41">
         <v>4</v>
       </c>
-      <c r="AD4" s="44">
+      <c r="AD4" s="41">
         <v>5</v>
       </c>
-      <c r="AE4" s="44">
+      <c r="AE4" s="41">
         <v>6</v>
       </c>
-      <c r="AF4" s="44">
+      <c r="AF4" s="41">
         <v>7</v>
       </c>
-      <c r="AG4" s="44">
+      <c r="AG4" s="41">
         <v>8</v>
       </c>
-      <c r="AH4" s="44">
+      <c r="AH4" s="41">
         <v>9</v>
       </c>
-      <c r="AI4" s="44">
+      <c r="AI4" s="41">
         <v>10</v>
       </c>
-      <c r="AJ4" s="44">
+      <c r="AJ4" s="41">
         <v>11</v>
       </c>
-      <c r="AK4" s="44">
+      <c r="AK4" s="41">
         <v>12</v>
       </c>
-      <c r="AL4" s="82">
+      <c r="AL4" s="77">
         <v>13</v>
       </c>
-      <c r="AM4" s="44">
+      <c r="AM4" s="41">
         <v>14</v>
       </c>
-      <c r="AN4" s="44">
+      <c r="AN4" s="41">
         <v>15</v>
       </c>
-      <c r="AO4" s="44">
+      <c r="AO4" s="41">
         <v>16</v>
       </c>
-      <c r="AP4" s="44">
+      <c r="AP4" s="41">
         <v>17</v>
       </c>
-      <c r="AQ4" s="44">
+      <c r="AQ4" s="41">
         <v>18</v>
       </c>
-      <c r="AR4" s="44">
+      <c r="AR4" s="41">
         <v>19</v>
       </c>
-      <c r="AS4" s="44">
+      <c r="AS4" s="41">
         <v>20</v>
       </c>
-      <c r="AT4" s="44">
+      <c r="AT4" s="41">
         <v>21</v>
       </c>
-      <c r="AU4" s="44">
+      <c r="AU4" s="41">
         <v>22</v>
       </c>
-      <c r="AV4" s="44">
+      <c r="AV4" s="41">
         <v>23</v>
       </c>
-      <c r="AW4" s="44">
+      <c r="AW4" s="41">
         <v>24</v>
       </c>
-      <c r="AX4" s="44">
+      <c r="AX4" s="41">
         <v>25</v>
       </c>
-      <c r="AY4" s="44">
+      <c r="AY4" s="41">
         <v>26</v>
       </c>
-      <c r="AZ4" s="44">
+      <c r="AZ4" s="41">
         <v>27</v>
       </c>
-      <c r="BA4" s="44">
+      <c r="BA4" s="41">
         <v>28</v>
       </c>
-      <c r="BB4" s="44">
+      <c r="BB4" s="41">
         <v>29</v>
       </c>
-      <c r="BC4" s="45">
+      <c r="BC4" s="42">
         <v>30</v>
       </c>
-      <c r="BD4" s="45">
+      <c r="BD4" s="42">
         <v>31</v>
       </c>
-      <c r="BE4" s="44">
+      <c r="BE4" s="41">
         <v>1</v>
       </c>
-      <c r="BF4" s="44">
+      <c r="BF4" s="41">
         <v>2</v>
       </c>
-      <c r="BG4" s="44">
+      <c r="BG4" s="41">
         <v>3</v>
       </c>
-      <c r="BH4" s="44">
+      <c r="BH4" s="41">
         <v>4</v>
       </c>
-      <c r="BI4" s="44">
+      <c r="BI4" s="41">
         <v>5</v>
       </c>
-      <c r="BJ4" s="44">
+      <c r="BJ4" s="41">
         <v>6</v>
       </c>
-      <c r="BK4" s="44">
+      <c r="BK4" s="41">
         <v>7</v>
       </c>
-      <c r="BL4" s="44">
+      <c r="BL4" s="41">
         <v>8</v>
       </c>
-      <c r="BM4" s="44">
+      <c r="BM4" s="41">
         <v>9</v>
       </c>
-      <c r="BN4" s="44">
+      <c r="BN4" s="41">
         <v>10</v>
       </c>
-      <c r="BO4" s="44">
+      <c r="BO4" s="41">
         <v>11</v>
       </c>
-      <c r="BP4" s="44">
+      <c r="BP4" s="41">
         <v>12</v>
       </c>
-      <c r="BQ4" s="44">
+      <c r="BQ4" s="41">
         <v>13</v>
       </c>
-      <c r="BR4" s="44">
+      <c r="BR4" s="41">
         <v>14</v>
       </c>
-      <c r="BS4" s="44">
+      <c r="BS4" s="41">
         <v>15</v>
       </c>
-      <c r="BT4" s="44">
+      <c r="BT4" s="41">
         <v>16</v>
       </c>
-      <c r="BU4" s="44">
+      <c r="BU4" s="41">
         <v>17</v>
       </c>
-      <c r="BV4" s="44">
+      <c r="BV4" s="41">
         <v>18</v>
       </c>
-      <c r="BW4" s="44">
+      <c r="BW4" s="41">
         <v>19</v>
       </c>
-      <c r="BX4" s="44">
+      <c r="BX4" s="41">
         <v>20</v>
       </c>
-      <c r="BY4" s="44">
+      <c r="BY4" s="41">
         <v>21</v>
       </c>
-      <c r="BZ4" s="44">
+      <c r="BZ4" s="41">
         <v>22</v>
       </c>
-      <c r="CA4" s="44">
+      <c r="CA4" s="41">
         <v>23</v>
       </c>
-      <c r="CB4" s="44">
+      <c r="CB4" s="41">
         <v>24</v>
       </c>
-      <c r="CC4" s="44">
+      <c r="CC4" s="41">
         <v>25</v>
       </c>
-      <c r="CD4" s="44">
+      <c r="CD4" s="41">
         <v>26</v>
       </c>
-      <c r="CE4" s="44">
+      <c r="CE4" s="41">
         <v>27</v>
       </c>
-      <c r="CF4" s="44">
+      <c r="CF4" s="41">
         <v>28</v>
       </c>
-      <c r="CG4" s="44">
+      <c r="CG4" s="41">
         <v>29</v>
       </c>
-      <c r="CH4" s="45">
+      <c r="CH4" s="42">
         <v>30</v>
       </c>
-      <c r="CI4" s="44">
+      <c r="CI4" s="41">
         <v>1</v>
       </c>
-      <c r="CJ4" s="44">
+      <c r="CJ4" s="41">
         <v>2</v>
       </c>
-      <c r="CK4" s="44">
+      <c r="CK4" s="41">
         <v>3</v>
       </c>
-      <c r="CL4" s="44">
+      <c r="CL4" s="41">
         <v>4</v>
       </c>
-      <c r="CM4" s="44">
+      <c r="CM4" s="41">
         <v>5</v>
       </c>
-      <c r="CN4" s="44">
+      <c r="CN4" s="41">
         <v>6</v>
       </c>
-      <c r="CO4" s="44">
+      <c r="CO4" s="41">
         <v>7</v>
       </c>
-      <c r="CP4" s="44">
+      <c r="CP4" s="41">
         <v>8</v>
       </c>
-      <c r="CQ4" s="44">
+      <c r="CQ4" s="41">
         <v>9</v>
       </c>
-      <c r="CR4" s="44">
+      <c r="CR4" s="41">
         <v>10</v>
       </c>
-      <c r="CS4" s="44">
+      <c r="CS4" s="41">
         <v>11</v>
       </c>
-      <c r="CT4" s="44">
+      <c r="CT4" s="41">
         <v>12</v>
       </c>
-      <c r="CU4" s="44">
+      <c r="CU4" s="41">
         <v>13</v>
       </c>
-      <c r="CV4" s="44">
+      <c r="CV4" s="41">
         <v>14</v>
       </c>
-      <c r="CW4" s="44">
+      <c r="CW4" s="41">
         <v>15</v>
       </c>
-      <c r="CX4" s="44">
+      <c r="CX4" s="41">
         <v>16</v>
       </c>
-      <c r="CY4" s="44">
+      <c r="CY4" s="41">
         <v>17</v>
       </c>
-      <c r="CZ4" s="44">
+      <c r="CZ4" s="41">
         <v>18</v>
       </c>
-      <c r="DA4" s="44">
+      <c r="DA4" s="41">
         <v>19</v>
       </c>
-      <c r="DB4" s="44">
+      <c r="DB4" s="41">
         <v>20</v>
       </c>
-      <c r="DC4" s="44">
+      <c r="DC4" s="41">
         <v>21</v>
       </c>
-      <c r="DD4" s="44">
+      <c r="DD4" s="41">
         <v>22</v>
       </c>
-      <c r="DE4" s="44">
+      <c r="DE4" s="41">
         <v>23</v>
       </c>
-      <c r="DF4" s="44">
+      <c r="DF4" s="41">
         <v>24</v>
       </c>
-      <c r="DG4" s="44">
+      <c r="DG4" s="41">
         <v>25</v>
       </c>
-      <c r="DH4" s="44">
+      <c r="DH4" s="41">
         <v>26</v>
       </c>
-      <c r="DI4" s="44">
+      <c r="DI4" s="41">
         <v>27</v>
       </c>
-      <c r="DJ4" s="44">
+      <c r="DJ4" s="41">
         <v>28</v>
       </c>
-      <c r="DK4" s="44">
+      <c r="DK4" s="41">
         <v>29</v>
       </c>
-      <c r="DL4" s="45">
+      <c r="DL4" s="42">
         <v>30</v>
       </c>
-      <c r="DM4" s="45">
+      <c r="DM4" s="42">
         <v>31</v>
       </c>
-      <c r="DN4" s="44">
+      <c r="DN4" s="41">
         <v>1</v>
       </c>
-      <c r="DO4" s="44">
+      <c r="DO4" s="41">
         <v>2</v>
       </c>
-      <c r="DP4" s="44">
+      <c r="DP4" s="41">
         <v>3</v>
       </c>
-      <c r="DQ4" s="44">
+      <c r="DQ4" s="41">
         <v>4</v>
       </c>
-      <c r="DR4" s="44">
+      <c r="DR4" s="41">
         <v>5</v>
       </c>
-      <c r="DS4" s="44">
+      <c r="DS4" s="41">
         <v>6</v>
       </c>
-      <c r="DT4" s="44">
+      <c r="DT4" s="41">
         <v>7</v>
       </c>
-      <c r="DU4" s="44">
+      <c r="DU4" s="41">
         <v>8</v>
       </c>
-      <c r="DV4" s="44">
+      <c r="DV4" s="41">
         <v>9</v>
       </c>
-      <c r="DW4" s="44">
+      <c r="DW4" s="41">
         <v>10</v>
       </c>
-      <c r="DX4" s="44">
+      <c r="DX4" s="41">
         <v>11</v>
       </c>
-      <c r="DY4" s="44">
+      <c r="DY4" s="41">
         <v>12</v>
       </c>
-      <c r="DZ4" s="44">
+      <c r="DZ4" s="41">
         <v>13</v>
       </c>
-      <c r="EA4" s="44">
+      <c r="EA4" s="41">
         <v>14</v>
       </c>
-      <c r="EB4" s="44">
+      <c r="EB4" s="41">
         <v>15</v>
       </c>
-      <c r="EC4" s="44">
+      <c r="EC4" s="41">
         <v>16</v>
       </c>
-      <c r="ED4" s="44">
+      <c r="ED4" s="41">
         <v>17</v>
       </c>
-      <c r="EE4" s="44">
+      <c r="EE4" s="41">
         <v>18</v>
       </c>
-      <c r="EF4" s="44">
+      <c r="EF4" s="41">
         <v>19</v>
       </c>
-      <c r="EG4" s="44">
+      <c r="EG4" s="41">
         <v>20</v>
       </c>
-      <c r="EH4" s="44">
+      <c r="EH4" s="41">
         <v>21</v>
       </c>
-      <c r="EI4" s="44">
+      <c r="EI4" s="41">
         <v>22</v>
       </c>
-      <c r="EJ4" s="44">
+      <c r="EJ4" s="41">
         <v>23</v>
       </c>
-      <c r="EK4" s="44">
+      <c r="EK4" s="41">
         <v>24</v>
       </c>
-      <c r="EL4" s="44">
+      <c r="EL4" s="41">
         <v>25</v>
       </c>
-      <c r="EM4" s="44">
+      <c r="EM4" s="41">
         <v>26</v>
       </c>
-      <c r="EN4" s="44">
+      <c r="EN4" s="41">
         <v>27</v>
       </c>
-      <c r="EO4" s="44">
+      <c r="EO4" s="41">
         <v>28</v>
       </c>
-      <c r="EP4" s="44">
+      <c r="EP4" s="41">
         <v>29</v>
       </c>
-      <c r="EQ4" s="45">
+      <c r="EQ4" s="42">
         <v>30</v>
       </c>
-      <c r="ER4" s="45">
+      <c r="ER4" s="42">
         <v>31</v>
       </c>
-      <c r="ES4" s="46"/>
-      <c r="ET4" s="46"/>
-      <c r="EU4" s="46"/>
-      <c r="EV4" s="46"/>
-      <c r="EW4" s="46"/>
-      <c r="EX4" s="46"/>
-      <c r="EY4" s="46"/>
-      <c r="EZ4" s="46"/>
-      <c r="FA4" s="46"/>
-      <c r="FB4" s="46"/>
-      <c r="FC4" s="46"/>
-      <c r="FD4" s="46"/>
-      <c r="FE4" s="46"/>
-      <c r="FF4" s="46"/>
-      <c r="FG4" s="46"/>
-      <c r="FH4" s="46"/>
-      <c r="FI4" s="46"/>
-      <c r="FJ4" s="46"/>
-      <c r="FK4" s="46"/>
-      <c r="FL4" s="46"/>
-      <c r="FM4" s="46"/>
-      <c r="FN4" s="46"/>
-      <c r="FO4" s="46"/>
-      <c r="FP4" s="46"/>
-      <c r="FQ4" s="46"/>
-      <c r="FR4" s="46"/>
-      <c r="FS4" s="46"/>
-      <c r="FT4" s="46"/>
-      <c r="FU4" s="46"/>
-      <c r="FV4" s="46"/>
-      <c r="FW4" s="46"/>
-      <c r="FX4" s="46"/>
-      <c r="FY4" s="46"/>
-      <c r="FZ4" s="46"/>
-      <c r="GA4" s="46"/>
-      <c r="GB4" s="46"/>
-      <c r="GC4" s="46"/>
-      <c r="GD4" s="46"/>
-      <c r="GE4" s="46"/>
-      <c r="GF4" s="46"/>
-      <c r="GG4" s="46"/>
-      <c r="GH4" s="46"/>
-      <c r="GI4" s="46"/>
-      <c r="GJ4" s="46"/>
-      <c r="GK4" s="46"/>
-      <c r="GL4" s="46"/>
-      <c r="GM4" s="46"/>
-      <c r="GN4" s="46"/>
-      <c r="GO4" s="46"/>
-      <c r="GP4" s="46"/>
-      <c r="GQ4" s="46"/>
-      <c r="GR4" s="46"/>
-      <c r="GS4" s="46"/>
-      <c r="GT4" s="46"/>
-      <c r="GU4" s="46"/>
-      <c r="GV4" s="46"/>
-      <c r="GW4" s="46"/>
-      <c r="GX4" s="46"/>
-      <c r="GY4" s="46"/>
-      <c r="GZ4" s="46"/>
-      <c r="HA4" s="46"/>
-      <c r="HB4" s="46"/>
-      <c r="HC4" s="46"/>
-      <c r="HD4" s="46"/>
-      <c r="HE4" s="46"/>
-      <c r="HF4" s="46"/>
-      <c r="HG4" s="46"/>
-      <c r="HH4" s="46"/>
-      <c r="HI4" s="46"/>
-      <c r="HJ4" s="46"/>
-      <c r="HK4" s="46"/>
-      <c r="HL4" s="46"/>
-      <c r="HM4" s="46"/>
-      <c r="HN4" s="46"/>
-      <c r="HO4" s="46"/>
-      <c r="HP4" s="46"/>
-      <c r="HQ4" s="46"/>
-      <c r="HR4" s="46"/>
-      <c r="HS4" s="46"/>
-      <c r="HT4" s="46"/>
-      <c r="HU4" s="46"/>
-      <c r="HV4" s="46"/>
-      <c r="HW4" s="46"/>
-      <c r="HX4" s="46"/>
-      <c r="HY4" s="46"/>
-      <c r="HZ4" s="46"/>
-      <c r="IA4" s="46"/>
-      <c r="IB4" s="46"/>
-      <c r="IC4" s="46"/>
-      <c r="ID4" s="46"/>
-      <c r="IE4" s="46"/>
-      <c r="IF4" s="46"/>
-      <c r="IG4" s="46"/>
-      <c r="IH4" s="46"/>
-      <c r="II4" s="46"/>
-      <c r="IJ4" s="46"/>
-      <c r="IK4" s="46"/>
-      <c r="IL4" s="46"/>
-      <c r="IM4" s="46"/>
-      <c r="IN4" s="46"/>
-      <c r="IO4" s="46"/>
-      <c r="IP4" s="46"/>
-      <c r="IQ4" s="46"/>
-      <c r="IR4" s="46"/>
-      <c r="IS4" s="46"/>
+      <c r="ES4" s="43"/>
+      <c r="ET4" s="43"/>
+      <c r="EU4" s="43"/>
+      <c r="EV4" s="43"/>
+      <c r="EW4" s="43"/>
+      <c r="EX4" s="43"/>
+      <c r="EY4" s="43"/>
+      <c r="EZ4" s="43"/>
+      <c r="FA4" s="43"/>
+      <c r="FB4" s="43"/>
+      <c r="FC4" s="43"/>
+      <c r="FD4" s="43"/>
+      <c r="FE4" s="43"/>
+      <c r="FF4" s="43"/>
+      <c r="FG4" s="43"/>
+      <c r="FH4" s="43"/>
+      <c r="FI4" s="43"/>
+      <c r="FJ4" s="43"/>
+      <c r="FK4" s="43"/>
+      <c r="FL4" s="43"/>
+      <c r="FM4" s="43"/>
+      <c r="FN4" s="43"/>
+      <c r="FO4" s="43"/>
+      <c r="FP4" s="43"/>
+      <c r="FQ4" s="43"/>
+      <c r="FR4" s="43"/>
+      <c r="FS4" s="43"/>
+      <c r="FT4" s="43"/>
+      <c r="FU4" s="43"/>
+      <c r="FV4" s="43"/>
+      <c r="FW4" s="43"/>
+      <c r="FX4" s="43"/>
+      <c r="FY4" s="43"/>
+      <c r="FZ4" s="43"/>
+      <c r="GA4" s="43"/>
+      <c r="GB4" s="43"/>
+      <c r="GC4" s="43"/>
+      <c r="GD4" s="43"/>
+      <c r="GE4" s="43"/>
+      <c r="GF4" s="43"/>
+      <c r="GG4" s="43"/>
+      <c r="GH4" s="43"/>
+      <c r="GI4" s="43"/>
+      <c r="GJ4" s="43"/>
+      <c r="GK4" s="43"/>
+      <c r="GL4" s="43"/>
+      <c r="GM4" s="43"/>
+      <c r="GN4" s="43"/>
+      <c r="GO4" s="43"/>
+      <c r="GP4" s="43"/>
+      <c r="GQ4" s="43"/>
+      <c r="GR4" s="43"/>
+      <c r="GS4" s="43"/>
+      <c r="GT4" s="43"/>
+      <c r="GU4" s="43"/>
+      <c r="GV4" s="43"/>
+      <c r="GW4" s="43"/>
+      <c r="GX4" s="43"/>
+      <c r="GY4" s="43"/>
+      <c r="GZ4" s="43"/>
+      <c r="HA4" s="43"/>
+      <c r="HB4" s="43"/>
+      <c r="HC4" s="43"/>
+      <c r="HD4" s="43"/>
+      <c r="HE4" s="43"/>
+      <c r="HF4" s="43"/>
+      <c r="HG4" s="43"/>
+      <c r="HH4" s="43"/>
+      <c r="HI4" s="43"/>
+      <c r="HJ4" s="43"/>
+      <c r="HK4" s="43"/>
+      <c r="HL4" s="43"/>
+      <c r="HM4" s="43"/>
+      <c r="HN4" s="43"/>
+      <c r="HO4" s="43"/>
+      <c r="HP4" s="43"/>
+      <c r="HQ4" s="43"/>
+      <c r="HR4" s="43"/>
+      <c r="HS4" s="43"/>
+      <c r="HT4" s="43"/>
+      <c r="HU4" s="43"/>
+      <c r="HV4" s="43"/>
+      <c r="HW4" s="43"/>
+      <c r="HX4" s="43"/>
+      <c r="HY4" s="43"/>
+      <c r="HZ4" s="43"/>
+      <c r="IA4" s="43"/>
+      <c r="IB4" s="43"/>
+      <c r="IC4" s="43"/>
+      <c r="ID4" s="43"/>
+      <c r="IE4" s="43"/>
+      <c r="IF4" s="43"/>
+      <c r="IG4" s="43"/>
+      <c r="IH4" s="43"/>
+      <c r="II4" s="43"/>
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
     </row>
-    <row r="5" spans="1:253" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:253" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
     </row>
-    <row r="6" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>1</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="47">
         <v>45187</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="47"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="47"/>
-      <c r="BQ6" s="47"/>
-      <c r="BR6" s="47"/>
-      <c r="BS6" s="47"/>
-      <c r="BT6" s="47"/>
-      <c r="BU6" s="47"/>
-      <c r="BV6" s="47"/>
-      <c r="BW6" s="47"/>
-      <c r="BX6" s="47"/>
-      <c r="BY6" s="47"/>
-      <c r="BZ6" s="47"/>
-      <c r="CA6" s="47"/>
-      <c r="CB6" s="47"/>
-      <c r="CC6" s="47"/>
-      <c r="CD6" s="47"/>
-      <c r="CE6" s="47"/>
-      <c r="CF6" s="47"/>
-      <c r="CG6" s="47"/>
-      <c r="CH6" s="47"/>
-      <c r="CI6" s="47"/>
-      <c r="CJ6" s="47"/>
-      <c r="CK6" s="47"/>
-      <c r="CL6" s="47"/>
-      <c r="CM6" s="47"/>
-      <c r="CN6" s="47"/>
-      <c r="CO6" s="47"/>
-      <c r="CP6" s="47"/>
-      <c r="CQ6" s="47"/>
-      <c r="CR6" s="47"/>
-      <c r="CS6" s="47"/>
-      <c r="CT6" s="47"/>
-      <c r="CU6" s="47"/>
-      <c r="CV6" s="47"/>
-      <c r="CW6" s="47"/>
-      <c r="CX6" s="47"/>
-      <c r="CY6" s="47"/>
-      <c r="CZ6" s="47"/>
-      <c r="DA6" s="47"/>
-      <c r="DB6" s="47"/>
-      <c r="DC6" s="47"/>
-      <c r="DD6" s="47"/>
-      <c r="DE6" s="47"/>
-      <c r="DF6" s="47"/>
-      <c r="DG6" s="47"/>
-      <c r="DH6" s="47"/>
-      <c r="DI6" s="47"/>
-      <c r="DJ6" s="47"/>
-      <c r="DK6" s="47"/>
-      <c r="DL6" s="47"/>
-      <c r="DM6" s="47"/>
-      <c r="DN6" s="47"/>
-      <c r="DO6" s="47"/>
-      <c r="DP6" s="47"/>
-      <c r="DQ6" s="47"/>
-      <c r="DR6" s="47"/>
-      <c r="DS6" s="47"/>
-      <c r="DT6" s="47"/>
-      <c r="DU6" s="47"/>
-      <c r="DV6" s="47"/>
-      <c r="DW6" s="47"/>
-      <c r="DX6" s="47"/>
-      <c r="DY6" s="47"/>
-      <c r="DZ6" s="47"/>
-      <c r="EA6" s="47"/>
-      <c r="EB6" s="47"/>
-      <c r="EC6" s="47"/>
-      <c r="ED6" s="47"/>
-      <c r="EE6" s="47"/>
-      <c r="EF6" s="47"/>
-      <c r="EG6" s="47"/>
-      <c r="EH6" s="47"/>
-      <c r="EI6" s="47"/>
-      <c r="EJ6" s="47"/>
-      <c r="EK6" s="47"/>
-      <c r="EL6" s="47"/>
-      <c r="EM6" s="47"/>
-      <c r="EN6" s="47"/>
-      <c r="EO6" s="47"/>
-      <c r="EP6" s="47"/>
-      <c r="EQ6" s="47"/>
-      <c r="ER6" s="47"/>
-      <c r="ES6" s="47"/>
-      <c r="ET6" s="47"/>
-      <c r="EU6" s="47"/>
-      <c r="EV6" s="47"/>
-      <c r="EW6" s="47"/>
-      <c r="EX6" s="47"/>
-      <c r="EY6" s="47"/>
-      <c r="EZ6" s="47"/>
-      <c r="FA6" s="47"/>
-      <c r="FB6" s="47"/>
-      <c r="FC6" s="47"/>
-      <c r="FD6" s="47"/>
-      <c r="FE6" s="47"/>
-      <c r="FF6" s="47"/>
-      <c r="FG6" s="47"/>
-      <c r="FH6" s="47"/>
-      <c r="FI6" s="47"/>
-      <c r="FJ6" s="47"/>
-      <c r="FK6" s="47"/>
-      <c r="FL6" s="47"/>
-      <c r="FM6" s="47"/>
-      <c r="FN6" s="47"/>
-      <c r="FO6" s="47"/>
-      <c r="FP6" s="47"/>
-      <c r="FQ6" s="47"/>
-      <c r="FR6" s="47"/>
-      <c r="FS6" s="47"/>
-      <c r="FT6" s="47"/>
-      <c r="FU6" s="47"/>
-      <c r="FV6" s="47"/>
-      <c r="FW6" s="47"/>
-      <c r="FX6" s="47"/>
-      <c r="FY6" s="47"/>
-      <c r="FZ6" s="47"/>
-      <c r="GA6" s="47"/>
-      <c r="GB6" s="47"/>
-      <c r="GC6" s="47"/>
-      <c r="GD6" s="47"/>
-      <c r="GE6" s="47"/>
-      <c r="GF6" s="47"/>
-      <c r="GG6" s="47"/>
-      <c r="GH6" s="47"/>
-      <c r="GI6" s="47"/>
-      <c r="GJ6" s="47"/>
-      <c r="GK6" s="47"/>
-      <c r="GL6" s="47"/>
-      <c r="GM6" s="47"/>
-      <c r="GN6" s="47"/>
-      <c r="GO6" s="47"/>
-      <c r="GP6" s="47"/>
-      <c r="GQ6" s="47"/>
-      <c r="GR6" s="47"/>
-      <c r="GS6" s="47"/>
-      <c r="GT6" s="47"/>
-      <c r="GU6" s="47"/>
-      <c r="GV6" s="47"/>
-      <c r="GW6" s="47"/>
-      <c r="GX6" s="47"/>
-      <c r="GY6" s="47"/>
-      <c r="GZ6" s="47"/>
-      <c r="HA6" s="47"/>
-      <c r="HB6" s="47"/>
-      <c r="HC6" s="47"/>
-      <c r="HD6" s="47"/>
-      <c r="HE6" s="47"/>
-      <c r="HF6" s="47"/>
-      <c r="HG6" s="47"/>
-      <c r="HH6" s="47"/>
-      <c r="HI6" s="47"/>
-      <c r="HJ6" s="47"/>
-      <c r="HK6" s="47"/>
-      <c r="HL6" s="47"/>
-      <c r="HM6" s="47"/>
-      <c r="HN6" s="47"/>
-      <c r="HO6" s="47"/>
-      <c r="HP6" s="47"/>
-      <c r="HQ6" s="47"/>
-      <c r="HR6" s="47"/>
-      <c r="HS6" s="47"/>
-      <c r="HT6" s="47"/>
-      <c r="HU6" s="47"/>
-      <c r="HV6" s="47"/>
-      <c r="HW6" s="47"/>
-      <c r="HX6" s="47"/>
-      <c r="HY6" s="47"/>
-      <c r="HZ6" s="47"/>
-      <c r="IA6" s="47"/>
-      <c r="IB6" s="47"/>
-      <c r="IC6" s="47"/>
-      <c r="ID6" s="47"/>
-      <c r="IE6" s="47"/>
-      <c r="IF6" s="47"/>
-      <c r="IG6" s="47"/>
-      <c r="IH6" s="47"/>
-      <c r="II6" s="47"/>
-      <c r="IJ6" s="47"/>
-      <c r="IK6" s="47"/>
-      <c r="IL6" s="47"/>
-      <c r="IM6" s="47"/>
-      <c r="IN6" s="47"/>
-      <c r="IO6" s="47"/>
-      <c r="IP6" s="47"/>
-      <c r="IQ6" s="47"/>
-      <c r="IR6" s="47"/>
-      <c r="IS6" s="47"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="44"/>
+      <c r="BQ6" s="44"/>
+      <c r="BR6" s="44"/>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="44"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="44"/>
+      <c r="CB6" s="44"/>
+      <c r="CC6" s="44"/>
+      <c r="CD6" s="44"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="44"/>
+      <c r="CG6" s="44"/>
+      <c r="CH6" s="44"/>
+      <c r="CI6" s="44"/>
+      <c r="CJ6" s="44"/>
+      <c r="CK6" s="44"/>
+      <c r="CL6" s="44"/>
+      <c r="CM6" s="44"/>
+      <c r="CN6" s="44"/>
+      <c r="CO6" s="44"/>
+      <c r="CP6" s="44"/>
+      <c r="CQ6" s="44"/>
+      <c r="CR6" s="44"/>
+      <c r="CS6" s="44"/>
+      <c r="CT6" s="44"/>
+      <c r="CU6" s="44"/>
+      <c r="CV6" s="44"/>
+      <c r="CW6" s="44"/>
+      <c r="CX6" s="44"/>
+      <c r="CY6" s="44"/>
+      <c r="CZ6" s="44"/>
+      <c r="DA6" s="44"/>
+      <c r="DB6" s="44"/>
+      <c r="DC6" s="44"/>
+      <c r="DD6" s="44"/>
+      <c r="DE6" s="44"/>
+      <c r="DF6" s="44"/>
+      <c r="DG6" s="44"/>
+      <c r="DH6" s="44"/>
+      <c r="DI6" s="44"/>
+      <c r="DJ6" s="44"/>
+      <c r="DK6" s="44"/>
+      <c r="DL6" s="44"/>
+      <c r="DM6" s="44"/>
+      <c r="DN6" s="44"/>
+      <c r="DO6" s="44"/>
+      <c r="DP6" s="44"/>
+      <c r="DQ6" s="44"/>
+      <c r="DR6" s="44"/>
+      <c r="DS6" s="44"/>
+      <c r="DT6" s="44"/>
+      <c r="DU6" s="44"/>
+      <c r="DV6" s="44"/>
+      <c r="DW6" s="44"/>
+      <c r="DX6" s="44"/>
+      <c r="DY6" s="44"/>
+      <c r="DZ6" s="44"/>
+      <c r="EA6" s="44"/>
+      <c r="EB6" s="44"/>
+      <c r="EC6" s="44"/>
+      <c r="ED6" s="44"/>
+      <c r="EE6" s="44"/>
+      <c r="EF6" s="44"/>
+      <c r="EG6" s="44"/>
+      <c r="EH6" s="44"/>
+      <c r="EI6" s="44"/>
+      <c r="EJ6" s="44"/>
+      <c r="EK6" s="44"/>
+      <c r="EL6" s="44"/>
+      <c r="EM6" s="44"/>
+      <c r="EN6" s="44"/>
+      <c r="EO6" s="44"/>
+      <c r="EP6" s="44"/>
+      <c r="EQ6" s="44"/>
+      <c r="ER6" s="44"/>
+      <c r="ES6" s="44"/>
+      <c r="ET6" s="44"/>
+      <c r="EU6" s="44"/>
+      <c r="EV6" s="44"/>
+      <c r="EW6" s="44"/>
+      <c r="EX6" s="44"/>
+      <c r="EY6" s="44"/>
+      <c r="EZ6" s="44"/>
+      <c r="FA6" s="44"/>
+      <c r="FB6" s="44"/>
+      <c r="FC6" s="44"/>
+      <c r="FD6" s="44"/>
+      <c r="FE6" s="44"/>
+      <c r="FF6" s="44"/>
+      <c r="FG6" s="44"/>
+      <c r="FH6" s="44"/>
+      <c r="FI6" s="44"/>
+      <c r="FJ6" s="44"/>
+      <c r="FK6" s="44"/>
+      <c r="FL6" s="44"/>
+      <c r="FM6" s="44"/>
+      <c r="FN6" s="44"/>
+      <c r="FO6" s="44"/>
+      <c r="FP6" s="44"/>
+      <c r="FQ6" s="44"/>
+      <c r="FR6" s="44"/>
+      <c r="FS6" s="44"/>
+      <c r="FT6" s="44"/>
+      <c r="FU6" s="44"/>
+      <c r="FV6" s="44"/>
+      <c r="FW6" s="44"/>
+      <c r="FX6" s="44"/>
+      <c r="FY6" s="44"/>
+      <c r="FZ6" s="44"/>
+      <c r="GA6" s="44"/>
+      <c r="GB6" s="44"/>
+      <c r="GC6" s="44"/>
+      <c r="GD6" s="44"/>
+      <c r="GE6" s="44"/>
+      <c r="GF6" s="44"/>
+      <c r="GG6" s="44"/>
+      <c r="GH6" s="44"/>
+      <c r="GI6" s="44"/>
+      <c r="GJ6" s="44"/>
+      <c r="GK6" s="44"/>
+      <c r="GL6" s="44"/>
+      <c r="GM6" s="44"/>
+      <c r="GN6" s="44"/>
+      <c r="GO6" s="44"/>
+      <c r="GP6" s="44"/>
+      <c r="GQ6" s="44"/>
+      <c r="GR6" s="44"/>
+      <c r="GS6" s="44"/>
+      <c r="GT6" s="44"/>
+      <c r="GU6" s="44"/>
+      <c r="GV6" s="44"/>
+      <c r="GW6" s="44"/>
+      <c r="GX6" s="44"/>
+      <c r="GY6" s="44"/>
+      <c r="GZ6" s="44"/>
+      <c r="HA6" s="44"/>
+      <c r="HB6" s="44"/>
+      <c r="HC6" s="44"/>
+      <c r="HD6" s="44"/>
+      <c r="HE6" s="44"/>
+      <c r="HF6" s="44"/>
+      <c r="HG6" s="44"/>
+      <c r="HH6" s="44"/>
+      <c r="HI6" s="44"/>
+      <c r="HJ6" s="44"/>
+      <c r="HK6" s="44"/>
+      <c r="HL6" s="44"/>
+      <c r="HM6" s="44"/>
+      <c r="HN6" s="44"/>
+      <c r="HO6" s="44"/>
+      <c r="HP6" s="44"/>
+      <c r="HQ6" s="44"/>
+      <c r="HR6" s="44"/>
+      <c r="HS6" s="44"/>
+      <c r="HT6" s="44"/>
+      <c r="HU6" s="44"/>
+      <c r="HV6" s="44"/>
+      <c r="HW6" s="44"/>
+      <c r="HX6" s="44"/>
+      <c r="HY6" s="44"/>
+      <c r="HZ6" s="44"/>
+      <c r="IA6" s="44"/>
+      <c r="IB6" s="44"/>
+      <c r="IC6" s="44"/>
+      <c r="ID6" s="44"/>
+      <c r="IE6" s="44"/>
+      <c r="IF6" s="44"/>
+      <c r="IG6" s="44"/>
+      <c r="IH6" s="44"/>
+      <c r="II6" s="44"/>
+      <c r="IJ6" s="44"/>
+      <c r="IK6" s="44"/>
+      <c r="IL6" s="44"/>
+      <c r="IM6" s="44"/>
+      <c r="IN6" s="44"/>
+      <c r="IO6" s="44"/>
+      <c r="IP6" s="44"/>
+      <c r="IQ6" s="44"/>
+      <c r="IR6" s="44"/>
+      <c r="IS6" s="44"/>
     </row>
-    <row r="7" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -3656,7 +3616,7 @@
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
-      <c r="BL7" s="39"/>
+      <c r="BL7" s="36"/>
       <c r="BM7" s="1"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
@@ -3847,7 +3807,7 @@
       <c r="IR7" s="1"/>
       <c r="IS7" s="1"/>
     </row>
-    <row r="8" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -3864,19 +3824,19 @@
         <v>45187</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -4112,7 +4072,7 @@
       <c r="IR8" s="1"/>
       <c r="IS8" s="1"/>
     </row>
-    <row r="9" spans="1:253" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:253" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -4137,17 +4097,17 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="BL9" s="39"/>
+      <c r="BL9" s="36"/>
     </row>
-    <row r="10" spans="1:253" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:253" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>5</v>
       </c>
@@ -4164,102 +4124,102 @@
         <v>45193</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="34"/>
       <c r="BL10" s="19"/>
     </row>
-    <row r="11" spans="1:253" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:253" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
     </row>
-    <row r="12" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+    <row r="12" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="53">
         <v>1</v>
       </c>
       <c r="E12" s="31">
@@ -4268,25 +4228,25 @@
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
@@ -4324,197 +4284,197 @@
       <c r="BJ12" s="30"/>
       <c r="BK12" s="30"/>
       <c r="BL12" s="27"/>
-      <c r="BM12" s="47"/>
-      <c r="BN12" s="47"/>
-      <c r="BO12" s="47"/>
-      <c r="BP12" s="47"/>
-      <c r="BQ12" s="47"/>
-      <c r="BR12" s="47"/>
-      <c r="BS12" s="47"/>
-      <c r="BT12" s="47"/>
-      <c r="BU12" s="47"/>
-      <c r="BV12" s="47"/>
-      <c r="BW12" s="47"/>
-      <c r="BX12" s="47"/>
-      <c r="BY12" s="47"/>
-      <c r="BZ12" s="47"/>
-      <c r="CA12" s="47"/>
-      <c r="CB12" s="47"/>
-      <c r="CC12" s="47"/>
-      <c r="CD12" s="47"/>
-      <c r="CE12" s="47"/>
-      <c r="CF12" s="47"/>
-      <c r="CG12" s="47"/>
-      <c r="CH12" s="47"/>
-      <c r="CI12" s="47"/>
-      <c r="CJ12" s="47"/>
-      <c r="CK12" s="47"/>
-      <c r="CL12" s="47"/>
-      <c r="CM12" s="47"/>
-      <c r="CN12" s="47"/>
-      <c r="CO12" s="47"/>
-      <c r="CP12" s="47"/>
-      <c r="CQ12" s="47"/>
-      <c r="CR12" s="47"/>
-      <c r="CS12" s="47"/>
-      <c r="CT12" s="47"/>
-      <c r="CU12" s="47"/>
-      <c r="CV12" s="47"/>
-      <c r="CW12" s="47"/>
-      <c r="CX12" s="47"/>
-      <c r="CY12" s="47"/>
-      <c r="CZ12" s="47"/>
-      <c r="DA12" s="47"/>
-      <c r="DB12" s="47"/>
-      <c r="DC12" s="47"/>
-      <c r="DD12" s="47"/>
-      <c r="DE12" s="47"/>
-      <c r="DF12" s="47"/>
-      <c r="DG12" s="47"/>
-      <c r="DH12" s="47"/>
-      <c r="DI12" s="47"/>
-      <c r="DJ12" s="47"/>
-      <c r="DK12" s="47"/>
-      <c r="DL12" s="47"/>
-      <c r="DM12" s="47"/>
-      <c r="DN12" s="47"/>
-      <c r="DO12" s="47"/>
-      <c r="DP12" s="47"/>
-      <c r="DQ12" s="47"/>
-      <c r="DR12" s="47"/>
-      <c r="DS12" s="47"/>
-      <c r="DT12" s="47"/>
-      <c r="DU12" s="47"/>
-      <c r="DV12" s="47"/>
-      <c r="DW12" s="47"/>
-      <c r="DX12" s="47"/>
-      <c r="DY12" s="47"/>
-      <c r="DZ12" s="47"/>
-      <c r="EA12" s="47"/>
-      <c r="EB12" s="47"/>
-      <c r="EC12" s="47"/>
-      <c r="ED12" s="47"/>
-      <c r="EE12" s="47"/>
-      <c r="EF12" s="47"/>
-      <c r="EG12" s="47"/>
-      <c r="EH12" s="47"/>
-      <c r="EI12" s="47"/>
-      <c r="EJ12" s="47"/>
-      <c r="EK12" s="47"/>
-      <c r="EL12" s="47"/>
-      <c r="EM12" s="47"/>
-      <c r="EN12" s="47"/>
-      <c r="EO12" s="47"/>
-      <c r="EP12" s="47"/>
-      <c r="EQ12" s="47"/>
-      <c r="ER12" s="47"/>
-      <c r="ES12" s="47"/>
-      <c r="ET12" s="47"/>
-      <c r="EU12" s="47"/>
-      <c r="EV12" s="47"/>
-      <c r="EW12" s="47"/>
-      <c r="EX12" s="47"/>
-      <c r="EY12" s="47"/>
-      <c r="EZ12" s="47"/>
-      <c r="FA12" s="47"/>
-      <c r="FB12" s="47"/>
-      <c r="FC12" s="47"/>
-      <c r="FD12" s="47"/>
-      <c r="FE12" s="47"/>
-      <c r="FF12" s="47"/>
-      <c r="FG12" s="47"/>
-      <c r="FH12" s="47"/>
-      <c r="FI12" s="47"/>
-      <c r="FJ12" s="47"/>
-      <c r="FK12" s="47"/>
-      <c r="FL12" s="47"/>
-      <c r="FM12" s="47"/>
-      <c r="FN12" s="47"/>
-      <c r="FO12" s="47"/>
-      <c r="FP12" s="47"/>
-      <c r="FQ12" s="47"/>
-      <c r="FR12" s="47"/>
-      <c r="FS12" s="47"/>
-      <c r="FT12" s="47"/>
-      <c r="FU12" s="47"/>
-      <c r="FV12" s="47"/>
-      <c r="FW12" s="47"/>
-      <c r="FX12" s="47"/>
-      <c r="FY12" s="47"/>
-      <c r="FZ12" s="47"/>
-      <c r="GA12" s="47"/>
-      <c r="GB12" s="47"/>
-      <c r="GC12" s="47"/>
-      <c r="GD12" s="47"/>
-      <c r="GE12" s="47"/>
-      <c r="GF12" s="47"/>
-      <c r="GG12" s="47"/>
-      <c r="GH12" s="47"/>
-      <c r="GI12" s="47"/>
-      <c r="GJ12" s="47"/>
-      <c r="GK12" s="47"/>
-      <c r="GL12" s="47"/>
-      <c r="GM12" s="47"/>
-      <c r="GN12" s="47"/>
-      <c r="GO12" s="47"/>
-      <c r="GP12" s="47"/>
-      <c r="GQ12" s="47"/>
-      <c r="GR12" s="47"/>
-      <c r="GS12" s="47"/>
-      <c r="GT12" s="47"/>
-      <c r="GU12" s="47"/>
-      <c r="GV12" s="47"/>
-      <c r="GW12" s="47"/>
-      <c r="GX12" s="47"/>
-      <c r="GY12" s="47"/>
-      <c r="GZ12" s="47"/>
-      <c r="HA12" s="47"/>
-      <c r="HB12" s="47"/>
-      <c r="HC12" s="47"/>
-      <c r="HD12" s="47"/>
-      <c r="HE12" s="47"/>
-      <c r="HF12" s="47"/>
-      <c r="HG12" s="47"/>
-      <c r="HH12" s="47"/>
-      <c r="HI12" s="47"/>
-      <c r="HJ12" s="47"/>
-      <c r="HK12" s="47"/>
-      <c r="HL12" s="47"/>
-      <c r="HM12" s="47"/>
-      <c r="HN12" s="47"/>
-      <c r="HO12" s="47"/>
-      <c r="HP12" s="47"/>
-      <c r="HQ12" s="47"/>
-      <c r="HR12" s="47"/>
-      <c r="HS12" s="47"/>
-      <c r="HT12" s="47"/>
-      <c r="HU12" s="47"/>
-      <c r="HV12" s="47"/>
-      <c r="HW12" s="47"/>
-      <c r="HX12" s="47"/>
-      <c r="HY12" s="47"/>
-      <c r="HZ12" s="47"/>
-      <c r="IA12" s="47"/>
-      <c r="IB12" s="47"/>
-      <c r="IC12" s="47"/>
-      <c r="ID12" s="47"/>
-      <c r="IE12" s="47"/>
-      <c r="IF12" s="47"/>
-      <c r="IG12" s="47"/>
-      <c r="IH12" s="47"/>
-      <c r="II12" s="47"/>
-      <c r="IJ12" s="47"/>
-      <c r="IK12" s="47"/>
-      <c r="IL12" s="47"/>
-      <c r="IM12" s="47"/>
-      <c r="IN12" s="47"/>
-      <c r="IO12" s="47"/>
-      <c r="IP12" s="47"/>
-      <c r="IQ12" s="47"/>
-      <c r="IR12" s="47"/>
-      <c r="IS12" s="47"/>
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="44"/>
+      <c r="BQ12" s="44"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="44"/>
+      <c r="BT12" s="44"/>
+      <c r="BU12" s="44"/>
+      <c r="BV12" s="44"/>
+      <c r="BW12" s="44"/>
+      <c r="BX12" s="44"/>
+      <c r="BY12" s="44"/>
+      <c r="BZ12" s="44"/>
+      <c r="CA12" s="44"/>
+      <c r="CB12" s="44"/>
+      <c r="CC12" s="44"/>
+      <c r="CD12" s="44"/>
+      <c r="CE12" s="44"/>
+      <c r="CF12" s="44"/>
+      <c r="CG12" s="44"/>
+      <c r="CH12" s="44"/>
+      <c r="CI12" s="44"/>
+      <c r="CJ12" s="44"/>
+      <c r="CK12" s="44"/>
+      <c r="CL12" s="44"/>
+      <c r="CM12" s="44"/>
+      <c r="CN12" s="44"/>
+      <c r="CO12" s="44"/>
+      <c r="CP12" s="44"/>
+      <c r="CQ12" s="44"/>
+      <c r="CR12" s="44"/>
+      <c r="CS12" s="44"/>
+      <c r="CT12" s="44"/>
+      <c r="CU12" s="44"/>
+      <c r="CV12" s="44"/>
+      <c r="CW12" s="44"/>
+      <c r="CX12" s="44"/>
+      <c r="CY12" s="44"/>
+      <c r="CZ12" s="44"/>
+      <c r="DA12" s="44"/>
+      <c r="DB12" s="44"/>
+      <c r="DC12" s="44"/>
+      <c r="DD12" s="44"/>
+      <c r="DE12" s="44"/>
+      <c r="DF12" s="44"/>
+      <c r="DG12" s="44"/>
+      <c r="DH12" s="44"/>
+      <c r="DI12" s="44"/>
+      <c r="DJ12" s="44"/>
+      <c r="DK12" s="44"/>
+      <c r="DL12" s="44"/>
+      <c r="DM12" s="44"/>
+      <c r="DN12" s="44"/>
+      <c r="DO12" s="44"/>
+      <c r="DP12" s="44"/>
+      <c r="DQ12" s="44"/>
+      <c r="DR12" s="44"/>
+      <c r="DS12" s="44"/>
+      <c r="DT12" s="44"/>
+      <c r="DU12" s="44"/>
+      <c r="DV12" s="44"/>
+      <c r="DW12" s="44"/>
+      <c r="DX12" s="44"/>
+      <c r="DY12" s="44"/>
+      <c r="DZ12" s="44"/>
+      <c r="EA12" s="44"/>
+      <c r="EB12" s="44"/>
+      <c r="EC12" s="44"/>
+      <c r="ED12" s="44"/>
+      <c r="EE12" s="44"/>
+      <c r="EF12" s="44"/>
+      <c r="EG12" s="44"/>
+      <c r="EH12" s="44"/>
+      <c r="EI12" s="44"/>
+      <c r="EJ12" s="44"/>
+      <c r="EK12" s="44"/>
+      <c r="EL12" s="44"/>
+      <c r="EM12" s="44"/>
+      <c r="EN12" s="44"/>
+      <c r="EO12" s="44"/>
+      <c r="EP12" s="44"/>
+      <c r="EQ12" s="44"/>
+      <c r="ER12" s="44"/>
+      <c r="ES12" s="44"/>
+      <c r="ET12" s="44"/>
+      <c r="EU12" s="44"/>
+      <c r="EV12" s="44"/>
+      <c r="EW12" s="44"/>
+      <c r="EX12" s="44"/>
+      <c r="EY12" s="44"/>
+      <c r="EZ12" s="44"/>
+      <c r="FA12" s="44"/>
+      <c r="FB12" s="44"/>
+      <c r="FC12" s="44"/>
+      <c r="FD12" s="44"/>
+      <c r="FE12" s="44"/>
+      <c r="FF12" s="44"/>
+      <c r="FG12" s="44"/>
+      <c r="FH12" s="44"/>
+      <c r="FI12" s="44"/>
+      <c r="FJ12" s="44"/>
+      <c r="FK12" s="44"/>
+      <c r="FL12" s="44"/>
+      <c r="FM12" s="44"/>
+      <c r="FN12" s="44"/>
+      <c r="FO12" s="44"/>
+      <c r="FP12" s="44"/>
+      <c r="FQ12" s="44"/>
+      <c r="FR12" s="44"/>
+      <c r="FS12" s="44"/>
+      <c r="FT12" s="44"/>
+      <c r="FU12" s="44"/>
+      <c r="FV12" s="44"/>
+      <c r="FW12" s="44"/>
+      <c r="FX12" s="44"/>
+      <c r="FY12" s="44"/>
+      <c r="FZ12" s="44"/>
+      <c r="GA12" s="44"/>
+      <c r="GB12" s="44"/>
+      <c r="GC12" s="44"/>
+      <c r="GD12" s="44"/>
+      <c r="GE12" s="44"/>
+      <c r="GF12" s="44"/>
+      <c r="GG12" s="44"/>
+      <c r="GH12" s="44"/>
+      <c r="GI12" s="44"/>
+      <c r="GJ12" s="44"/>
+      <c r="GK12" s="44"/>
+      <c r="GL12" s="44"/>
+      <c r="GM12" s="44"/>
+      <c r="GN12" s="44"/>
+      <c r="GO12" s="44"/>
+      <c r="GP12" s="44"/>
+      <c r="GQ12" s="44"/>
+      <c r="GR12" s="44"/>
+      <c r="GS12" s="44"/>
+      <c r="GT12" s="44"/>
+      <c r="GU12" s="44"/>
+      <c r="GV12" s="44"/>
+      <c r="GW12" s="44"/>
+      <c r="GX12" s="44"/>
+      <c r="GY12" s="44"/>
+      <c r="GZ12" s="44"/>
+      <c r="HA12" s="44"/>
+      <c r="HB12" s="44"/>
+      <c r="HC12" s="44"/>
+      <c r="HD12" s="44"/>
+      <c r="HE12" s="44"/>
+      <c r="HF12" s="44"/>
+      <c r="HG12" s="44"/>
+      <c r="HH12" s="44"/>
+      <c r="HI12" s="44"/>
+      <c r="HJ12" s="44"/>
+      <c r="HK12" s="44"/>
+      <c r="HL12" s="44"/>
+      <c r="HM12" s="44"/>
+      <c r="HN12" s="44"/>
+      <c r="HO12" s="44"/>
+      <c r="HP12" s="44"/>
+      <c r="HQ12" s="44"/>
+      <c r="HR12" s="44"/>
+      <c r="HS12" s="44"/>
+      <c r="HT12" s="44"/>
+      <c r="HU12" s="44"/>
+      <c r="HV12" s="44"/>
+      <c r="HW12" s="44"/>
+      <c r="HX12" s="44"/>
+      <c r="HY12" s="44"/>
+      <c r="HZ12" s="44"/>
+      <c r="IA12" s="44"/>
+      <c r="IB12" s="44"/>
+      <c r="IC12" s="44"/>
+      <c r="ID12" s="44"/>
+      <c r="IE12" s="44"/>
+      <c r="IF12" s="44"/>
+      <c r="IG12" s="44"/>
+      <c r="IH12" s="44"/>
+      <c r="II12" s="44"/>
+      <c r="IJ12" s="44"/>
+      <c r="IK12" s="44"/>
+      <c r="IL12" s="44"/>
+      <c r="IM12" s="44"/>
+      <c r="IN12" s="44"/>
+      <c r="IO12" s="44"/>
+      <c r="IP12" s="44"/>
+      <c r="IQ12" s="44"/>
+      <c r="IR12" s="44"/>
+      <c r="IS12" s="44"/>
     </row>
-    <row r="13" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>2</v>
       </c>
@@ -4539,19 +4499,19 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
@@ -4779,12 +4739,12 @@
       <c r="IR13" s="1"/>
       <c r="IS13" s="1"/>
     </row>
-    <row r="14" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>15</v>
@@ -4805,23 +4765,23 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
@@ -5044,8 +5004,8 @@
       <c r="IR14" s="1"/>
       <c r="IS14" s="1"/>
     </row>
-    <row r="15" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+    <row r="15" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A15" s="78">
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -5070,12 +5030,12 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -5084,13 +5044,13 @@
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="80"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="21"/>
@@ -5309,8 +5269,8 @@
       <c r="IR15" s="1"/>
       <c r="IS15" s="1"/>
     </row>
-    <row r="16" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+    <row r="16" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A16" s="78">
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -5335,12 +5295,12 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -5352,13 +5312,13 @@
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
       <c r="AN16" s="21"/>
       <c r="AO16" s="21"/>
       <c r="AP16" s="21"/>
@@ -5574,12 +5534,12 @@
       <c r="IR16" s="1"/>
       <c r="IS16" s="1"/>
     </row>
-    <row r="17" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+    <row r="17" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A17" s="51">
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>21</v>
@@ -5600,12 +5560,12 @@
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
@@ -5617,21 +5577,21 @@
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="80"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="80"/>
-      <c r="AQ17" s="80"/>
-      <c r="AR17" s="80"/>
-      <c r="AS17" s="80"/>
-      <c r="AT17" s="80"/>
-      <c r="AU17" s="80"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="75"/>
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="75"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="75"/>
+      <c r="AU17" s="75"/>
       <c r="AV17" s="21"/>
       <c r="AW17" s="21"/>
       <c r="AX17" s="21"/>
@@ -5839,7 +5799,7 @@
       <c r="IR17" s="1"/>
       <c r="IS17" s="1"/>
     </row>
-    <row r="18" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>7</v>
       </c>
@@ -5865,12 +5825,12 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -5889,14 +5849,14 @@
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
-      <c r="AN18" s="80"/>
-      <c r="AO18" s="80"/>
-      <c r="AP18" s="80"/>
-      <c r="AQ18" s="80"/>
-      <c r="AR18" s="80"/>
-      <c r="AS18" s="80"/>
-      <c r="AT18" s="80"/>
-      <c r="AU18" s="80"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
       <c r="AV18" s="21"/>
       <c r="AW18" s="21"/>
       <c r="AX18" s="21"/>
@@ -6104,7 +6064,7 @@
       <c r="IR18" s="1"/>
       <c r="IS18" s="1"/>
     </row>
-    <row r="19" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>8</v>
       </c>
@@ -6130,12 +6090,12 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -6159,9 +6119,9 @@
       <c r="AP19" s="21"/>
       <c r="AQ19" s="21"/>
       <c r="AR19" s="21"/>
-      <c r="AS19" s="80"/>
-      <c r="AT19" s="80"/>
-      <c r="AU19" s="80"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="75"/>
+      <c r="AU19" s="75"/>
       <c r="AV19" s="21"/>
       <c r="AW19" s="21"/>
       <c r="AX19" s="21"/>
@@ -6369,8 +6329,8 @@
       <c r="IR19" s="1"/>
       <c r="IS19" s="1"/>
     </row>
-    <row r="20" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+    <row r="20" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A20" s="78">
         <v>9</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -6395,12 +6355,12 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
       <c r="X20" s="21"/>
@@ -6428,14 +6388,14 @@
       <c r="AT20" s="21"/>
       <c r="AU20" s="21"/>
       <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="21"/>
-      <c r="BB20" s="21"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="21"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="75"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="75"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="75"/>
+      <c r="BD20" s="75"/>
       <c r="BE20" s="21"/>
       <c r="BF20" s="21"/>
       <c r="BG20" s="21"/>
@@ -6634,8 +6594,8 @@
       <c r="IR20" s="1"/>
       <c r="IS20" s="1"/>
     </row>
-    <row r="21" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+    <row r="21" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A21" s="78">
         <v>10</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -6660,12 +6620,12 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -6698,11 +6658,11 @@
       <c r="AY21" s="21"/>
       <c r="AZ21" s="21"/>
       <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="75"/>
+      <c r="BD21" s="75"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="75"/>
       <c r="BG21" s="21"/>
       <c r="BH21" s="21"/>
       <c r="BI21" s="21"/>
@@ -6899,8 +6859,8 @@
       <c r="IR21" s="1"/>
       <c r="IS21" s="1"/>
     </row>
-    <row r="22" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+    <row r="22" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A22" s="51">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -6925,12 +6885,12 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
@@ -7164,7 +7124,7 @@
       <c r="IR22" s="1"/>
       <c r="IS22" s="1"/>
     </row>
-    <row r="23" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>12</v>
       </c>
@@ -7190,12 +7150,12 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
@@ -7429,7 +7389,7 @@
       <c r="IR23" s="1"/>
       <c r="IS23" s="1"/>
     </row>
-    <row r="24" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>13</v>
       </c>
@@ -7455,12 +7415,12 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
@@ -7694,90 +7654,90 @@
       <c r="IR24" s="21"/>
       <c r="IS24" s="21"/>
     </row>
-    <row r="25" spans="1:253" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:253" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="88"/>
-      <c r="AN25" s="88"/>
-      <c r="AO25" s="88"/>
-      <c r="AP25" s="88"/>
-      <c r="AQ25" s="88"/>
-      <c r="AR25" s="88"/>
-      <c r="AS25" s="88"/>
-      <c r="AT25" s="88"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="88"/>
-      <c r="AY25" s="88"/>
-      <c r="AZ25" s="88"/>
-      <c r="BA25" s="88"/>
-      <c r="BB25" s="88"/>
-      <c r="BC25" s="88"/>
-      <c r="BD25" s="88"/>
-      <c r="BE25" s="88"/>
-      <c r="BF25" s="88"/>
-      <c r="BG25" s="88"/>
-      <c r="BH25" s="88"/>
-      <c r="BI25" s="88"/>
-      <c r="BJ25" s="88"/>
-      <c r="BK25" s="88"/>
-      <c r="BL25" s="88"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="90"/>
+      <c r="AM25" s="90"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="90"/>
+      <c r="BA25" s="90"/>
+      <c r="BB25" s="90"/>
+      <c r="BC25" s="90"/>
+      <c r="BD25" s="90"/>
+      <c r="BE25" s="90"/>
+      <c r="BF25" s="90"/>
+      <c r="BG25" s="90"/>
+      <c r="BH25" s="90"/>
+      <c r="BI25" s="90"/>
+      <c r="BJ25" s="90"/>
+      <c r="BK25" s="90"/>
+      <c r="BL25" s="90"/>
     </row>
-    <row r="26" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
+    <row r="26" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A26" s="57">
         <v>1</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="53">
         <v>0.2</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="58">
         <v>45256</v>
       </c>
       <c r="F26" s="30"/>
@@ -7787,8 +7747,8 @@
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="62"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="59"/>
       <c r="O26" s="30" t="s">
         <v>40</v>
       </c>
@@ -7804,10 +7764,10 @@
       <c r="S26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
       <c r="X26" s="30"/>
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
@@ -7817,29 +7777,29 @@
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="30"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="78"/>
-      <c r="AP26" s="78"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73"/>
       <c r="AQ26" s="30"/>
       <c r="AR26" s="30"/>
       <c r="AS26" s="30"/>
-      <c r="AT26" s="99"/>
-      <c r="AU26" s="99"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
       <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
       <c r="BD26" s="30"/>
       <c r="BE26" s="30"/>
       <c r="BF26" s="30"/>
@@ -7849,197 +7809,197 @@
       <c r="BJ26" s="30"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="27"/>
-      <c r="BM26" s="47"/>
-      <c r="BN26" s="47"/>
-      <c r="BO26" s="47"/>
-      <c r="BP26" s="47"/>
-      <c r="BQ26" s="47"/>
-      <c r="BR26" s="47"/>
-      <c r="BS26" s="47"/>
-      <c r="BT26" s="47"/>
-      <c r="BU26" s="47"/>
-      <c r="BV26" s="47"/>
-      <c r="BW26" s="47"/>
-      <c r="BX26" s="47"/>
-      <c r="BY26" s="47"/>
-      <c r="BZ26" s="47"/>
-      <c r="CA26" s="47"/>
-      <c r="CB26" s="47"/>
-      <c r="CC26" s="47"/>
-      <c r="CD26" s="47"/>
-      <c r="CE26" s="47"/>
-      <c r="CF26" s="47"/>
-      <c r="CG26" s="47"/>
-      <c r="CH26" s="47"/>
-      <c r="CI26" s="47"/>
-      <c r="CJ26" s="47"/>
-      <c r="CK26" s="47"/>
-      <c r="CL26" s="47"/>
-      <c r="CM26" s="47"/>
-      <c r="CN26" s="47"/>
-      <c r="CO26" s="47"/>
-      <c r="CP26" s="47"/>
-      <c r="CQ26" s="47"/>
-      <c r="CR26" s="47"/>
-      <c r="CS26" s="47"/>
-      <c r="CT26" s="47"/>
-      <c r="CU26" s="47"/>
-      <c r="CV26" s="47"/>
-      <c r="CW26" s="47"/>
-      <c r="CX26" s="47"/>
-      <c r="CY26" s="47"/>
-      <c r="CZ26" s="47"/>
-      <c r="DA26" s="47"/>
-      <c r="DB26" s="47"/>
-      <c r="DC26" s="47"/>
-      <c r="DD26" s="47"/>
-      <c r="DE26" s="47"/>
-      <c r="DF26" s="47"/>
-      <c r="DG26" s="47"/>
-      <c r="DH26" s="47"/>
-      <c r="DI26" s="47"/>
-      <c r="DJ26" s="47"/>
-      <c r="DK26" s="47"/>
-      <c r="DL26" s="47"/>
-      <c r="DM26" s="47"/>
-      <c r="DN26" s="47"/>
-      <c r="DO26" s="47"/>
-      <c r="DP26" s="47"/>
-      <c r="DQ26" s="47"/>
-      <c r="DR26" s="47"/>
-      <c r="DS26" s="47"/>
-      <c r="DT26" s="47"/>
-      <c r="DU26" s="47"/>
-      <c r="DV26" s="47"/>
-      <c r="DW26" s="47"/>
-      <c r="DX26" s="47"/>
-      <c r="DY26" s="47"/>
-      <c r="DZ26" s="47"/>
-      <c r="EA26" s="47"/>
-      <c r="EB26" s="47"/>
-      <c r="EC26" s="47"/>
-      <c r="ED26" s="47"/>
-      <c r="EE26" s="47"/>
-      <c r="EF26" s="47"/>
-      <c r="EG26" s="47"/>
-      <c r="EH26" s="47"/>
-      <c r="EI26" s="47"/>
-      <c r="EJ26" s="47"/>
-      <c r="EK26" s="47"/>
-      <c r="EL26" s="47"/>
-      <c r="EM26" s="47"/>
-      <c r="EN26" s="47"/>
-      <c r="EO26" s="47"/>
-      <c r="EP26" s="47"/>
-      <c r="EQ26" s="47"/>
-      <c r="ER26" s="47"/>
-      <c r="ES26" s="47"/>
-      <c r="ET26" s="47"/>
-      <c r="EU26" s="47"/>
-      <c r="EV26" s="47"/>
-      <c r="EW26" s="47"/>
-      <c r="EX26" s="47"/>
-      <c r="EY26" s="47"/>
-      <c r="EZ26" s="47"/>
-      <c r="FA26" s="47"/>
-      <c r="FB26" s="47"/>
-      <c r="FC26" s="47"/>
-      <c r="FD26" s="47"/>
-      <c r="FE26" s="47"/>
-      <c r="FF26" s="47"/>
-      <c r="FG26" s="47"/>
-      <c r="FH26" s="47"/>
-      <c r="FI26" s="47"/>
-      <c r="FJ26" s="47"/>
-      <c r="FK26" s="47"/>
-      <c r="FL26" s="47"/>
-      <c r="FM26" s="47"/>
-      <c r="FN26" s="47"/>
-      <c r="FO26" s="47"/>
-      <c r="FP26" s="47"/>
-      <c r="FQ26" s="47"/>
-      <c r="FR26" s="47"/>
-      <c r="FS26" s="47"/>
-      <c r="FT26" s="47"/>
-      <c r="FU26" s="47"/>
-      <c r="FV26" s="47"/>
-      <c r="FW26" s="47"/>
-      <c r="FX26" s="47"/>
-      <c r="FY26" s="47"/>
-      <c r="FZ26" s="47"/>
-      <c r="GA26" s="47"/>
-      <c r="GB26" s="47"/>
-      <c r="GC26" s="47"/>
-      <c r="GD26" s="47"/>
-      <c r="GE26" s="47"/>
-      <c r="GF26" s="47"/>
-      <c r="GG26" s="47"/>
-      <c r="GH26" s="47"/>
-      <c r="GI26" s="47"/>
-      <c r="GJ26" s="47"/>
-      <c r="GK26" s="47"/>
-      <c r="GL26" s="47"/>
-      <c r="GM26" s="47"/>
-      <c r="GN26" s="47"/>
-      <c r="GO26" s="47"/>
-      <c r="GP26" s="47"/>
-      <c r="GQ26" s="47"/>
-      <c r="GR26" s="47"/>
-      <c r="GS26" s="47"/>
-      <c r="GT26" s="47"/>
-      <c r="GU26" s="47"/>
-      <c r="GV26" s="47"/>
-      <c r="GW26" s="47"/>
-      <c r="GX26" s="47"/>
-      <c r="GY26" s="47"/>
-      <c r="GZ26" s="47"/>
-      <c r="HA26" s="47"/>
-      <c r="HB26" s="47"/>
-      <c r="HC26" s="47"/>
-      <c r="HD26" s="47"/>
-      <c r="HE26" s="47"/>
-      <c r="HF26" s="47"/>
-      <c r="HG26" s="47"/>
-      <c r="HH26" s="47"/>
-      <c r="HI26" s="47"/>
-      <c r="HJ26" s="47"/>
-      <c r="HK26" s="47"/>
-      <c r="HL26" s="47"/>
-      <c r="HM26" s="47"/>
-      <c r="HN26" s="47"/>
-      <c r="HO26" s="47"/>
-      <c r="HP26" s="47"/>
-      <c r="HQ26" s="47"/>
-      <c r="HR26" s="47"/>
-      <c r="HS26" s="47"/>
-      <c r="HT26" s="47"/>
-      <c r="HU26" s="47"/>
-      <c r="HV26" s="47"/>
-      <c r="HW26" s="47"/>
-      <c r="HX26" s="47"/>
-      <c r="HY26" s="47"/>
-      <c r="HZ26" s="47"/>
-      <c r="IA26" s="47"/>
-      <c r="IB26" s="47"/>
-      <c r="IC26" s="47"/>
-      <c r="ID26" s="47"/>
-      <c r="IE26" s="47"/>
-      <c r="IF26" s="47"/>
-      <c r="IG26" s="47"/>
-      <c r="IH26" s="47"/>
-      <c r="II26" s="47"/>
-      <c r="IJ26" s="47"/>
-      <c r="IK26" s="47"/>
-      <c r="IL26" s="47"/>
-      <c r="IM26" s="47"/>
-      <c r="IN26" s="47"/>
-      <c r="IO26" s="47"/>
-      <c r="IP26" s="47"/>
-      <c r="IQ26" s="47"/>
-      <c r="IR26" s="47"/>
-      <c r="IS26" s="47"/>
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
+      <c r="BO26" s="44"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="44"/>
+      <c r="BT26" s="44"/>
+      <c r="BU26" s="44"/>
+      <c r="BV26" s="44"/>
+      <c r="BW26" s="44"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="44"/>
+      <c r="CK26" s="44"/>
+      <c r="CL26" s="44"/>
+      <c r="CM26" s="44"/>
+      <c r="CN26" s="44"/>
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="44"/>
+      <c r="CS26" s="44"/>
+      <c r="CT26" s="44"/>
+      <c r="CU26" s="44"/>
+      <c r="CV26" s="44"/>
+      <c r="CW26" s="44"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="44"/>
+      <c r="CZ26" s="44"/>
+      <c r="DA26" s="44"/>
+      <c r="DB26" s="44"/>
+      <c r="DC26" s="44"/>
+      <c r="DD26" s="44"/>
+      <c r="DE26" s="44"/>
+      <c r="DF26" s="44"/>
+      <c r="DG26" s="44"/>
+      <c r="DH26" s="44"/>
+      <c r="DI26" s="44"/>
+      <c r="DJ26" s="44"/>
+      <c r="DK26" s="44"/>
+      <c r="DL26" s="44"/>
+      <c r="DM26" s="44"/>
+      <c r="DN26" s="44"/>
+      <c r="DO26" s="44"/>
+      <c r="DP26" s="44"/>
+      <c r="DQ26" s="44"/>
+      <c r="DR26" s="44"/>
+      <c r="DS26" s="44"/>
+      <c r="DT26" s="44"/>
+      <c r="DU26" s="44"/>
+      <c r="DV26" s="44"/>
+      <c r="DW26" s="44"/>
+      <c r="DX26" s="44"/>
+      <c r="DY26" s="44"/>
+      <c r="DZ26" s="44"/>
+      <c r="EA26" s="44"/>
+      <c r="EB26" s="44"/>
+      <c r="EC26" s="44"/>
+      <c r="ED26" s="44"/>
+      <c r="EE26" s="44"/>
+      <c r="EF26" s="44"/>
+      <c r="EG26" s="44"/>
+      <c r="EH26" s="44"/>
+      <c r="EI26" s="44"/>
+      <c r="EJ26" s="44"/>
+      <c r="EK26" s="44"/>
+      <c r="EL26" s="44"/>
+      <c r="EM26" s="44"/>
+      <c r="EN26" s="44"/>
+      <c r="EO26" s="44"/>
+      <c r="EP26" s="44"/>
+      <c r="EQ26" s="44"/>
+      <c r="ER26" s="44"/>
+      <c r="ES26" s="44"/>
+      <c r="ET26" s="44"/>
+      <c r="EU26" s="44"/>
+      <c r="EV26" s="44"/>
+      <c r="EW26" s="44"/>
+      <c r="EX26" s="44"/>
+      <c r="EY26" s="44"/>
+      <c r="EZ26" s="44"/>
+      <c r="FA26" s="44"/>
+      <c r="FB26" s="44"/>
+      <c r="FC26" s="44"/>
+      <c r="FD26" s="44"/>
+      <c r="FE26" s="44"/>
+      <c r="FF26" s="44"/>
+      <c r="FG26" s="44"/>
+      <c r="FH26" s="44"/>
+      <c r="FI26" s="44"/>
+      <c r="FJ26" s="44"/>
+      <c r="FK26" s="44"/>
+      <c r="FL26" s="44"/>
+      <c r="FM26" s="44"/>
+      <c r="FN26" s="44"/>
+      <c r="FO26" s="44"/>
+      <c r="FP26" s="44"/>
+      <c r="FQ26" s="44"/>
+      <c r="FR26" s="44"/>
+      <c r="FS26" s="44"/>
+      <c r="FT26" s="44"/>
+      <c r="FU26" s="44"/>
+      <c r="FV26" s="44"/>
+      <c r="FW26" s="44"/>
+      <c r="FX26" s="44"/>
+      <c r="FY26" s="44"/>
+      <c r="FZ26" s="44"/>
+      <c r="GA26" s="44"/>
+      <c r="GB26" s="44"/>
+      <c r="GC26" s="44"/>
+      <c r="GD26" s="44"/>
+      <c r="GE26" s="44"/>
+      <c r="GF26" s="44"/>
+      <c r="GG26" s="44"/>
+      <c r="GH26" s="44"/>
+      <c r="GI26" s="44"/>
+      <c r="GJ26" s="44"/>
+      <c r="GK26" s="44"/>
+      <c r="GL26" s="44"/>
+      <c r="GM26" s="44"/>
+      <c r="GN26" s="44"/>
+      <c r="GO26" s="44"/>
+      <c r="GP26" s="44"/>
+      <c r="GQ26" s="44"/>
+      <c r="GR26" s="44"/>
+      <c r="GS26" s="44"/>
+      <c r="GT26" s="44"/>
+      <c r="GU26" s="44"/>
+      <c r="GV26" s="44"/>
+      <c r="GW26" s="44"/>
+      <c r="GX26" s="44"/>
+      <c r="GY26" s="44"/>
+      <c r="GZ26" s="44"/>
+      <c r="HA26" s="44"/>
+      <c r="HB26" s="44"/>
+      <c r="HC26" s="44"/>
+      <c r="HD26" s="44"/>
+      <c r="HE26" s="44"/>
+      <c r="HF26" s="44"/>
+      <c r="HG26" s="44"/>
+      <c r="HH26" s="44"/>
+      <c r="HI26" s="44"/>
+      <c r="HJ26" s="44"/>
+      <c r="HK26" s="44"/>
+      <c r="HL26" s="44"/>
+      <c r="HM26" s="44"/>
+      <c r="HN26" s="44"/>
+      <c r="HO26" s="44"/>
+      <c r="HP26" s="44"/>
+      <c r="HQ26" s="44"/>
+      <c r="HR26" s="44"/>
+      <c r="HS26" s="44"/>
+      <c r="HT26" s="44"/>
+      <c r="HU26" s="44"/>
+      <c r="HV26" s="44"/>
+      <c r="HW26" s="44"/>
+      <c r="HX26" s="44"/>
+      <c r="HY26" s="44"/>
+      <c r="HZ26" s="44"/>
+      <c r="IA26" s="44"/>
+      <c r="IB26" s="44"/>
+      <c r="IC26" s="44"/>
+      <c r="ID26" s="44"/>
+      <c r="IE26" s="44"/>
+      <c r="IF26" s="44"/>
+      <c r="IG26" s="44"/>
+      <c r="IH26" s="44"/>
+      <c r="II26" s="44"/>
+      <c r="IJ26" s="44"/>
+      <c r="IK26" s="44"/>
+      <c r="IL26" s="44"/>
+      <c r="IM26" s="44"/>
+      <c r="IN26" s="44"/>
+      <c r="IO26" s="44"/>
+      <c r="IP26" s="44"/>
+      <c r="IQ26" s="44"/>
+      <c r="IR26" s="44"/>
+      <c r="IS26" s="44"/>
     </row>
-    <row r="27" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>2</v>
       </c>
@@ -8069,10 +8029,10 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
@@ -8083,13 +8043,13 @@
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
       <c r="AO27" s="21"/>
       <c r="AP27" s="21"/>
       <c r="AQ27" s="21"/>
@@ -8304,7 +8264,7 @@
       <c r="IR27" s="1"/>
       <c r="IS27" s="1"/>
     </row>
-    <row r="28" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>3</v>
       </c>
@@ -8334,10 +8294,10 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
@@ -8369,13 +8329,13 @@
       <c r="AZ28" s="21"/>
       <c r="BA28" s="21"/>
       <c r="BB28" s="21"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="21"/>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
+      <c r="BC28" s="75"/>
+      <c r="BD28" s="75"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="75"/>
+      <c r="BG28" s="75"/>
+      <c r="BH28" s="75"/>
+      <c r="BI28" s="75"/>
       <c r="BJ28" s="21"/>
       <c r="BK28" s="21"/>
       <c r="BL28" s="19"/>
@@ -8569,347 +8529,347 @@
       <c r="IR28" s="21"/>
       <c r="IS28" s="21"/>
     </row>
-    <row r="29" spans="1:253" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+    <row r="29" spans="1:253" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="88"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="88"/>
-      <c r="AP29" s="88"/>
-      <c r="AQ29" s="88"/>
-      <c r="AR29" s="88"/>
-      <c r="AS29" s="88"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88"/>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="88"/>
-      <c r="AY29" s="88"/>
-      <c r="AZ29" s="88"/>
-      <c r="BA29" s="88"/>
-      <c r="BB29" s="88"/>
-      <c r="BC29" s="88"/>
-      <c r="BD29" s="88"/>
-      <c r="BE29" s="88"/>
-      <c r="BF29" s="88"/>
-      <c r="BG29" s="88"/>
-      <c r="BH29" s="88"/>
-      <c r="BI29" s="88"/>
-      <c r="BJ29" s="88"/>
-      <c r="BK29" s="88"/>
-      <c r="BL29" s="88"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="90"/>
+      <c r="BA29" s="90"/>
+      <c r="BB29" s="90"/>
+      <c r="BC29" s="90"/>
+      <c r="BD29" s="90"/>
+      <c r="BE29" s="90"/>
+      <c r="BF29" s="90"/>
+      <c r="BG29" s="90"/>
+      <c r="BH29" s="90"/>
+      <c r="BI29" s="90"/>
+      <c r="BJ29" s="90"/>
+      <c r="BK29" s="90"/>
+      <c r="BL29" s="90"/>
     </row>
-    <row r="30" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A30" s="26">
         <v>1</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="53">
         <v>0</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="47">
         <v>45268</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="48"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="48"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="48"/>
-      <c r="AZ30" s="48"/>
-      <c r="BA30" s="48"/>
-      <c r="BB30" s="48"/>
-      <c r="BC30" s="48"/>
-      <c r="BD30" s="48"/>
-      <c r="BE30" s="48"/>
-      <c r="BF30" s="48"/>
-      <c r="BG30" s="48"/>
-      <c r="BH30" s="48"/>
-      <c r="BI30" s="48"/>
-      <c r="BJ30" s="48"/>
-      <c r="BK30" s="48"/>
-      <c r="BL30" s="67"/>
-      <c r="BM30" s="47"/>
-      <c r="BN30" s="47"/>
-      <c r="BO30" s="47"/>
-      <c r="BP30" s="47"/>
-      <c r="BQ30" s="47"/>
-      <c r="BR30" s="47"/>
-      <c r="BS30" s="47"/>
-      <c r="BT30" s="47"/>
-      <c r="BU30" s="47"/>
-      <c r="BV30" s="47"/>
-      <c r="BW30" s="47"/>
-      <c r="BX30" s="47"/>
-      <c r="BY30" s="47"/>
-      <c r="BZ30" s="47"/>
-      <c r="CA30" s="47"/>
-      <c r="CB30" s="47"/>
-      <c r="CC30" s="47"/>
-      <c r="CD30" s="47"/>
-      <c r="CE30" s="47"/>
-      <c r="CF30" s="47"/>
-      <c r="CG30" s="47"/>
-      <c r="CH30" s="47"/>
-      <c r="CI30" s="47"/>
-      <c r="CJ30" s="47"/>
-      <c r="CK30" s="47"/>
-      <c r="CL30" s="47"/>
-      <c r="CM30" s="47"/>
-      <c r="CN30" s="47"/>
-      <c r="CO30" s="47"/>
-      <c r="CP30" s="47"/>
-      <c r="CQ30" s="47"/>
-      <c r="CR30" s="47"/>
-      <c r="CS30" s="47"/>
-      <c r="CT30" s="47"/>
-      <c r="CU30" s="47"/>
-      <c r="CV30" s="47"/>
-      <c r="CW30" s="47"/>
-      <c r="CX30" s="47"/>
-      <c r="CY30" s="47"/>
-      <c r="CZ30" s="47"/>
-      <c r="DA30" s="47"/>
-      <c r="DB30" s="47"/>
-      <c r="DC30" s="47"/>
-      <c r="DD30" s="47"/>
-      <c r="DE30" s="47"/>
-      <c r="DF30" s="47"/>
-      <c r="DG30" s="47"/>
-      <c r="DH30" s="47"/>
-      <c r="DI30" s="47"/>
-      <c r="DJ30" s="47"/>
-      <c r="DK30" s="47"/>
-      <c r="DL30" s="47"/>
-      <c r="DM30" s="47"/>
-      <c r="DN30" s="47"/>
-      <c r="DO30" s="47"/>
-      <c r="DP30" s="47"/>
-      <c r="DQ30" s="47"/>
-      <c r="DR30" s="47"/>
-      <c r="DS30" s="47"/>
-      <c r="DT30" s="47"/>
-      <c r="DU30" s="47"/>
-      <c r="DV30" s="47"/>
-      <c r="DW30" s="47"/>
-      <c r="DX30" s="47"/>
-      <c r="DY30" s="47"/>
-      <c r="DZ30" s="47"/>
-      <c r="EA30" s="47"/>
-      <c r="EB30" s="47"/>
-      <c r="EC30" s="47"/>
-      <c r="ED30" s="47"/>
-      <c r="EE30" s="47"/>
-      <c r="EF30" s="47"/>
-      <c r="EG30" s="47"/>
-      <c r="EH30" s="47"/>
-      <c r="EI30" s="47"/>
-      <c r="EJ30" s="47"/>
-      <c r="EK30" s="47"/>
-      <c r="EL30" s="47"/>
-      <c r="EM30" s="47"/>
-      <c r="EN30" s="47"/>
-      <c r="EO30" s="47"/>
-      <c r="EP30" s="47"/>
-      <c r="EQ30" s="47"/>
-      <c r="ER30" s="47"/>
-      <c r="ES30" s="47"/>
-      <c r="ET30" s="47"/>
-      <c r="EU30" s="47"/>
-      <c r="EV30" s="47"/>
-      <c r="EW30" s="47"/>
-      <c r="EX30" s="47"/>
-      <c r="EY30" s="47"/>
-      <c r="EZ30" s="47"/>
-      <c r="FA30" s="47"/>
-      <c r="FB30" s="47"/>
-      <c r="FC30" s="47"/>
-      <c r="FD30" s="47"/>
-      <c r="FE30" s="47"/>
-      <c r="FF30" s="47"/>
-      <c r="FG30" s="47"/>
-      <c r="FH30" s="47"/>
-      <c r="FI30" s="47"/>
-      <c r="FJ30" s="47"/>
-      <c r="FK30" s="47"/>
-      <c r="FL30" s="47"/>
-      <c r="FM30" s="47"/>
-      <c r="FN30" s="47"/>
-      <c r="FO30" s="47"/>
-      <c r="FP30" s="47"/>
-      <c r="FQ30" s="47"/>
-      <c r="FR30" s="47"/>
-      <c r="FS30" s="47"/>
-      <c r="FT30" s="47"/>
-      <c r="FU30" s="47"/>
-      <c r="FV30" s="47"/>
-      <c r="FW30" s="47"/>
-      <c r="FX30" s="47"/>
-      <c r="FY30" s="47"/>
-      <c r="FZ30" s="47"/>
-      <c r="GA30" s="47"/>
-      <c r="GB30" s="47"/>
-      <c r="GC30" s="47"/>
-      <c r="GD30" s="47"/>
-      <c r="GE30" s="47"/>
-      <c r="GF30" s="47"/>
-      <c r="GG30" s="47"/>
-      <c r="GH30" s="47"/>
-      <c r="GI30" s="47"/>
-      <c r="GJ30" s="47"/>
-      <c r="GK30" s="47"/>
-      <c r="GL30" s="47"/>
-      <c r="GM30" s="47"/>
-      <c r="GN30" s="47"/>
-      <c r="GO30" s="47"/>
-      <c r="GP30" s="47"/>
-      <c r="GQ30" s="47"/>
-      <c r="GR30" s="47"/>
-      <c r="GS30" s="47"/>
-      <c r="GT30" s="47"/>
-      <c r="GU30" s="47"/>
-      <c r="GV30" s="47"/>
-      <c r="GW30" s="47"/>
-      <c r="GX30" s="47"/>
-      <c r="GY30" s="47"/>
-      <c r="GZ30" s="47"/>
-      <c r="HA30" s="47"/>
-      <c r="HB30" s="47"/>
-      <c r="HC30" s="47"/>
-      <c r="HD30" s="47"/>
-      <c r="HE30" s="47"/>
-      <c r="HF30" s="47"/>
-      <c r="HG30" s="47"/>
-      <c r="HH30" s="47"/>
-      <c r="HI30" s="47"/>
-      <c r="HJ30" s="47"/>
-      <c r="HK30" s="47"/>
-      <c r="HL30" s="47"/>
-      <c r="HM30" s="47"/>
-      <c r="HN30" s="47"/>
-      <c r="HO30" s="47"/>
-      <c r="HP30" s="47"/>
-      <c r="HQ30" s="47"/>
-      <c r="HR30" s="47"/>
-      <c r="HS30" s="47"/>
-      <c r="HT30" s="47"/>
-      <c r="HU30" s="47"/>
-      <c r="HV30" s="47"/>
-      <c r="HW30" s="47"/>
-      <c r="HX30" s="47"/>
-      <c r="HY30" s="47"/>
-      <c r="HZ30" s="47"/>
-      <c r="IA30" s="47"/>
-      <c r="IB30" s="47"/>
-      <c r="IC30" s="47"/>
-      <c r="ID30" s="47"/>
-      <c r="IE30" s="47"/>
-      <c r="IF30" s="47"/>
-      <c r="IG30" s="47"/>
-      <c r="IH30" s="47"/>
-      <c r="II30" s="47"/>
-      <c r="IJ30" s="47"/>
-      <c r="IK30" s="47"/>
-      <c r="IL30" s="47"/>
-      <c r="IM30" s="47"/>
-      <c r="IN30" s="47"/>
-      <c r="IO30" s="47"/>
-      <c r="IP30" s="47"/>
-      <c r="IQ30" s="47"/>
-      <c r="IR30" s="47"/>
-      <c r="IS30" s="47"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="45"/>
+      <c r="AX30" s="45"/>
+      <c r="AY30" s="45"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="45"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="45"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="45"/>
+      <c r="BL30" s="64"/>
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="44"/>
+      <c r="BP30" s="44"/>
+      <c r="BQ30" s="44"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="44"/>
+      <c r="BT30" s="44"/>
+      <c r="BU30" s="44"/>
+      <c r="BV30" s="44"/>
+      <c r="BW30" s="44"/>
+      <c r="BX30" s="44"/>
+      <c r="BY30" s="44"/>
+      <c r="BZ30" s="44"/>
+      <c r="CA30" s="44"/>
+      <c r="CB30" s="44"/>
+      <c r="CC30" s="44"/>
+      <c r="CD30" s="44"/>
+      <c r="CE30" s="44"/>
+      <c r="CF30" s="44"/>
+      <c r="CG30" s="44"/>
+      <c r="CH30" s="44"/>
+      <c r="CI30" s="44"/>
+      <c r="CJ30" s="44"/>
+      <c r="CK30" s="44"/>
+      <c r="CL30" s="44"/>
+      <c r="CM30" s="44"/>
+      <c r="CN30" s="44"/>
+      <c r="CO30" s="44"/>
+      <c r="CP30" s="44"/>
+      <c r="CQ30" s="44"/>
+      <c r="CR30" s="44"/>
+      <c r="CS30" s="44"/>
+      <c r="CT30" s="44"/>
+      <c r="CU30" s="44"/>
+      <c r="CV30" s="44"/>
+      <c r="CW30" s="44"/>
+      <c r="CX30" s="44"/>
+      <c r="CY30" s="44"/>
+      <c r="CZ30" s="44"/>
+      <c r="DA30" s="44"/>
+      <c r="DB30" s="44"/>
+      <c r="DC30" s="44"/>
+      <c r="DD30" s="44"/>
+      <c r="DE30" s="44"/>
+      <c r="DF30" s="44"/>
+      <c r="DG30" s="44"/>
+      <c r="DH30" s="44"/>
+      <c r="DI30" s="44"/>
+      <c r="DJ30" s="44"/>
+      <c r="DK30" s="44"/>
+      <c r="DL30" s="44"/>
+      <c r="DM30" s="44"/>
+      <c r="DN30" s="44"/>
+      <c r="DO30" s="44"/>
+      <c r="DP30" s="44"/>
+      <c r="DQ30" s="44"/>
+      <c r="DR30" s="44"/>
+      <c r="DS30" s="44"/>
+      <c r="DT30" s="44"/>
+      <c r="DU30" s="44"/>
+      <c r="DV30" s="44"/>
+      <c r="DW30" s="44"/>
+      <c r="DX30" s="44"/>
+      <c r="DY30" s="44"/>
+      <c r="DZ30" s="44"/>
+      <c r="EA30" s="44"/>
+      <c r="EB30" s="44"/>
+      <c r="EC30" s="44"/>
+      <c r="ED30" s="44"/>
+      <c r="EE30" s="44"/>
+      <c r="EF30" s="44"/>
+      <c r="EG30" s="44"/>
+      <c r="EH30" s="44"/>
+      <c r="EI30" s="44"/>
+      <c r="EJ30" s="44"/>
+      <c r="EK30" s="44"/>
+      <c r="EL30" s="44"/>
+      <c r="EM30" s="44"/>
+      <c r="EN30" s="44"/>
+      <c r="EO30" s="44"/>
+      <c r="EP30" s="44"/>
+      <c r="EQ30" s="44"/>
+      <c r="ER30" s="44"/>
+      <c r="ES30" s="44"/>
+      <c r="ET30" s="44"/>
+      <c r="EU30" s="44"/>
+      <c r="EV30" s="44"/>
+      <c r="EW30" s="44"/>
+      <c r="EX30" s="44"/>
+      <c r="EY30" s="44"/>
+      <c r="EZ30" s="44"/>
+      <c r="FA30" s="44"/>
+      <c r="FB30" s="44"/>
+      <c r="FC30" s="44"/>
+      <c r="FD30" s="44"/>
+      <c r="FE30" s="44"/>
+      <c r="FF30" s="44"/>
+      <c r="FG30" s="44"/>
+      <c r="FH30" s="44"/>
+      <c r="FI30" s="44"/>
+      <c r="FJ30" s="44"/>
+      <c r="FK30" s="44"/>
+      <c r="FL30" s="44"/>
+      <c r="FM30" s="44"/>
+      <c r="FN30" s="44"/>
+      <c r="FO30" s="44"/>
+      <c r="FP30" s="44"/>
+      <c r="FQ30" s="44"/>
+      <c r="FR30" s="44"/>
+      <c r="FS30" s="44"/>
+      <c r="FT30" s="44"/>
+      <c r="FU30" s="44"/>
+      <c r="FV30" s="44"/>
+      <c r="FW30" s="44"/>
+      <c r="FX30" s="44"/>
+      <c r="FY30" s="44"/>
+      <c r="FZ30" s="44"/>
+      <c r="GA30" s="44"/>
+      <c r="GB30" s="44"/>
+      <c r="GC30" s="44"/>
+      <c r="GD30" s="44"/>
+      <c r="GE30" s="44"/>
+      <c r="GF30" s="44"/>
+      <c r="GG30" s="44"/>
+      <c r="GH30" s="44"/>
+      <c r="GI30" s="44"/>
+      <c r="GJ30" s="44"/>
+      <c r="GK30" s="44"/>
+      <c r="GL30" s="44"/>
+      <c r="GM30" s="44"/>
+      <c r="GN30" s="44"/>
+      <c r="GO30" s="44"/>
+      <c r="GP30" s="44"/>
+      <c r="GQ30" s="44"/>
+      <c r="GR30" s="44"/>
+      <c r="GS30" s="44"/>
+      <c r="GT30" s="44"/>
+      <c r="GU30" s="44"/>
+      <c r="GV30" s="44"/>
+      <c r="GW30" s="44"/>
+      <c r="GX30" s="44"/>
+      <c r="GY30" s="44"/>
+      <c r="GZ30" s="44"/>
+      <c r="HA30" s="44"/>
+      <c r="HB30" s="44"/>
+      <c r="HC30" s="44"/>
+      <c r="HD30" s="44"/>
+      <c r="HE30" s="44"/>
+      <c r="HF30" s="44"/>
+      <c r="HG30" s="44"/>
+      <c r="HH30" s="44"/>
+      <c r="HI30" s="44"/>
+      <c r="HJ30" s="44"/>
+      <c r="HK30" s="44"/>
+      <c r="HL30" s="44"/>
+      <c r="HM30" s="44"/>
+      <c r="HN30" s="44"/>
+      <c r="HO30" s="44"/>
+      <c r="HP30" s="44"/>
+      <c r="HQ30" s="44"/>
+      <c r="HR30" s="44"/>
+      <c r="HS30" s="44"/>
+      <c r="HT30" s="44"/>
+      <c r="HU30" s="44"/>
+      <c r="HV30" s="44"/>
+      <c r="HW30" s="44"/>
+      <c r="HX30" s="44"/>
+      <c r="HY30" s="44"/>
+      <c r="HZ30" s="44"/>
+      <c r="IA30" s="44"/>
+      <c r="IB30" s="44"/>
+      <c r="IC30" s="44"/>
+      <c r="ID30" s="44"/>
+      <c r="IE30" s="44"/>
+      <c r="IF30" s="44"/>
+      <c r="IG30" s="44"/>
+      <c r="IH30" s="44"/>
+      <c r="II30" s="44"/>
+      <c r="IJ30" s="44"/>
+      <c r="IK30" s="44"/>
+      <c r="IL30" s="44"/>
+      <c r="IM30" s="44"/>
+      <c r="IN30" s="44"/>
+      <c r="IO30" s="44"/>
+      <c r="IP30" s="44"/>
+      <c r="IQ30" s="44"/>
+      <c r="IR30" s="44"/>
+      <c r="IS30" s="44"/>
     </row>
-    <row r="31" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -8978,7 +8938,7 @@
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
-      <c r="BL31" s="40"/>
+      <c r="BL31" s="37"/>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
@@ -9169,12 +9129,12 @@
       <c r="IR31" s="1"/>
       <c r="IS31" s="1"/>
     </row>
-    <row r="32" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -9243,7 +9203,7 @@
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
-      <c r="BL32" s="40"/>
+      <c r="BL32" s="37"/>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="1"/>
@@ -9434,12 +9394,12 @@
       <c r="IR32" s="1"/>
       <c r="IS32" s="1"/>
     </row>
-    <row r="33" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
@@ -9508,7 +9468,7 @@
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
-      <c r="BL33" s="40"/>
+      <c r="BL33" s="37"/>
       <c r="BM33" s="1"/>
       <c r="BN33" s="1"/>
       <c r="BO33" s="1"/>
@@ -9699,12 +9659,12 @@
       <c r="IR33" s="1"/>
       <c r="IS33" s="1"/>
     </row>
-    <row r="34" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
+      <c r="B34" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
@@ -9773,7 +9733,7 @@
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
-      <c r="BL34" s="40"/>
+      <c r="BL34" s="37"/>
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
@@ -9964,12 +9924,12 @@
       <c r="IR34" s="1"/>
       <c r="IS34" s="1"/>
     </row>
-    <row r="35" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>6</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>52</v>
+      <c r="B35" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
@@ -10038,7 +9998,7 @@
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
-      <c r="BL35" s="40"/>
+      <c r="BL35" s="37"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
       <c r="BO35" s="1"/>
@@ -10229,12 +10189,12 @@
       <c r="IR35" s="1"/>
       <c r="IS35" s="1"/>
     </row>
-    <row r="36" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
@@ -10303,7 +10263,7 @@
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
-      <c r="BL36" s="40"/>
+      <c r="BL36" s="37"/>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
       <c r="BO36" s="1"/>
@@ -10494,12 +10454,12 @@
       <c r="IR36" s="1"/>
       <c r="IS36" s="1"/>
     </row>
-    <row r="37" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
+      <c r="B37" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -10568,7 +10528,7 @@
       <c r="BI37" s="18"/>
       <c r="BJ37" s="18"/>
       <c r="BK37" s="18"/>
-      <c r="BL37" s="41"/>
+      <c r="BL37" s="38"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
@@ -10759,539 +10719,344 @@
       <c r="IR37" s="1"/>
       <c r="IS37" s="1"/>
     </row>
-    <row r="38" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:253" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="91"/>
+      <c r="AJ38" s="91"/>
+      <c r="AK38" s="91"/>
+      <c r="AL38" s="91"/>
+      <c r="AM38" s="91"/>
+      <c r="AN38" s="91"/>
+      <c r="AO38" s="91"/>
+      <c r="AP38" s="91"/>
+      <c r="AQ38" s="91"/>
+      <c r="AR38" s="91"/>
+      <c r="AS38" s="91"/>
+      <c r="AT38" s="91"/>
+      <c r="AU38" s="91"/>
+      <c r="AV38" s="91"/>
+      <c r="AW38" s="91"/>
+      <c r="AX38" s="91"/>
+      <c r="AY38" s="91"/>
+      <c r="AZ38" s="91"/>
+      <c r="BA38" s="91"/>
+      <c r="BB38" s="91"/>
+      <c r="BC38" s="91"/>
+      <c r="BD38" s="91"/>
+      <c r="BE38" s="91"/>
+      <c r="BF38" s="91"/>
+      <c r="BG38" s="91"/>
+      <c r="BH38" s="91"/>
+      <c r="BI38" s="91"/>
+      <c r="BJ38" s="91"/>
+      <c r="BK38" s="91"/>
+      <c r="BL38" s="91"/>
+    </row>
+    <row r="39" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A39" s="26">
+        <v>1</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="53">
         <v>0</v>
       </c>
-      <c r="E38" s="31">
-        <v>45278</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="18"/>
-      <c r="AP38" s="18"/>
-      <c r="AQ38" s="18"/>
-      <c r="AR38" s="18"/>
-      <c r="AS38" s="18"/>
-      <c r="AT38" s="18"/>
-      <c r="AU38" s="18"/>
-      <c r="AV38" s="18"/>
-      <c r="AW38" s="18"/>
-      <c r="AX38" s="18"/>
-      <c r="AY38" s="18"/>
-      <c r="AZ38" s="18"/>
-      <c r="BA38" s="18"/>
-      <c r="BB38" s="18"/>
-      <c r="BC38" s="18"/>
-      <c r="BD38" s="18"/>
-      <c r="BE38" s="18"/>
-      <c r="BF38" s="18"/>
-      <c r="BG38" s="18"/>
-      <c r="BH38" s="18"/>
-      <c r="BI38" s="18"/>
-      <c r="BJ38" s="18"/>
-      <c r="BK38" s="18"/>
-      <c r="BL38" s="41"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
-      <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
-      <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
-      <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
-      <c r="CI38" s="1"/>
-      <c r="CJ38" s="1"/>
-      <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
-      <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
-      <c r="CR38" s="1"/>
-      <c r="CS38" s="1"/>
-      <c r="CT38" s="1"/>
-      <c r="CU38" s="1"/>
-      <c r="CV38" s="1"/>
-      <c r="CW38" s="1"/>
-      <c r="CX38" s="1"/>
-      <c r="CY38" s="1"/>
-      <c r="CZ38" s="1"/>
-      <c r="DA38" s="1"/>
-      <c r="DB38" s="1"/>
-      <c r="DC38" s="1"/>
-      <c r="DD38" s="1"/>
-      <c r="DE38" s="1"/>
-      <c r="DF38" s="1"/>
-      <c r="DG38" s="1"/>
-      <c r="DH38" s="1"/>
-      <c r="DI38" s="1"/>
-      <c r="DJ38" s="1"/>
-      <c r="DK38" s="1"/>
-      <c r="DL38" s="1"/>
-      <c r="DM38" s="1"/>
-      <c r="DN38" s="1"/>
-      <c r="DO38" s="1"/>
-      <c r="DP38" s="1"/>
-      <c r="DQ38" s="1"/>
-      <c r="DR38" s="1"/>
-      <c r="DS38" s="1"/>
-      <c r="DT38" s="1"/>
-      <c r="DU38" s="1"/>
-      <c r="DV38" s="1"/>
-      <c r="DW38" s="1"/>
-      <c r="DX38" s="1"/>
-      <c r="DY38" s="1"/>
-      <c r="DZ38" s="1"/>
-      <c r="EA38" s="1"/>
-      <c r="EB38" s="1"/>
-      <c r="EC38" s="1"/>
-      <c r="ED38" s="1"/>
-      <c r="EE38" s="1"/>
-      <c r="EF38" s="1"/>
-      <c r="EG38" s="1"/>
-      <c r="EH38" s="1"/>
-      <c r="EI38" s="1"/>
-      <c r="EJ38" s="1"/>
-      <c r="EK38" s="1"/>
-      <c r="EL38" s="1"/>
-      <c r="EM38" s="1"/>
-      <c r="EN38" s="1"/>
-      <c r="EO38" s="1"/>
-      <c r="EP38" s="1"/>
-      <c r="EQ38" s="1"/>
-      <c r="ER38" s="1"/>
-      <c r="ES38" s="1"/>
-      <c r="ET38" s="1"/>
-      <c r="EU38" s="1"/>
-      <c r="EV38" s="1"/>
-      <c r="EW38" s="1"/>
-      <c r="EX38" s="1"/>
-      <c r="EY38" s="1"/>
-      <c r="EZ38" s="1"/>
-      <c r="FA38" s="1"/>
-      <c r="FB38" s="1"/>
-      <c r="FC38" s="1"/>
-      <c r="FD38" s="1"/>
-      <c r="FE38" s="1"/>
-      <c r="FF38" s="1"/>
-      <c r="FG38" s="1"/>
-      <c r="FH38" s="1"/>
-      <c r="FI38" s="1"/>
-      <c r="FJ38" s="1"/>
-      <c r="FK38" s="1"/>
-      <c r="FL38" s="1"/>
-      <c r="FM38" s="1"/>
-      <c r="FN38" s="1"/>
-      <c r="FO38" s="1"/>
-      <c r="FP38" s="1"/>
-      <c r="FQ38" s="1"/>
-      <c r="FR38" s="1"/>
-      <c r="FS38" s="1"/>
-      <c r="FT38" s="1"/>
-      <c r="FU38" s="1"/>
-      <c r="FV38" s="1"/>
-      <c r="FW38" s="1"/>
-      <c r="FX38" s="1"/>
-      <c r="FY38" s="1"/>
-      <c r="FZ38" s="1"/>
-      <c r="GA38" s="1"/>
-      <c r="GB38" s="1"/>
-      <c r="GC38" s="1"/>
-      <c r="GD38" s="1"/>
-      <c r="GE38" s="1"/>
-      <c r="GF38" s="1"/>
-      <c r="GG38" s="1"/>
-      <c r="GH38" s="1"/>
-      <c r="GI38" s="1"/>
-      <c r="GJ38" s="1"/>
-      <c r="GK38" s="1"/>
-      <c r="GL38" s="1"/>
-      <c r="GM38" s="1"/>
-      <c r="GN38" s="1"/>
-      <c r="GO38" s="1"/>
-      <c r="GP38" s="1"/>
-      <c r="GQ38" s="1"/>
-      <c r="GR38" s="1"/>
-      <c r="GS38" s="1"/>
-      <c r="GT38" s="1"/>
-      <c r="GU38" s="1"/>
-      <c r="GV38" s="1"/>
-      <c r="GW38" s="1"/>
-      <c r="GX38" s="1"/>
-      <c r="GY38" s="1"/>
-      <c r="GZ38" s="1"/>
-      <c r="HA38" s="1"/>
-      <c r="HB38" s="1"/>
-      <c r="HC38" s="1"/>
-      <c r="HD38" s="1"/>
-      <c r="HE38" s="1"/>
-      <c r="HF38" s="1"/>
-      <c r="HG38" s="1"/>
-      <c r="HH38" s="1"/>
-      <c r="HI38" s="1"/>
-      <c r="HJ38" s="1"/>
-      <c r="HK38" s="1"/>
-      <c r="HL38" s="1"/>
-      <c r="HM38" s="1"/>
-      <c r="HN38" s="1"/>
-      <c r="HO38" s="1"/>
-      <c r="HP38" s="1"/>
-      <c r="HQ38" s="1"/>
-      <c r="HR38" s="1"/>
-      <c r="HS38" s="1"/>
-      <c r="HT38" s="1"/>
-      <c r="HU38" s="1"/>
-      <c r="HV38" s="1"/>
-      <c r="HW38" s="1"/>
-      <c r="HX38" s="1"/>
-      <c r="HY38" s="1"/>
-      <c r="HZ38" s="1"/>
-      <c r="IA38" s="1"/>
-      <c r="IB38" s="1"/>
-      <c r="IC38" s="1"/>
-      <c r="ID38" s="1"/>
-      <c r="IE38" s="1"/>
-      <c r="IF38" s="1"/>
-      <c r="IG38" s="1"/>
-      <c r="IH38" s="1"/>
-      <c r="II38" s="1"/>
-      <c r="IJ38" s="1"/>
-      <c r="IK38" s="1"/>
-      <c r="IL38" s="1"/>
-      <c r="IM38" s="1"/>
-      <c r="IN38" s="1"/>
-      <c r="IO38" s="1"/>
-      <c r="IP38" s="1"/>
-      <c r="IQ38" s="1"/>
-      <c r="IR38" s="1"/>
-      <c r="IS38" s="1"/>
+      <c r="E39" s="65">
+        <v>45286</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="63"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="63"/>
+      <c r="AO39" s="48"/>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
+      <c r="AS39" s="48"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
+      <c r="AZ39" s="48"/>
+      <c r="BA39" s="48"/>
+      <c r="BB39" s="48"/>
+      <c r="BC39" s="48"/>
+      <c r="BD39" s="48"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="48"/>
+      <c r="BJ39" s="48"/>
+      <c r="BK39" s="48"/>
+      <c r="BL39" s="66"/>
+      <c r="BM39" s="44"/>
+      <c r="BN39" s="44"/>
+      <c r="BO39" s="44"/>
+      <c r="BP39" s="44"/>
+      <c r="BQ39" s="44"/>
+      <c r="BR39" s="44"/>
+      <c r="BS39" s="44"/>
+      <c r="BT39" s="44"/>
+      <c r="BU39" s="44"/>
+      <c r="BV39" s="44"/>
+      <c r="BW39" s="44"/>
+      <c r="BX39" s="44"/>
+      <c r="BY39" s="44"/>
+      <c r="BZ39" s="44"/>
+      <c r="CA39" s="44"/>
+      <c r="CB39" s="44"/>
+      <c r="CC39" s="44"/>
+      <c r="CD39" s="44"/>
+      <c r="CE39" s="44"/>
+      <c r="CF39" s="44"/>
+      <c r="CG39" s="44"/>
+      <c r="CH39" s="44"/>
+      <c r="CI39" s="44"/>
+      <c r="CJ39" s="44"/>
+      <c r="CK39" s="44"/>
+      <c r="CL39" s="44"/>
+      <c r="CM39" s="44"/>
+      <c r="CN39" s="44"/>
+      <c r="CO39" s="44"/>
+      <c r="CP39" s="44"/>
+      <c r="CQ39" s="44"/>
+      <c r="CR39" s="44"/>
+      <c r="CS39" s="44"/>
+      <c r="CT39" s="44"/>
+      <c r="CU39" s="44"/>
+      <c r="CV39" s="44"/>
+      <c r="CW39" s="44"/>
+      <c r="CX39" s="44"/>
+      <c r="CY39" s="44"/>
+      <c r="CZ39" s="44"/>
+      <c r="DA39" s="44"/>
+      <c r="DB39" s="44"/>
+      <c r="DC39" s="44"/>
+      <c r="DD39" s="44"/>
+      <c r="DE39" s="44"/>
+      <c r="DF39" s="44"/>
+      <c r="DG39" s="44"/>
+      <c r="DH39" s="44"/>
+      <c r="DI39" s="44"/>
+      <c r="DJ39" s="44"/>
+      <c r="DK39" s="44"/>
+      <c r="DL39" s="44"/>
+      <c r="DM39" s="44"/>
+      <c r="DN39" s="44"/>
+      <c r="DO39" s="44"/>
+      <c r="DP39" s="44"/>
+      <c r="DQ39" s="44"/>
+      <c r="DR39" s="44"/>
+      <c r="DS39" s="44"/>
+      <c r="DT39" s="44"/>
+      <c r="DU39" s="44"/>
+      <c r="DV39" s="44"/>
+      <c r="DW39" s="44"/>
+      <c r="DX39" s="44"/>
+      <c r="DY39" s="44"/>
+      <c r="DZ39" s="44"/>
+      <c r="EA39" s="44"/>
+      <c r="EB39" s="44"/>
+      <c r="EC39" s="44"/>
+      <c r="ED39" s="44"/>
+      <c r="EE39" s="44"/>
+      <c r="EF39" s="44"/>
+      <c r="EG39" s="44"/>
+      <c r="EH39" s="44"/>
+      <c r="EI39" s="44"/>
+      <c r="EJ39" s="44"/>
+      <c r="EK39" s="44"/>
+      <c r="EL39" s="44"/>
+      <c r="EM39" s="44"/>
+      <c r="EN39" s="44"/>
+      <c r="EO39" s="44"/>
+      <c r="EP39" s="44"/>
+      <c r="EQ39" s="44"/>
+      <c r="ER39" s="44"/>
+      <c r="ES39" s="44"/>
+      <c r="ET39" s="44"/>
+      <c r="EU39" s="44"/>
+      <c r="EV39" s="44"/>
+      <c r="EW39" s="44"/>
+      <c r="EX39" s="44"/>
+      <c r="EY39" s="44"/>
+      <c r="EZ39" s="44"/>
+      <c r="FA39" s="44"/>
+      <c r="FB39" s="44"/>
+      <c r="FC39" s="44"/>
+      <c r="FD39" s="44"/>
+      <c r="FE39" s="44"/>
+      <c r="FF39" s="44"/>
+      <c r="FG39" s="44"/>
+      <c r="FH39" s="44"/>
+      <c r="FI39" s="44"/>
+      <c r="FJ39" s="44"/>
+      <c r="FK39" s="44"/>
+      <c r="FL39" s="44"/>
+      <c r="FM39" s="44"/>
+      <c r="FN39" s="44"/>
+      <c r="FO39" s="44"/>
+      <c r="FP39" s="44"/>
+      <c r="FQ39" s="44"/>
+      <c r="FR39" s="44"/>
+      <c r="FS39" s="44"/>
+      <c r="FT39" s="44"/>
+      <c r="FU39" s="44"/>
+      <c r="FV39" s="44"/>
+      <c r="FW39" s="44"/>
+      <c r="FX39" s="44"/>
+      <c r="FY39" s="44"/>
+      <c r="FZ39" s="44"/>
+      <c r="GA39" s="44"/>
+      <c r="GB39" s="44"/>
+      <c r="GC39" s="44"/>
+      <c r="GD39" s="44"/>
+      <c r="GE39" s="44"/>
+      <c r="GF39" s="44"/>
+      <c r="GG39" s="44"/>
+      <c r="GH39" s="44"/>
+      <c r="GI39" s="44"/>
+      <c r="GJ39" s="44"/>
+      <c r="GK39" s="44"/>
+      <c r="GL39" s="44"/>
+      <c r="GM39" s="44"/>
+      <c r="GN39" s="44"/>
+      <c r="GO39" s="44"/>
+      <c r="GP39" s="44"/>
+      <c r="GQ39" s="44"/>
+      <c r="GR39" s="44"/>
+      <c r="GS39" s="44"/>
+      <c r="GT39" s="44"/>
+      <c r="GU39" s="44"/>
+      <c r="GV39" s="44"/>
+      <c r="GW39" s="44"/>
+      <c r="GX39" s="44"/>
+      <c r="GY39" s="44"/>
+      <c r="GZ39" s="44"/>
+      <c r="HA39" s="44"/>
+      <c r="HB39" s="44"/>
+      <c r="HC39" s="44"/>
+      <c r="HD39" s="44"/>
+      <c r="HE39" s="44"/>
+      <c r="HF39" s="44"/>
+      <c r="HG39" s="44"/>
+      <c r="HH39" s="44"/>
+      <c r="HI39" s="44"/>
+      <c r="HJ39" s="44"/>
+      <c r="HK39" s="44"/>
+      <c r="HL39" s="44"/>
+      <c r="HM39" s="44"/>
+      <c r="HN39" s="44"/>
+      <c r="HO39" s="44"/>
+      <c r="HP39" s="44"/>
+      <c r="HQ39" s="44"/>
+      <c r="HR39" s="44"/>
+      <c r="HS39" s="44"/>
+      <c r="HT39" s="44"/>
+      <c r="HU39" s="44"/>
+      <c r="HV39" s="44"/>
+      <c r="HW39" s="44"/>
+      <c r="HX39" s="44"/>
+      <c r="HY39" s="44"/>
+      <c r="HZ39" s="44"/>
+      <c r="IA39" s="44"/>
+      <c r="IB39" s="44"/>
+      <c r="IC39" s="44"/>
+      <c r="ID39" s="44"/>
+      <c r="IE39" s="44"/>
+      <c r="IF39" s="44"/>
+      <c r="IG39" s="44"/>
+      <c r="IH39" s="44"/>
+      <c r="II39" s="44"/>
+      <c r="IJ39" s="44"/>
+      <c r="IK39" s="44"/>
+      <c r="IL39" s="44"/>
+      <c r="IM39" s="44"/>
+      <c r="IN39" s="44"/>
+      <c r="IO39" s="44"/>
+      <c r="IP39" s="44"/>
+      <c r="IQ39" s="44"/>
+      <c r="IR39" s="44"/>
+      <c r="IS39" s="44"/>
     </row>
-    <row r="39" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31">
-        <v>45278</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="18"/>
-      <c r="AP39" s="18"/>
-      <c r="AQ39" s="18"/>
-      <c r="AR39" s="18"/>
-      <c r="AS39" s="18"/>
-      <c r="AT39" s="18"/>
-      <c r="AU39" s="18"/>
-      <c r="AV39" s="18"/>
-      <c r="AW39" s="18"/>
-      <c r="AX39" s="18"/>
-      <c r="AY39" s="18"/>
-      <c r="AZ39" s="18"/>
-      <c r="BA39" s="18"/>
-      <c r="BB39" s="18"/>
-      <c r="BC39" s="18"/>
-      <c r="BD39" s="18"/>
-      <c r="BE39" s="18"/>
-      <c r="BF39" s="18"/>
-      <c r="BG39" s="18"/>
-      <c r="BH39" s="18"/>
-      <c r="BI39" s="18"/>
-      <c r="BJ39" s="18"/>
-      <c r="BK39" s="18"/>
-      <c r="BL39" s="41"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
-      <c r="BV39" s="1"/>
-      <c r="BW39" s="1"/>
-      <c r="BX39" s="1"/>
-      <c r="BY39" s="1"/>
-      <c r="BZ39" s="1"/>
-      <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
-      <c r="CC39" s="1"/>
-      <c r="CD39" s="1"/>
-      <c r="CE39" s="1"/>
-      <c r="CF39" s="1"/>
-      <c r="CG39" s="1"/>
-      <c r="CH39" s="1"/>
-      <c r="CI39" s="1"/>
-      <c r="CJ39" s="1"/>
-      <c r="CK39" s="1"/>
-      <c r="CL39" s="1"/>
-      <c r="CM39" s="1"/>
-      <c r="CN39" s="1"/>
-      <c r="CO39" s="1"/>
-      <c r="CP39" s="1"/>
-      <c r="CQ39" s="1"/>
-      <c r="CR39" s="1"/>
-      <c r="CS39" s="1"/>
-      <c r="CT39" s="1"/>
-      <c r="CU39" s="1"/>
-      <c r="CV39" s="1"/>
-      <c r="CW39" s="1"/>
-      <c r="CX39" s="1"/>
-      <c r="CY39" s="1"/>
-      <c r="CZ39" s="1"/>
-      <c r="DA39" s="1"/>
-      <c r="DB39" s="1"/>
-      <c r="DC39" s="1"/>
-      <c r="DD39" s="1"/>
-      <c r="DE39" s="1"/>
-      <c r="DF39" s="1"/>
-      <c r="DG39" s="1"/>
-      <c r="DH39" s="1"/>
-      <c r="DI39" s="1"/>
-      <c r="DJ39" s="1"/>
-      <c r="DK39" s="1"/>
-      <c r="DL39" s="1"/>
-      <c r="DM39" s="1"/>
-      <c r="DN39" s="1"/>
-      <c r="DO39" s="1"/>
-      <c r="DP39" s="1"/>
-      <c r="DQ39" s="1"/>
-      <c r="DR39" s="1"/>
-      <c r="DS39" s="1"/>
-      <c r="DT39" s="1"/>
-      <c r="DU39" s="1"/>
-      <c r="DV39" s="1"/>
-      <c r="DW39" s="1"/>
-      <c r="DX39" s="1"/>
-      <c r="DY39" s="1"/>
-      <c r="DZ39" s="1"/>
-      <c r="EA39" s="1"/>
-      <c r="EB39" s="1"/>
-      <c r="EC39" s="1"/>
-      <c r="ED39" s="1"/>
-      <c r="EE39" s="1"/>
-      <c r="EF39" s="1"/>
-      <c r="EG39" s="1"/>
-      <c r="EH39" s="1"/>
-      <c r="EI39" s="1"/>
-      <c r="EJ39" s="1"/>
-      <c r="EK39" s="1"/>
-      <c r="EL39" s="1"/>
-      <c r="EM39" s="1"/>
-      <c r="EN39" s="1"/>
-      <c r="EO39" s="1"/>
-      <c r="EP39" s="1"/>
-      <c r="EQ39" s="1"/>
-      <c r="ER39" s="1"/>
-      <c r="ES39" s="1"/>
-      <c r="ET39" s="1"/>
-      <c r="EU39" s="1"/>
-      <c r="EV39" s="1"/>
-      <c r="EW39" s="1"/>
-      <c r="EX39" s="1"/>
-      <c r="EY39" s="1"/>
-      <c r="EZ39" s="1"/>
-      <c r="FA39" s="1"/>
-      <c r="FB39" s="1"/>
-      <c r="FC39" s="1"/>
-      <c r="FD39" s="1"/>
-      <c r="FE39" s="1"/>
-      <c r="FF39" s="1"/>
-      <c r="FG39" s="1"/>
-      <c r="FH39" s="1"/>
-      <c r="FI39" s="1"/>
-      <c r="FJ39" s="1"/>
-      <c r="FK39" s="1"/>
-      <c r="FL39" s="1"/>
-      <c r="FM39" s="1"/>
-      <c r="FN39" s="1"/>
-      <c r="FO39" s="1"/>
-      <c r="FP39" s="1"/>
-      <c r="FQ39" s="1"/>
-      <c r="FR39" s="1"/>
-      <c r="FS39" s="1"/>
-      <c r="FT39" s="1"/>
-      <c r="FU39" s="1"/>
-      <c r="FV39" s="1"/>
-      <c r="FW39" s="1"/>
-      <c r="FX39" s="1"/>
-      <c r="FY39" s="1"/>
-      <c r="FZ39" s="1"/>
-      <c r="GA39" s="1"/>
-      <c r="GB39" s="1"/>
-      <c r="GC39" s="1"/>
-      <c r="GD39" s="1"/>
-      <c r="GE39" s="1"/>
-      <c r="GF39" s="1"/>
-      <c r="GG39" s="1"/>
-      <c r="GH39" s="1"/>
-      <c r="GI39" s="1"/>
-      <c r="GJ39" s="1"/>
-      <c r="GK39" s="1"/>
-      <c r="GL39" s="1"/>
-      <c r="GM39" s="1"/>
-      <c r="GN39" s="1"/>
-      <c r="GO39" s="1"/>
-      <c r="GP39" s="1"/>
-      <c r="GQ39" s="1"/>
-      <c r="GR39" s="1"/>
-      <c r="GS39" s="1"/>
-      <c r="GT39" s="1"/>
-      <c r="GU39" s="1"/>
-      <c r="GV39" s="1"/>
-      <c r="GW39" s="1"/>
-      <c r="GX39" s="1"/>
-      <c r="GY39" s="1"/>
-      <c r="GZ39" s="1"/>
-      <c r="HA39" s="1"/>
-      <c r="HB39" s="1"/>
-      <c r="HC39" s="1"/>
-      <c r="HD39" s="1"/>
-      <c r="HE39" s="1"/>
-      <c r="HF39" s="1"/>
-      <c r="HG39" s="1"/>
-      <c r="HH39" s="1"/>
-      <c r="HI39" s="1"/>
-      <c r="HJ39" s="1"/>
-      <c r="HK39" s="1"/>
-      <c r="HL39" s="1"/>
-      <c r="HM39" s="1"/>
-      <c r="HN39" s="1"/>
-      <c r="HO39" s="1"/>
-      <c r="HP39" s="1"/>
-      <c r="HQ39" s="1"/>
-      <c r="HR39" s="1"/>
-      <c r="HS39" s="1"/>
-      <c r="HT39" s="1"/>
-      <c r="HU39" s="1"/>
-      <c r="HV39" s="1"/>
-      <c r="HW39" s="1"/>
-      <c r="HX39" s="1"/>
-      <c r="HY39" s="1"/>
-      <c r="HZ39" s="1"/>
-      <c r="IA39" s="1"/>
-      <c r="IB39" s="1"/>
-      <c r="IC39" s="1"/>
-      <c r="ID39" s="1"/>
-      <c r="IE39" s="1"/>
-      <c r="IF39" s="1"/>
-      <c r="IG39" s="1"/>
-      <c r="IH39" s="1"/>
-      <c r="II39" s="1"/>
-      <c r="IJ39" s="1"/>
-      <c r="IK39" s="1"/>
-      <c r="IL39" s="1"/>
-      <c r="IM39" s="1"/>
-      <c r="IN39" s="1"/>
-      <c r="IO39" s="1"/>
-      <c r="IP39" s="1"/>
-      <c r="IQ39" s="1"/>
-      <c r="IR39" s="1"/>
-      <c r="IS39" s="1"/>
-    </row>
-    <row r="40" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>57</v>
@@ -11299,11 +11064,11 @@
       <c r="C40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="31">
-        <v>45278</v>
+      <c r="E40" s="40">
+        <v>45270</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -11311,35 +11076,35 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
       <c r="AO40" s="18"/>
       <c r="AP40" s="18"/>
       <c r="AQ40" s="18"/>
@@ -11363,7 +11128,7 @@
       <c r="BI40" s="18"/>
       <c r="BJ40" s="18"/>
       <c r="BK40" s="18"/>
-      <c r="BL40" s="41"/>
+      <c r="BL40" s="38"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
@@ -11554,1686 +11319,33 @@
       <c r="IR40" s="1"/>
       <c r="IS40" s="1"/>
     </row>
-    <row r="41" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>12</v>
-      </c>
-      <c r="B41" s="30" t="s">
+    <row r="42" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="23">
-        <v>0</v>
-      </c>
-      <c r="E41" s="31">
-        <v>45278</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="18"/>
-      <c r="AR41" s="18"/>
-      <c r="AS41" s="18"/>
-      <c r="AT41" s="18"/>
-      <c r="AU41" s="18"/>
-      <c r="AV41" s="18"/>
-      <c r="AW41" s="18"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="18"/>
-      <c r="AZ41" s="18"/>
-      <c r="BA41" s="18"/>
-      <c r="BB41" s="18"/>
-      <c r="BC41" s="18"/>
-      <c r="BD41" s="18"/>
-      <c r="BE41" s="18"/>
-      <c r="BF41" s="18"/>
-      <c r="BG41" s="18"/>
-      <c r="BH41" s="18"/>
-      <c r="BI41" s="18"/>
-      <c r="BJ41" s="18"/>
-      <c r="BK41" s="18"/>
-      <c r="BL41" s="41"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
-      <c r="BQ41" s="1"/>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="1"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1"/>
-      <c r="BV41" s="1"/>
-      <c r="BW41" s="1"/>
-      <c r="BX41" s="1"/>
-      <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
-      <c r="CD41" s="1"/>
-      <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
-      <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
-      <c r="CI41" s="1"/>
-      <c r="CJ41" s="1"/>
-      <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
-      <c r="CT41" s="1"/>
-      <c r="CU41" s="1"/>
-      <c r="CV41" s="1"/>
-      <c r="CW41" s="1"/>
-      <c r="CX41" s="1"/>
-      <c r="CY41" s="1"/>
-      <c r="CZ41" s="1"/>
-      <c r="DA41" s="1"/>
-      <c r="DB41" s="1"/>
-      <c r="DC41" s="1"/>
-      <c r="DD41" s="1"/>
-      <c r="DE41" s="1"/>
-      <c r="DF41" s="1"/>
-      <c r="DG41" s="1"/>
-      <c r="DH41" s="1"/>
-      <c r="DI41" s="1"/>
-      <c r="DJ41" s="1"/>
-      <c r="DK41" s="1"/>
-      <c r="DL41" s="1"/>
-      <c r="DM41" s="1"/>
-      <c r="DN41" s="1"/>
-      <c r="DO41" s="1"/>
-      <c r="DP41" s="1"/>
-      <c r="DQ41" s="1"/>
-      <c r="DR41" s="1"/>
-      <c r="DS41" s="1"/>
-      <c r="DT41" s="1"/>
-      <c r="DU41" s="1"/>
-      <c r="DV41" s="1"/>
-      <c r="DW41" s="1"/>
-      <c r="DX41" s="1"/>
-      <c r="DY41" s="1"/>
-      <c r="DZ41" s="1"/>
-      <c r="EA41" s="1"/>
-      <c r="EB41" s="1"/>
-      <c r="EC41" s="1"/>
-      <c r="ED41" s="1"/>
-      <c r="EE41" s="1"/>
-      <c r="EF41" s="1"/>
-      <c r="EG41" s="1"/>
-      <c r="EH41" s="1"/>
-      <c r="EI41" s="1"/>
-      <c r="EJ41" s="1"/>
-      <c r="EK41" s="1"/>
-      <c r="EL41" s="1"/>
-      <c r="EM41" s="1"/>
-      <c r="EN41" s="1"/>
-      <c r="EO41" s="1"/>
-      <c r="EP41" s="1"/>
-      <c r="EQ41" s="1"/>
-      <c r="ER41" s="1"/>
-      <c r="ES41" s="1"/>
-      <c r="ET41" s="1"/>
-      <c r="EU41" s="1"/>
-      <c r="EV41" s="1"/>
-      <c r="EW41" s="1"/>
-      <c r="EX41" s="1"/>
-      <c r="EY41" s="1"/>
-      <c r="EZ41" s="1"/>
-      <c r="FA41" s="1"/>
-      <c r="FB41" s="1"/>
-      <c r="FC41" s="1"/>
-      <c r="FD41" s="1"/>
-      <c r="FE41" s="1"/>
-      <c r="FF41" s="1"/>
-      <c r="FG41" s="1"/>
-      <c r="FH41" s="1"/>
-      <c r="FI41" s="1"/>
-      <c r="FJ41" s="1"/>
-      <c r="FK41" s="1"/>
-      <c r="FL41" s="1"/>
-      <c r="FM41" s="1"/>
-      <c r="FN41" s="1"/>
-      <c r="FO41" s="1"/>
-      <c r="FP41" s="1"/>
-      <c r="FQ41" s="1"/>
-      <c r="FR41" s="1"/>
-      <c r="FS41" s="1"/>
-      <c r="FT41" s="1"/>
-      <c r="FU41" s="1"/>
-      <c r="FV41" s="1"/>
-      <c r="FW41" s="1"/>
-      <c r="FX41" s="1"/>
-      <c r="FY41" s="1"/>
-      <c r="FZ41" s="1"/>
-      <c r="GA41" s="1"/>
-      <c r="GB41" s="1"/>
-      <c r="GC41" s="1"/>
-      <c r="GD41" s="1"/>
-      <c r="GE41" s="1"/>
-      <c r="GF41" s="1"/>
-      <c r="GG41" s="1"/>
-      <c r="GH41" s="1"/>
-      <c r="GI41" s="1"/>
-      <c r="GJ41" s="1"/>
-      <c r="GK41" s="1"/>
-      <c r="GL41" s="1"/>
-      <c r="GM41" s="1"/>
-      <c r="GN41" s="1"/>
-      <c r="GO41" s="1"/>
-      <c r="GP41" s="1"/>
-      <c r="GQ41" s="1"/>
-      <c r="GR41" s="1"/>
-      <c r="GS41" s="1"/>
-      <c r="GT41" s="1"/>
-      <c r="GU41" s="1"/>
-      <c r="GV41" s="1"/>
-      <c r="GW41" s="1"/>
-      <c r="GX41" s="1"/>
-      <c r="GY41" s="1"/>
-      <c r="GZ41" s="1"/>
-      <c r="HA41" s="1"/>
-      <c r="HB41" s="1"/>
-      <c r="HC41" s="1"/>
-      <c r="HD41" s="1"/>
-      <c r="HE41" s="1"/>
-      <c r="HF41" s="1"/>
-      <c r="HG41" s="1"/>
-      <c r="HH41" s="1"/>
-      <c r="HI41" s="1"/>
-      <c r="HJ41" s="1"/>
-      <c r="HK41" s="1"/>
-      <c r="HL41" s="1"/>
-      <c r="HM41" s="1"/>
-      <c r="HN41" s="1"/>
-      <c r="HO41" s="1"/>
-      <c r="HP41" s="1"/>
-      <c r="HQ41" s="1"/>
-      <c r="HR41" s="1"/>
-      <c r="HS41" s="1"/>
-      <c r="HT41" s="1"/>
-      <c r="HU41" s="1"/>
-      <c r="HV41" s="1"/>
-      <c r="HW41" s="1"/>
-      <c r="HX41" s="1"/>
-      <c r="HY41" s="1"/>
-      <c r="HZ41" s="1"/>
-      <c r="IA41" s="1"/>
-      <c r="IB41" s="1"/>
-      <c r="IC41" s="1"/>
-      <c r="ID41" s="1"/>
-      <c r="IE41" s="1"/>
-      <c r="IF41" s="1"/>
-      <c r="IG41" s="1"/>
-      <c r="IH41" s="1"/>
-      <c r="II41" s="1"/>
-      <c r="IJ41" s="1"/>
-      <c r="IK41" s="1"/>
-      <c r="IL41" s="1"/>
-      <c r="IM41" s="1"/>
-      <c r="IN41" s="1"/>
-      <c r="IO41" s="1"/>
-      <c r="IP41" s="1"/>
-      <c r="IQ41" s="1"/>
-      <c r="IR41" s="1"/>
-      <c r="IS41" s="1"/>
+      <c r="B42" s="1"/>
     </row>
-    <row r="42" spans="1:253" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
-        <v>13</v>
-      </c>
-      <c r="B42" s="35" t="s">
+    <row r="43" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="33" t="s">
+    </row>
+    <row r="44" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D42" s="23">
-        <v>0</v>
-      </c>
-      <c r="E42" s="31">
-        <v>45283</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="18"/>
-      <c r="AP42" s="18"/>
-      <c r="AQ42" s="18"/>
-      <c r="AR42" s="18"/>
-      <c r="AS42" s="18"/>
-      <c r="AT42" s="18"/>
-      <c r="AU42" s="18"/>
-      <c r="AV42" s="18"/>
-      <c r="AW42" s="18"/>
-      <c r="AX42" s="18"/>
-      <c r="AY42" s="18"/>
-      <c r="AZ42" s="18"/>
-      <c r="BA42" s="18"/>
-      <c r="BB42" s="18"/>
-      <c r="BC42" s="18"/>
-      <c r="BD42" s="18"/>
-      <c r="BE42" s="18"/>
-      <c r="BF42" s="18"/>
-      <c r="BG42" s="18"/>
-      <c r="BH42" s="18"/>
-      <c r="BI42" s="18"/>
-      <c r="BJ42" s="18"/>
-      <c r="BK42" s="18"/>
-      <c r="BL42" s="41"/>
-      <c r="BM42" s="35"/>
-      <c r="BN42" s="35"/>
-      <c r="BO42" s="35"/>
-      <c r="BP42" s="35"/>
-      <c r="BQ42" s="35"/>
-      <c r="BR42" s="35"/>
-      <c r="BS42" s="35"/>
-      <c r="BT42" s="35"/>
-      <c r="BU42" s="35"/>
-      <c r="BV42" s="35"/>
-      <c r="BW42" s="35"/>
-      <c r="BX42" s="35"/>
-      <c r="BY42" s="35"/>
-      <c r="BZ42" s="35"/>
-      <c r="CA42" s="35"/>
-      <c r="CB42" s="35"/>
-      <c r="CC42" s="35"/>
-      <c r="CD42" s="35"/>
-      <c r="CE42" s="35"/>
-      <c r="CF42" s="35"/>
-      <c r="CG42" s="35"/>
-      <c r="CH42" s="35"/>
-      <c r="CI42" s="35"/>
-      <c r="CJ42" s="35"/>
-      <c r="CK42" s="35"/>
-      <c r="CL42" s="35"/>
-      <c r="CM42" s="35"/>
-      <c r="CN42" s="35"/>
-      <c r="CO42" s="35"/>
-      <c r="CP42" s="35"/>
-      <c r="CQ42" s="35"/>
-      <c r="CR42" s="35"/>
-      <c r="CS42" s="35"/>
-      <c r="CT42" s="35"/>
-      <c r="CU42" s="35"/>
-      <c r="CV42" s="35"/>
-      <c r="CW42" s="35"/>
-      <c r="CX42" s="35"/>
-      <c r="CY42" s="35"/>
-      <c r="CZ42" s="35"/>
-      <c r="DA42" s="35"/>
-      <c r="DB42" s="35"/>
-      <c r="DC42" s="35"/>
-      <c r="DD42" s="35"/>
-      <c r="DE42" s="35"/>
-      <c r="DF42" s="35"/>
-      <c r="DG42" s="35"/>
-      <c r="DH42" s="35"/>
-      <c r="DI42" s="35"/>
-      <c r="DJ42" s="35"/>
-      <c r="DK42" s="35"/>
-      <c r="DL42" s="35"/>
-      <c r="DM42" s="35"/>
-      <c r="DN42" s="35"/>
-      <c r="DO42" s="35"/>
-      <c r="DP42" s="35"/>
-      <c r="DQ42" s="35"/>
-      <c r="DR42" s="35"/>
-      <c r="DS42" s="35"/>
-      <c r="DT42" s="35"/>
-      <c r="DU42" s="35"/>
-      <c r="DV42" s="35"/>
-      <c r="DW42" s="35"/>
-      <c r="DX42" s="35"/>
-      <c r="DY42" s="35"/>
-      <c r="DZ42" s="35"/>
-      <c r="EA42" s="35"/>
-      <c r="EB42" s="35"/>
-      <c r="EC42" s="35"/>
-      <c r="ED42" s="35"/>
-      <c r="EE42" s="35"/>
-      <c r="EF42" s="35"/>
-      <c r="EG42" s="35"/>
-      <c r="EH42" s="35"/>
-      <c r="EI42" s="35"/>
-      <c r="EJ42" s="35"/>
-      <c r="EK42" s="35"/>
-      <c r="EL42" s="35"/>
-      <c r="EM42" s="35"/>
-      <c r="EN42" s="35"/>
-      <c r="EO42" s="35"/>
-      <c r="EP42" s="35"/>
-      <c r="EQ42" s="35"/>
-      <c r="ER42" s="35"/>
-      <c r="ES42" s="35"/>
-      <c r="ET42" s="35"/>
-      <c r="EU42" s="35"/>
-      <c r="EV42" s="35"/>
-      <c r="EW42" s="35"/>
-      <c r="EX42" s="35"/>
-      <c r="EY42" s="35"/>
-      <c r="EZ42" s="35"/>
-      <c r="FA42" s="35"/>
-      <c r="FB42" s="35"/>
-      <c r="FC42" s="35"/>
-      <c r="FD42" s="35"/>
-      <c r="FE42" s="35"/>
-      <c r="FF42" s="35"/>
-      <c r="FG42" s="35"/>
-      <c r="FH42" s="35"/>
-      <c r="FI42" s="35"/>
-      <c r="FJ42" s="35"/>
-      <c r="FK42" s="35"/>
-      <c r="FL42" s="35"/>
-      <c r="FM42" s="35"/>
-      <c r="FN42" s="35"/>
-      <c r="FO42" s="35"/>
-      <c r="FP42" s="35"/>
-      <c r="FQ42" s="35"/>
-      <c r="FR42" s="35"/>
-      <c r="FS42" s="35"/>
-      <c r="FT42" s="35"/>
-      <c r="FU42" s="35"/>
-      <c r="FV42" s="35"/>
-      <c r="FW42" s="35"/>
-      <c r="FX42" s="35"/>
-      <c r="FY42" s="35"/>
-      <c r="FZ42" s="35"/>
-      <c r="GA42" s="35"/>
-      <c r="GB42" s="35"/>
-      <c r="GC42" s="35"/>
-      <c r="GD42" s="35"/>
-      <c r="GE42" s="35"/>
-      <c r="GF42" s="35"/>
-      <c r="GG42" s="35"/>
-      <c r="GH42" s="35"/>
-      <c r="GI42" s="35"/>
-      <c r="GJ42" s="35"/>
-      <c r="GK42" s="35"/>
-      <c r="GL42" s="35"/>
-      <c r="GM42" s="35"/>
-      <c r="GN42" s="35"/>
-      <c r="GO42" s="35"/>
-      <c r="GP42" s="35"/>
-      <c r="GQ42" s="35"/>
-      <c r="GR42" s="35"/>
-      <c r="GS42" s="35"/>
-      <c r="GT42" s="35"/>
-      <c r="GU42" s="35"/>
-      <c r="GV42" s="35"/>
-      <c r="GW42" s="35"/>
-      <c r="GX42" s="35"/>
-      <c r="GY42" s="35"/>
-      <c r="GZ42" s="35"/>
-      <c r="HA42" s="35"/>
-      <c r="HB42" s="35"/>
-      <c r="HC42" s="35"/>
-      <c r="HD42" s="35"/>
-      <c r="HE42" s="35"/>
-      <c r="HF42" s="35"/>
-      <c r="HG42" s="35"/>
-      <c r="HH42" s="35"/>
-      <c r="HI42" s="35"/>
-      <c r="HJ42" s="35"/>
-      <c r="HK42" s="35"/>
-      <c r="HL42" s="35"/>
-      <c r="HM42" s="35"/>
-      <c r="HN42" s="35"/>
-      <c r="HO42" s="35"/>
-      <c r="HP42" s="35"/>
-      <c r="HQ42" s="35"/>
-      <c r="HR42" s="35"/>
-      <c r="HS42" s="35"/>
-      <c r="HT42" s="35"/>
-      <c r="HU42" s="35"/>
-      <c r="HV42" s="35"/>
-      <c r="HW42" s="35"/>
-      <c r="HX42" s="35"/>
-      <c r="HY42" s="35"/>
-      <c r="HZ42" s="35"/>
-      <c r="IA42" s="35"/>
-      <c r="IB42" s="35"/>
-      <c r="IC42" s="35"/>
-      <c r="ID42" s="35"/>
-      <c r="IE42" s="35"/>
-      <c r="IF42" s="35"/>
-      <c r="IG42" s="35"/>
-      <c r="IH42" s="35"/>
-      <c r="II42" s="35"/>
-      <c r="IJ42" s="35"/>
-      <c r="IK42" s="35"/>
-      <c r="IL42" s="35"/>
-      <c r="IM42" s="35"/>
-      <c r="IN42" s="35"/>
-      <c r="IO42" s="35"/>
-      <c r="IP42" s="35"/>
-      <c r="IQ42" s="35"/>
-      <c r="IR42" s="35"/>
-      <c r="IS42" s="35"/>
-    </row>
-    <row r="43" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="23">
-        <v>0</v>
-      </c>
-      <c r="E43" s="31">
-        <v>45283</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="18"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AN43" s="18"/>
-      <c r="AO43" s="18"/>
-      <c r="AP43" s="18"/>
-      <c r="AQ43" s="18"/>
-      <c r="AR43" s="18"/>
-      <c r="AS43" s="18"/>
-      <c r="AT43" s="18"/>
-      <c r="AU43" s="18"/>
-      <c r="AV43" s="18"/>
-      <c r="AW43" s="18"/>
-      <c r="AX43" s="18"/>
-      <c r="AY43" s="18"/>
-      <c r="AZ43" s="18"/>
-      <c r="BA43" s="18"/>
-      <c r="BB43" s="18"/>
-      <c r="BC43" s="18"/>
-      <c r="BD43" s="18"/>
-      <c r="BE43" s="18"/>
-      <c r="BF43" s="18"/>
-      <c r="BG43" s="18"/>
-      <c r="BH43" s="18"/>
-      <c r="BI43" s="18"/>
-      <c r="BJ43" s="18"/>
-      <c r="BK43" s="18"/>
-      <c r="BL43" s="41"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-      <c r="BQ43" s="1"/>
-      <c r="BR43" s="1"/>
-      <c r="BS43" s="1"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="1"/>
-      <c r="BV43" s="1"/>
-      <c r="BW43" s="1"/>
-      <c r="BX43" s="1"/>
-      <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
-      <c r="CD43" s="1"/>
-      <c r="CE43" s="1"/>
-      <c r="CF43" s="1"/>
-      <c r="CG43" s="1"/>
-      <c r="CH43" s="1"/>
-      <c r="CI43" s="1"/>
-      <c r="CJ43" s="1"/>
-      <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
-      <c r="CT43" s="1"/>
-      <c r="CU43" s="1"/>
-      <c r="CV43" s="1"/>
-      <c r="CW43" s="1"/>
-      <c r="CX43" s="1"/>
-      <c r="CY43" s="1"/>
-      <c r="CZ43" s="1"/>
-      <c r="DA43" s="1"/>
-      <c r="DB43" s="1"/>
-      <c r="DC43" s="1"/>
-      <c r="DD43" s="1"/>
-      <c r="DE43" s="1"/>
-      <c r="DF43" s="1"/>
-      <c r="DG43" s="1"/>
-      <c r="DH43" s="1"/>
-      <c r="DI43" s="1"/>
-      <c r="DJ43" s="1"/>
-      <c r="DK43" s="1"/>
-      <c r="DL43" s="1"/>
-      <c r="DM43" s="1"/>
-      <c r="DN43" s="1"/>
-      <c r="DO43" s="1"/>
-      <c r="DP43" s="1"/>
-      <c r="DQ43" s="1"/>
-      <c r="DR43" s="1"/>
-      <c r="DS43" s="1"/>
-      <c r="DT43" s="1"/>
-      <c r="DU43" s="1"/>
-      <c r="DV43" s="1"/>
-      <c r="DW43" s="1"/>
-      <c r="DX43" s="1"/>
-      <c r="DY43" s="1"/>
-      <c r="DZ43" s="1"/>
-      <c r="EA43" s="1"/>
-      <c r="EB43" s="1"/>
-      <c r="EC43" s="1"/>
-      <c r="ED43" s="1"/>
-      <c r="EE43" s="1"/>
-      <c r="EF43" s="1"/>
-      <c r="EG43" s="1"/>
-      <c r="EH43" s="1"/>
-      <c r="EI43" s="1"/>
-      <c r="EJ43" s="1"/>
-      <c r="EK43" s="1"/>
-      <c r="EL43" s="1"/>
-      <c r="EM43" s="1"/>
-      <c r="EN43" s="1"/>
-      <c r="EO43" s="1"/>
-      <c r="EP43" s="1"/>
-      <c r="EQ43" s="1"/>
-      <c r="ER43" s="1"/>
-      <c r="ES43" s="1"/>
-      <c r="ET43" s="1"/>
-      <c r="EU43" s="1"/>
-      <c r="EV43" s="1"/>
-      <c r="EW43" s="1"/>
-      <c r="EX43" s="1"/>
-      <c r="EY43" s="1"/>
-      <c r="EZ43" s="1"/>
-      <c r="FA43" s="1"/>
-      <c r="FB43" s="1"/>
-      <c r="FC43" s="1"/>
-      <c r="FD43" s="1"/>
-      <c r="FE43" s="1"/>
-      <c r="FF43" s="1"/>
-      <c r="FG43" s="1"/>
-      <c r="FH43" s="1"/>
-      <c r="FI43" s="1"/>
-      <c r="FJ43" s="1"/>
-      <c r="FK43" s="1"/>
-      <c r="FL43" s="1"/>
-      <c r="FM43" s="1"/>
-      <c r="FN43" s="1"/>
-      <c r="FO43" s="1"/>
-      <c r="FP43" s="1"/>
-      <c r="FQ43" s="1"/>
-      <c r="FR43" s="1"/>
-      <c r="FS43" s="1"/>
-      <c r="FT43" s="1"/>
-      <c r="FU43" s="1"/>
-      <c r="FV43" s="1"/>
-      <c r="FW43" s="1"/>
-      <c r="FX43" s="1"/>
-      <c r="FY43" s="1"/>
-      <c r="FZ43" s="1"/>
-      <c r="GA43" s="1"/>
-      <c r="GB43" s="1"/>
-      <c r="GC43" s="1"/>
-      <c r="GD43" s="1"/>
-      <c r="GE43" s="1"/>
-      <c r="GF43" s="1"/>
-      <c r="GG43" s="1"/>
-      <c r="GH43" s="1"/>
-      <c r="GI43" s="1"/>
-      <c r="GJ43" s="1"/>
-      <c r="GK43" s="1"/>
-      <c r="GL43" s="1"/>
-      <c r="GM43" s="1"/>
-      <c r="GN43" s="1"/>
-      <c r="GO43" s="1"/>
-      <c r="GP43" s="1"/>
-      <c r="GQ43" s="1"/>
-      <c r="GR43" s="1"/>
-      <c r="GS43" s="1"/>
-      <c r="GT43" s="1"/>
-      <c r="GU43" s="1"/>
-      <c r="GV43" s="1"/>
-      <c r="GW43" s="1"/>
-      <c r="GX43" s="1"/>
-      <c r="GY43" s="1"/>
-      <c r="GZ43" s="1"/>
-      <c r="HA43" s="1"/>
-      <c r="HB43" s="1"/>
-      <c r="HC43" s="1"/>
-      <c r="HD43" s="1"/>
-      <c r="HE43" s="1"/>
-      <c r="HF43" s="1"/>
-      <c r="HG43" s="1"/>
-      <c r="HH43" s="1"/>
-      <c r="HI43" s="1"/>
-      <c r="HJ43" s="1"/>
-      <c r="HK43" s="1"/>
-      <c r="HL43" s="1"/>
-      <c r="HM43" s="1"/>
-      <c r="HN43" s="1"/>
-      <c r="HO43" s="1"/>
-      <c r="HP43" s="1"/>
-      <c r="HQ43" s="1"/>
-      <c r="HR43" s="1"/>
-      <c r="HS43" s="1"/>
-      <c r="HT43" s="1"/>
-      <c r="HU43" s="1"/>
-      <c r="HV43" s="1"/>
-      <c r="HW43" s="1"/>
-      <c r="HX43" s="1"/>
-      <c r="HY43" s="1"/>
-      <c r="HZ43" s="1"/>
-      <c r="IA43" s="1"/>
-      <c r="IB43" s="1"/>
-      <c r="IC43" s="1"/>
-      <c r="ID43" s="1"/>
-      <c r="IE43" s="1"/>
-      <c r="IF43" s="1"/>
-      <c r="IG43" s="1"/>
-      <c r="IH43" s="1"/>
-      <c r="II43" s="1"/>
-      <c r="IJ43" s="1"/>
-      <c r="IK43" s="1"/>
-      <c r="IL43" s="1"/>
-      <c r="IM43" s="1"/>
-      <c r="IN43" s="1"/>
-      <c r="IO43" s="1"/>
-      <c r="IP43" s="1"/>
-      <c r="IQ43" s="1"/>
-      <c r="IR43" s="1"/>
-      <c r="IS43" s="1"/>
-    </row>
-    <row r="44" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>15</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="23">
-        <v>0</v>
-      </c>
-      <c r="E44" s="32">
-        <v>45283</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="38"/>
-      <c r="AS44" s="38"/>
-      <c r="AT44" s="38"/>
-      <c r="AU44" s="38"/>
-      <c r="AV44" s="38"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="38"/>
-      <c r="AY44" s="38"/>
-      <c r="AZ44" s="38"/>
-      <c r="BA44" s="38"/>
-      <c r="BB44" s="38"/>
-      <c r="BC44" s="38"/>
-      <c r="BD44" s="38"/>
-      <c r="BE44" s="38"/>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="38"/>
-      <c r="BH44" s="38"/>
-      <c r="BI44" s="38"/>
-      <c r="BJ44" s="38"/>
-      <c r="BK44" s="38"/>
-      <c r="BL44" s="69"/>
-      <c r="BM44" s="21"/>
-      <c r="BN44" s="21"/>
-      <c r="BO44" s="21"/>
-      <c r="BP44" s="21"/>
-      <c r="BQ44" s="21"/>
-      <c r="BR44" s="21"/>
-      <c r="BS44" s="21"/>
-      <c r="BT44" s="21"/>
-      <c r="BU44" s="21"/>
-      <c r="BV44" s="21"/>
-      <c r="BW44" s="21"/>
-      <c r="BX44" s="21"/>
-      <c r="BY44" s="21"/>
-      <c r="BZ44" s="21"/>
-      <c r="CA44" s="21"/>
-      <c r="CB44" s="21"/>
-      <c r="CC44" s="21"/>
-      <c r="CD44" s="21"/>
-      <c r="CE44" s="21"/>
-      <c r="CF44" s="21"/>
-      <c r="CG44" s="21"/>
-      <c r="CH44" s="21"/>
-      <c r="CI44" s="21"/>
-      <c r="CJ44" s="21"/>
-      <c r="CK44" s="21"/>
-      <c r="CL44" s="21"/>
-      <c r="CM44" s="21"/>
-      <c r="CN44" s="21"/>
-      <c r="CO44" s="21"/>
-      <c r="CP44" s="21"/>
-      <c r="CQ44" s="21"/>
-      <c r="CR44" s="21"/>
-      <c r="CS44" s="21"/>
-      <c r="CT44" s="21"/>
-      <c r="CU44" s="21"/>
-      <c r="CV44" s="21"/>
-      <c r="CW44" s="21"/>
-      <c r="CX44" s="21"/>
-      <c r="CY44" s="21"/>
-      <c r="CZ44" s="21"/>
-      <c r="DA44" s="21"/>
-      <c r="DB44" s="21"/>
-      <c r="DC44" s="21"/>
-      <c r="DD44" s="21"/>
-      <c r="DE44" s="21"/>
-      <c r="DF44" s="21"/>
-      <c r="DG44" s="21"/>
-      <c r="DH44" s="21"/>
-      <c r="DI44" s="21"/>
-      <c r="DJ44" s="21"/>
-      <c r="DK44" s="21"/>
-      <c r="DL44" s="21"/>
-      <c r="DM44" s="21"/>
-      <c r="DN44" s="21"/>
-      <c r="DO44" s="21"/>
-      <c r="DP44" s="21"/>
-      <c r="DQ44" s="21"/>
-      <c r="DR44" s="21"/>
-      <c r="DS44" s="21"/>
-      <c r="DT44" s="21"/>
-      <c r="DU44" s="21"/>
-      <c r="DV44" s="21"/>
-      <c r="DW44" s="21"/>
-      <c r="DX44" s="21"/>
-      <c r="DY44" s="21"/>
-      <c r="DZ44" s="21"/>
-      <c r="EA44" s="21"/>
-      <c r="EB44" s="21"/>
-      <c r="EC44" s="21"/>
-      <c r="ED44" s="21"/>
-      <c r="EE44" s="21"/>
-      <c r="EF44" s="21"/>
-      <c r="EG44" s="21"/>
-      <c r="EH44" s="21"/>
-      <c r="EI44" s="21"/>
-      <c r="EJ44" s="21"/>
-      <c r="EK44" s="21"/>
-      <c r="EL44" s="21"/>
-      <c r="EM44" s="21"/>
-      <c r="EN44" s="21"/>
-      <c r="EO44" s="21"/>
-      <c r="EP44" s="21"/>
-      <c r="EQ44" s="21"/>
-      <c r="ER44" s="21"/>
-      <c r="ES44" s="21"/>
-      <c r="ET44" s="21"/>
-      <c r="EU44" s="21"/>
-      <c r="EV44" s="21"/>
-      <c r="EW44" s="21"/>
-      <c r="EX44" s="21"/>
-      <c r="EY44" s="21"/>
-      <c r="EZ44" s="21"/>
-      <c r="FA44" s="21"/>
-      <c r="FB44" s="21"/>
-      <c r="FC44" s="21"/>
-      <c r="FD44" s="21"/>
-      <c r="FE44" s="21"/>
-      <c r="FF44" s="21"/>
-      <c r="FG44" s="21"/>
-      <c r="FH44" s="21"/>
-      <c r="FI44" s="21"/>
-      <c r="FJ44" s="21"/>
-      <c r="FK44" s="21"/>
-      <c r="FL44" s="21"/>
-      <c r="FM44" s="21"/>
-      <c r="FN44" s="21"/>
-      <c r="FO44" s="21"/>
-      <c r="FP44" s="21"/>
-      <c r="FQ44" s="21"/>
-      <c r="FR44" s="21"/>
-      <c r="FS44" s="21"/>
-      <c r="FT44" s="21"/>
-      <c r="FU44" s="21"/>
-      <c r="FV44" s="21"/>
-      <c r="FW44" s="21"/>
-      <c r="FX44" s="21"/>
-      <c r="FY44" s="21"/>
-      <c r="FZ44" s="21"/>
-      <c r="GA44" s="21"/>
-      <c r="GB44" s="21"/>
-      <c r="GC44" s="21"/>
-      <c r="GD44" s="21"/>
-      <c r="GE44" s="21"/>
-      <c r="GF44" s="21"/>
-      <c r="GG44" s="21"/>
-      <c r="GH44" s="21"/>
-      <c r="GI44" s="21"/>
-      <c r="GJ44" s="21"/>
-      <c r="GK44" s="21"/>
-      <c r="GL44" s="21"/>
-      <c r="GM44" s="21"/>
-      <c r="GN44" s="21"/>
-      <c r="GO44" s="21"/>
-      <c r="GP44" s="21"/>
-      <c r="GQ44" s="21"/>
-      <c r="GR44" s="21"/>
-      <c r="GS44" s="21"/>
-      <c r="GT44" s="21"/>
-      <c r="GU44" s="21"/>
-      <c r="GV44" s="21"/>
-      <c r="GW44" s="21"/>
-      <c r="GX44" s="21"/>
-      <c r="GY44" s="21"/>
-      <c r="GZ44" s="21"/>
-      <c r="HA44" s="21"/>
-      <c r="HB44" s="21"/>
-      <c r="HC44" s="21"/>
-      <c r="HD44" s="21"/>
-      <c r="HE44" s="21"/>
-      <c r="HF44" s="21"/>
-      <c r="HG44" s="21"/>
-      <c r="HH44" s="21"/>
-      <c r="HI44" s="21"/>
-      <c r="HJ44" s="21"/>
-      <c r="HK44" s="21"/>
-      <c r="HL44" s="21"/>
-      <c r="HM44" s="21"/>
-      <c r="HN44" s="21"/>
-      <c r="HO44" s="21"/>
-      <c r="HP44" s="21"/>
-      <c r="HQ44" s="21"/>
-      <c r="HR44" s="21"/>
-      <c r="HS44" s="21"/>
-      <c r="HT44" s="21"/>
-      <c r="HU44" s="21"/>
-      <c r="HV44" s="21"/>
-      <c r="HW44" s="21"/>
-      <c r="HX44" s="21"/>
-      <c r="HY44" s="21"/>
-      <c r="HZ44" s="21"/>
-      <c r="IA44" s="21"/>
-      <c r="IB44" s="21"/>
-      <c r="IC44" s="21"/>
-      <c r="ID44" s="21"/>
-      <c r="IE44" s="21"/>
-      <c r="IF44" s="21"/>
-      <c r="IG44" s="21"/>
-      <c r="IH44" s="21"/>
-      <c r="II44" s="21"/>
-      <c r="IJ44" s="21"/>
-      <c r="IK44" s="21"/>
-      <c r="IL44" s="21"/>
-      <c r="IM44" s="21"/>
-      <c r="IN44" s="21"/>
-      <c r="IO44" s="21"/>
-      <c r="IP44" s="21"/>
-      <c r="IQ44" s="21"/>
-      <c r="IR44" s="21"/>
-      <c r="IS44" s="21"/>
-    </row>
-    <row r="45" spans="1:253" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="73"/>
-      <c r="AH45" s="73"/>
-      <c r="AI45" s="89"/>
-      <c r="AJ45" s="89"/>
-      <c r="AK45" s="89"/>
-      <c r="AL45" s="89"/>
-      <c r="AM45" s="89"/>
-      <c r="AN45" s="89"/>
-      <c r="AO45" s="89"/>
-      <c r="AP45" s="89"/>
-      <c r="AQ45" s="89"/>
-      <c r="AR45" s="89"/>
-      <c r="AS45" s="89"/>
-      <c r="AT45" s="89"/>
-      <c r="AU45" s="89"/>
-      <c r="AV45" s="89"/>
-      <c r="AW45" s="89"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="89"/>
-      <c r="AZ45" s="89"/>
-      <c r="BA45" s="89"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="89"/>
-      <c r="BD45" s="89"/>
-      <c r="BE45" s="89"/>
-      <c r="BF45" s="89"/>
-      <c r="BG45" s="89"/>
-      <c r="BH45" s="89"/>
-      <c r="BI45" s="89"/>
-      <c r="BJ45" s="89"/>
-      <c r="BK45" s="89"/>
-      <c r="BL45" s="89"/>
-    </row>
-    <row r="46" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
-        <v>1</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="56">
-        <v>0</v>
-      </c>
-      <c r="E46" s="70">
-        <v>45286</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="48"/>
-      <c r="X46" s="48"/>
-      <c r="Y46" s="48"/>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="66"/>
-      <c r="AL46" s="66"/>
-      <c r="AM46" s="66"/>
-      <c r="AN46" s="66"/>
-      <c r="AO46" s="51"/>
-      <c r="AP46" s="51"/>
-      <c r="AQ46" s="51"/>
-      <c r="AR46" s="51"/>
-      <c r="AS46" s="51"/>
-      <c r="AT46" s="51"/>
-      <c r="AU46" s="51"/>
-      <c r="AV46" s="51"/>
-      <c r="AW46" s="51"/>
-      <c r="AX46" s="51"/>
-      <c r="AY46" s="51"/>
-      <c r="AZ46" s="51"/>
-      <c r="BA46" s="51"/>
-      <c r="BB46" s="51"/>
-      <c r="BC46" s="51"/>
-      <c r="BD46" s="51"/>
-      <c r="BE46" s="51"/>
-      <c r="BF46" s="51"/>
-      <c r="BG46" s="51"/>
-      <c r="BH46" s="51"/>
-      <c r="BI46" s="51"/>
-      <c r="BJ46" s="51"/>
-      <c r="BK46" s="51"/>
-      <c r="BL46" s="71"/>
-      <c r="BM46" s="47"/>
-      <c r="BN46" s="47"/>
-      <c r="BO46" s="47"/>
-      <c r="BP46" s="47"/>
-      <c r="BQ46" s="47"/>
-      <c r="BR46" s="47"/>
-      <c r="BS46" s="47"/>
-      <c r="BT46" s="47"/>
-      <c r="BU46" s="47"/>
-      <c r="BV46" s="47"/>
-      <c r="BW46" s="47"/>
-      <c r="BX46" s="47"/>
-      <c r="BY46" s="47"/>
-      <c r="BZ46" s="47"/>
-      <c r="CA46" s="47"/>
-      <c r="CB46" s="47"/>
-      <c r="CC46" s="47"/>
-      <c r="CD46" s="47"/>
-      <c r="CE46" s="47"/>
-      <c r="CF46" s="47"/>
-      <c r="CG46" s="47"/>
-      <c r="CH46" s="47"/>
-      <c r="CI46" s="47"/>
-      <c r="CJ46" s="47"/>
-      <c r="CK46" s="47"/>
-      <c r="CL46" s="47"/>
-      <c r="CM46" s="47"/>
-      <c r="CN46" s="47"/>
-      <c r="CO46" s="47"/>
-      <c r="CP46" s="47"/>
-      <c r="CQ46" s="47"/>
-      <c r="CR46" s="47"/>
-      <c r="CS46" s="47"/>
-      <c r="CT46" s="47"/>
-      <c r="CU46" s="47"/>
-      <c r="CV46" s="47"/>
-      <c r="CW46" s="47"/>
-      <c r="CX46" s="47"/>
-      <c r="CY46" s="47"/>
-      <c r="CZ46" s="47"/>
-      <c r="DA46" s="47"/>
-      <c r="DB46" s="47"/>
-      <c r="DC46" s="47"/>
-      <c r="DD46" s="47"/>
-      <c r="DE46" s="47"/>
-      <c r="DF46" s="47"/>
-      <c r="DG46" s="47"/>
-      <c r="DH46" s="47"/>
-      <c r="DI46" s="47"/>
-      <c r="DJ46" s="47"/>
-      <c r="DK46" s="47"/>
-      <c r="DL46" s="47"/>
-      <c r="DM46" s="47"/>
-      <c r="DN46" s="47"/>
-      <c r="DO46" s="47"/>
-      <c r="DP46" s="47"/>
-      <c r="DQ46" s="47"/>
-      <c r="DR46" s="47"/>
-      <c r="DS46" s="47"/>
-      <c r="DT46" s="47"/>
-      <c r="DU46" s="47"/>
-      <c r="DV46" s="47"/>
-      <c r="DW46" s="47"/>
-      <c r="DX46" s="47"/>
-      <c r="DY46" s="47"/>
-      <c r="DZ46" s="47"/>
-      <c r="EA46" s="47"/>
-      <c r="EB46" s="47"/>
-      <c r="EC46" s="47"/>
-      <c r="ED46" s="47"/>
-      <c r="EE46" s="47"/>
-      <c r="EF46" s="47"/>
-      <c r="EG46" s="47"/>
-      <c r="EH46" s="47"/>
-      <c r="EI46" s="47"/>
-      <c r="EJ46" s="47"/>
-      <c r="EK46" s="47"/>
-      <c r="EL46" s="47"/>
-      <c r="EM46" s="47"/>
-      <c r="EN46" s="47"/>
-      <c r="EO46" s="47"/>
-      <c r="EP46" s="47"/>
-      <c r="EQ46" s="47"/>
-      <c r="ER46" s="47"/>
-      <c r="ES46" s="47"/>
-      <c r="ET46" s="47"/>
-      <c r="EU46" s="47"/>
-      <c r="EV46" s="47"/>
-      <c r="EW46" s="47"/>
-      <c r="EX46" s="47"/>
-      <c r="EY46" s="47"/>
-      <c r="EZ46" s="47"/>
-      <c r="FA46" s="47"/>
-      <c r="FB46" s="47"/>
-      <c r="FC46" s="47"/>
-      <c r="FD46" s="47"/>
-      <c r="FE46" s="47"/>
-      <c r="FF46" s="47"/>
-      <c r="FG46" s="47"/>
-      <c r="FH46" s="47"/>
-      <c r="FI46" s="47"/>
-      <c r="FJ46" s="47"/>
-      <c r="FK46" s="47"/>
-      <c r="FL46" s="47"/>
-      <c r="FM46" s="47"/>
-      <c r="FN46" s="47"/>
-      <c r="FO46" s="47"/>
-      <c r="FP46" s="47"/>
-      <c r="FQ46" s="47"/>
-      <c r="FR46" s="47"/>
-      <c r="FS46" s="47"/>
-      <c r="FT46" s="47"/>
-      <c r="FU46" s="47"/>
-      <c r="FV46" s="47"/>
-      <c r="FW46" s="47"/>
-      <c r="FX46" s="47"/>
-      <c r="FY46" s="47"/>
-      <c r="FZ46" s="47"/>
-      <c r="GA46" s="47"/>
-      <c r="GB46" s="47"/>
-      <c r="GC46" s="47"/>
-      <c r="GD46" s="47"/>
-      <c r="GE46" s="47"/>
-      <c r="GF46" s="47"/>
-      <c r="GG46" s="47"/>
-      <c r="GH46" s="47"/>
-      <c r="GI46" s="47"/>
-      <c r="GJ46" s="47"/>
-      <c r="GK46" s="47"/>
-      <c r="GL46" s="47"/>
-      <c r="GM46" s="47"/>
-      <c r="GN46" s="47"/>
-      <c r="GO46" s="47"/>
-      <c r="GP46" s="47"/>
-      <c r="GQ46" s="47"/>
-      <c r="GR46" s="47"/>
-      <c r="GS46" s="47"/>
-      <c r="GT46" s="47"/>
-      <c r="GU46" s="47"/>
-      <c r="GV46" s="47"/>
-      <c r="GW46" s="47"/>
-      <c r="GX46" s="47"/>
-      <c r="GY46" s="47"/>
-      <c r="GZ46" s="47"/>
-      <c r="HA46" s="47"/>
-      <c r="HB46" s="47"/>
-      <c r="HC46" s="47"/>
-      <c r="HD46" s="47"/>
-      <c r="HE46" s="47"/>
-      <c r="HF46" s="47"/>
-      <c r="HG46" s="47"/>
-      <c r="HH46" s="47"/>
-      <c r="HI46" s="47"/>
-      <c r="HJ46" s="47"/>
-      <c r="HK46" s="47"/>
-      <c r="HL46" s="47"/>
-      <c r="HM46" s="47"/>
-      <c r="HN46" s="47"/>
-      <c r="HO46" s="47"/>
-      <c r="HP46" s="47"/>
-      <c r="HQ46" s="47"/>
-      <c r="HR46" s="47"/>
-      <c r="HS46" s="47"/>
-      <c r="HT46" s="47"/>
-      <c r="HU46" s="47"/>
-      <c r="HV46" s="47"/>
-      <c r="HW46" s="47"/>
-      <c r="HX46" s="47"/>
-      <c r="HY46" s="47"/>
-      <c r="HZ46" s="47"/>
-      <c r="IA46" s="47"/>
-      <c r="IB46" s="47"/>
-      <c r="IC46" s="47"/>
-      <c r="ID46" s="47"/>
-      <c r="IE46" s="47"/>
-      <c r="IF46" s="47"/>
-      <c r="IG46" s="47"/>
-      <c r="IH46" s="47"/>
-      <c r="II46" s="47"/>
-      <c r="IJ46" s="47"/>
-      <c r="IK46" s="47"/>
-      <c r="IL46" s="47"/>
-      <c r="IM46" s="47"/>
-      <c r="IN46" s="47"/>
-      <c r="IO46" s="47"/>
-      <c r="IP46" s="47"/>
-      <c r="IQ46" s="47"/>
-      <c r="IR46" s="47"/>
-      <c r="IS46" s="47"/>
-    </row>
-    <row r="47" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="43">
-        <v>45270</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="18"/>
-      <c r="AP47" s="18"/>
-      <c r="AQ47" s="18"/>
-      <c r="AR47" s="18"/>
-      <c r="AS47" s="18"/>
-      <c r="AT47" s="18"/>
-      <c r="AU47" s="18"/>
-      <c r="AV47" s="18"/>
-      <c r="AW47" s="18"/>
-      <c r="AX47" s="18"/>
-      <c r="AY47" s="18"/>
-      <c r="AZ47" s="18"/>
-      <c r="BA47" s="18"/>
-      <c r="BB47" s="18"/>
-      <c r="BC47" s="18"/>
-      <c r="BD47" s="18"/>
-      <c r="BE47" s="18"/>
-      <c r="BF47" s="18"/>
-      <c r="BG47" s="18"/>
-      <c r="BH47" s="18"/>
-      <c r="BI47" s="18"/>
-      <c r="BJ47" s="18"/>
-      <c r="BK47" s="18"/>
-      <c r="BL47" s="41"/>
-      <c r="BM47" s="1"/>
-      <c r="BN47" s="1"/>
-      <c r="BO47" s="1"/>
-      <c r="BP47" s="1"/>
-      <c r="BQ47" s="1"/>
-      <c r="BR47" s="1"/>
-      <c r="BS47" s="1"/>
-      <c r="BT47" s="1"/>
-      <c r="BU47" s="1"/>
-      <c r="BV47" s="1"/>
-      <c r="BW47" s="1"/>
-      <c r="BX47" s="1"/>
-      <c r="BY47" s="1"/>
-      <c r="BZ47" s="1"/>
-      <c r="CA47" s="1"/>
-      <c r="CB47" s="1"/>
-      <c r="CC47" s="1"/>
-      <c r="CD47" s="1"/>
-      <c r="CE47" s="1"/>
-      <c r="CF47" s="1"/>
-      <c r="CG47" s="1"/>
-      <c r="CH47" s="1"/>
-      <c r="CI47" s="1"/>
-      <c r="CJ47" s="1"/>
-      <c r="CK47" s="1"/>
-      <c r="CL47" s="1"/>
-      <c r="CM47" s="1"/>
-      <c r="CN47" s="1"/>
-      <c r="CO47" s="1"/>
-      <c r="CP47" s="1"/>
-      <c r="CQ47" s="1"/>
-      <c r="CR47" s="1"/>
-      <c r="CS47" s="1"/>
-      <c r="CT47" s="1"/>
-      <c r="CU47" s="1"/>
-      <c r="CV47" s="1"/>
-      <c r="CW47" s="1"/>
-      <c r="CX47" s="1"/>
-      <c r="CY47" s="1"/>
-      <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
-      <c r="DB47" s="1"/>
-      <c r="DC47" s="1"/>
-      <c r="DD47" s="1"/>
-      <c r="DE47" s="1"/>
-      <c r="DF47" s="1"/>
-      <c r="DG47" s="1"/>
-      <c r="DH47" s="1"/>
-      <c r="DI47" s="1"/>
-      <c r="DJ47" s="1"/>
-      <c r="DK47" s="1"/>
-      <c r="DL47" s="1"/>
-      <c r="DM47" s="1"/>
-      <c r="DN47" s="1"/>
-      <c r="DO47" s="1"/>
-      <c r="DP47" s="1"/>
-      <c r="DQ47" s="1"/>
-      <c r="DR47" s="1"/>
-      <c r="DS47" s="1"/>
-      <c r="DT47" s="1"/>
-      <c r="DU47" s="1"/>
-      <c r="DV47" s="1"/>
-      <c r="DW47" s="1"/>
-      <c r="DX47" s="1"/>
-      <c r="DY47" s="1"/>
-      <c r="DZ47" s="1"/>
-      <c r="EA47" s="1"/>
-      <c r="EB47" s="1"/>
-      <c r="EC47" s="1"/>
-      <c r="ED47" s="1"/>
-      <c r="EE47" s="1"/>
-      <c r="EF47" s="1"/>
-      <c r="EG47" s="1"/>
-      <c r="EH47" s="1"/>
-      <c r="EI47" s="1"/>
-      <c r="EJ47" s="1"/>
-      <c r="EK47" s="1"/>
-      <c r="EL47" s="1"/>
-      <c r="EM47" s="1"/>
-      <c r="EN47" s="1"/>
-      <c r="EO47" s="1"/>
-      <c r="EP47" s="1"/>
-      <c r="EQ47" s="1"/>
-      <c r="ER47" s="1"/>
-      <c r="ES47" s="1"/>
-      <c r="ET47" s="1"/>
-      <c r="EU47" s="1"/>
-      <c r="EV47" s="1"/>
-      <c r="EW47" s="1"/>
-      <c r="EX47" s="1"/>
-      <c r="EY47" s="1"/>
-      <c r="EZ47" s="1"/>
-      <c r="FA47" s="1"/>
-      <c r="FB47" s="1"/>
-      <c r="FC47" s="1"/>
-      <c r="FD47" s="1"/>
-      <c r="FE47" s="1"/>
-      <c r="FF47" s="1"/>
-      <c r="FG47" s="1"/>
-      <c r="FH47" s="1"/>
-      <c r="FI47" s="1"/>
-      <c r="FJ47" s="1"/>
-      <c r="FK47" s="1"/>
-      <c r="FL47" s="1"/>
-      <c r="FM47" s="1"/>
-      <c r="FN47" s="1"/>
-      <c r="FO47" s="1"/>
-      <c r="FP47" s="1"/>
-      <c r="FQ47" s="1"/>
-      <c r="FR47" s="1"/>
-      <c r="FS47" s="1"/>
-      <c r="FT47" s="1"/>
-      <c r="FU47" s="1"/>
-      <c r="FV47" s="1"/>
-      <c r="FW47" s="1"/>
-      <c r="FX47" s="1"/>
-      <c r="FY47" s="1"/>
-      <c r="FZ47" s="1"/>
-      <c r="GA47" s="1"/>
-      <c r="GB47" s="1"/>
-      <c r="GC47" s="1"/>
-      <c r="GD47" s="1"/>
-      <c r="GE47" s="1"/>
-      <c r="GF47" s="1"/>
-      <c r="GG47" s="1"/>
-      <c r="GH47" s="1"/>
-      <c r="GI47" s="1"/>
-      <c r="GJ47" s="1"/>
-      <c r="GK47" s="1"/>
-      <c r="GL47" s="1"/>
-      <c r="GM47" s="1"/>
-      <c r="GN47" s="1"/>
-      <c r="GO47" s="1"/>
-      <c r="GP47" s="1"/>
-      <c r="GQ47" s="1"/>
-      <c r="GR47" s="1"/>
-      <c r="GS47" s="1"/>
-      <c r="GT47" s="1"/>
-      <c r="GU47" s="1"/>
-      <c r="GV47" s="1"/>
-      <c r="GW47" s="1"/>
-      <c r="GX47" s="1"/>
-      <c r="GY47" s="1"/>
-      <c r="GZ47" s="1"/>
-      <c r="HA47" s="1"/>
-      <c r="HB47" s="1"/>
-      <c r="HC47" s="1"/>
-      <c r="HD47" s="1"/>
-      <c r="HE47" s="1"/>
-      <c r="HF47" s="1"/>
-      <c r="HG47" s="1"/>
-      <c r="HH47" s="1"/>
-      <c r="HI47" s="1"/>
-      <c r="HJ47" s="1"/>
-      <c r="HK47" s="1"/>
-      <c r="HL47" s="1"/>
-      <c r="HM47" s="1"/>
-      <c r="HN47" s="1"/>
-      <c r="HO47" s="1"/>
-      <c r="HP47" s="1"/>
-      <c r="HQ47" s="1"/>
-      <c r="HR47" s="1"/>
-      <c r="HS47" s="1"/>
-      <c r="HT47" s="1"/>
-      <c r="HU47" s="1"/>
-      <c r="HV47" s="1"/>
-      <c r="HW47" s="1"/>
-      <c r="HX47" s="1"/>
-      <c r="HY47" s="1"/>
-      <c r="HZ47" s="1"/>
-      <c r="IA47" s="1"/>
-      <c r="IB47" s="1"/>
-      <c r="IC47" s="1"/>
-      <c r="ID47" s="1"/>
-      <c r="IE47" s="1"/>
-      <c r="IF47" s="1"/>
-      <c r="IG47" s="1"/>
-      <c r="IH47" s="1"/>
-      <c r="II47" s="1"/>
-      <c r="IJ47" s="1"/>
-      <c r="IK47" s="1"/>
-      <c r="IL47" s="1"/>
-      <c r="IM47" s="1"/>
-      <c r="IN47" s="1"/>
-      <c r="IO47" s="1"/>
-      <c r="IP47" s="1"/>
-      <c r="IQ47" s="1"/>
-      <c r="IR47" s="1"/>
-      <c r="IS47" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="CI3:DM3"/>
+    <mergeCell ref="DN3:ER3"/>
+    <mergeCell ref="B29:BL29"/>
+    <mergeCell ref="AI38:BL38"/>
+    <mergeCell ref="B11:BL11"/>
+    <mergeCell ref="B25:BL25"/>
+    <mergeCell ref="BE3:CH3"/>
     <mergeCell ref="A1:AR1"/>
     <mergeCell ref="A2:AR2"/>
     <mergeCell ref="E3:E4"/>
@@ -13243,13 +11355,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:Y3"/>
     <mergeCell ref="Z3:BD3"/>
-    <mergeCell ref="CI3:DM3"/>
-    <mergeCell ref="DN3:ER3"/>
-    <mergeCell ref="B29:BL29"/>
-    <mergeCell ref="AI45:BL45"/>
-    <mergeCell ref="B11:BL11"/>
-    <mergeCell ref="B25:BL25"/>
-    <mergeCell ref="BE3:CH3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13259,15 +11364,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x010100B2104835603E494C8E73FA282078A2A1" ma:contentTypeVersion="3" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="8909ba6cd089f1cad09b5d19bbf1fb99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a2d2fc0-172c-493e-9700-481b0102245d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31284ce68694fe7d11028b04c62020b4" ns2:_="">
     <xsd:import namespace="2a2d2fc0-172c-493e-9700-481b0102245d"/>
@@ -13405,6 +11501,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13412,14 +11517,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAEF3D-215E-428B-AE72-4BFAC95A48D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B3975D8-E299-4F26-AE13-046589BA6C39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13437,6 +11534,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAEF3D-215E-428B-AE72-4BFAC95A48D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB288A8-B438-4DBD-A4D1-DB25AF880886}">
   <ds:schemaRefs>

--- a/Activity-Plan.xlsx
+++ b/Activity-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPL\Dokumentasi\RPL-Dokumentasi-Ideally\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6DCC4-14E2-4923-8D11-40C26D8A86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C433AFA1-FA5C-430E-A209-61989B2EB7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D50A8981-751F-424B-BBFF-9EDD7F9BB336}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Activity Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Activity Plan'!$AK$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Activity Plan'!$AK$63</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>ACTIVITY PLAN</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Pengerjaan</t>
   </si>
   <si>
-    <t>Katalog Produk dan Kategori Produk</t>
-  </si>
-  <si>
     <t>Informasi Rincian Produk</t>
   </si>
   <si>
@@ -230,12 +227,113 @@
   <si>
     <t>Beranda Marketplace</t>
   </si>
+  <si>
+    <t>Katalog Produk Brand Dedikasi Flora</t>
+  </si>
+  <si>
+    <t>Katalog Produk Berdasarkan Kategori</t>
+  </si>
+  <si>
+    <t>Informasi Rincian Produk Brand Dedikasi Flora</t>
+  </si>
+  <si>
+    <t>Katalog Produk Brand Batunesia</t>
+  </si>
+  <si>
+    <t>Informasi Rincian Produk Brand Batunesia</t>
+  </si>
+  <si>
+    <t>Katalog Produk Brand Everlas Things</t>
+  </si>
+  <si>
+    <t>Informasi Rincian Produk Brand Everlas Things</t>
+  </si>
+  <si>
+    <t>Katalog Produk Brand Agrigard</t>
+  </si>
+  <si>
+    <t>Informasi Rincian Produk Brand Agrigard</t>
+  </si>
+  <si>
+    <t>Katalog Produk Brand Shineage</t>
+  </si>
+  <si>
+    <t>Informasi Rincian Produk Shineage</t>
+  </si>
+  <si>
+    <t>Katalog Produk Brand Konkurito</t>
+  </si>
+  <si>
+    <t>Informasi Rincian Produk Konkurito</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keranjang (Kalkulasi Total dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ongkir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilihan Metode Pembayaran </t>
+  </si>
+  <si>
+    <t>Pembayaran Pesanan</t>
+  </si>
+  <si>
+    <t>Status Pesanan</t>
+  </si>
+  <si>
+    <t>Konfirmasi Pesanan Diterima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penilaian Produk </t>
+  </si>
+  <si>
+    <t>Masuk dan Daftar Akun</t>
+  </si>
+  <si>
+    <t>Profil Pelanggan</t>
+  </si>
+  <si>
+    <t>Perubahan Akun</t>
+  </si>
+  <si>
+    <t>Shadrina &amp; Revalina</t>
+  </si>
+  <si>
+    <t>Juan &amp; Shadrina</t>
+  </si>
+  <si>
+    <t>Teguh &amp; Juan</t>
+  </si>
+  <si>
+    <t>Revalina &amp; Shadrina</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +381,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -664,6 +770,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,25 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,13 +899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2275,19 +2382,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606ABAC-FB63-4E28-B28E-9A6A90AAA9B1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IS44"/>
+  <dimension ref="A1:IS69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BG32" sqref="BG32"/>
+      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="4" customWidth="1"/>
@@ -2296,270 +2403,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:253" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
     </row>
     <row r="2" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
     </row>
     <row r="3" spans="1:253" s="7" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="84" t="s">
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="87" t="s">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="92"/>
+      <c r="BC3" s="92"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="BF3" s="88"/>
-      <c r="BG3" s="88"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="88"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="88"/>
-      <c r="BP3" s="88"/>
-      <c r="BQ3" s="88"/>
-      <c r="BR3" s="88"/>
-      <c r="BS3" s="88"/>
-      <c r="BT3" s="88"/>
-      <c r="BU3" s="88"/>
-      <c r="BV3" s="88"/>
-      <c r="BW3" s="88"/>
-      <c r="BX3" s="88"/>
-      <c r="BY3" s="88"/>
-      <c r="BZ3" s="88"/>
-      <c r="CA3" s="88"/>
-      <c r="CB3" s="88"/>
-      <c r="CC3" s="88"/>
-      <c r="CD3" s="88"/>
-      <c r="CE3" s="88"/>
-      <c r="CF3" s="88"/>
-      <c r="CG3" s="88"/>
-      <c r="CH3" s="89"/>
-      <c r="CI3" s="87" t="s">
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="81"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="81"/>
+      <c r="BN3" s="81"/>
+      <c r="BO3" s="81"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
+      <c r="BW3" s="81"/>
+      <c r="BX3" s="81"/>
+      <c r="BY3" s="81"/>
+      <c r="BZ3" s="81"/>
+      <c r="CA3" s="81"/>
+      <c r="CB3" s="81"/>
+      <c r="CC3" s="81"/>
+      <c r="CD3" s="81"/>
+      <c r="CE3" s="81"/>
+      <c r="CF3" s="81"/>
+      <c r="CG3" s="81"/>
+      <c r="CH3" s="82"/>
+      <c r="CI3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="CJ3" s="88"/>
-      <c r="CK3" s="88"/>
-      <c r="CL3" s="88"/>
-      <c r="CM3" s="88"/>
-      <c r="CN3" s="88"/>
-      <c r="CO3" s="88"/>
-      <c r="CP3" s="88"/>
-      <c r="CQ3" s="88"/>
-      <c r="CR3" s="88"/>
-      <c r="CS3" s="88"/>
-      <c r="CT3" s="88"/>
-      <c r="CU3" s="88"/>
-      <c r="CV3" s="88"/>
-      <c r="CW3" s="88"/>
-      <c r="CX3" s="88"/>
-      <c r="CY3" s="88"/>
-      <c r="CZ3" s="88"/>
-      <c r="DA3" s="88"/>
-      <c r="DB3" s="88"/>
-      <c r="DC3" s="88"/>
-      <c r="DD3" s="88"/>
-      <c r="DE3" s="88"/>
-      <c r="DF3" s="88"/>
-      <c r="DG3" s="88"/>
-      <c r="DH3" s="88"/>
-      <c r="DI3" s="88"/>
-      <c r="DJ3" s="88"/>
-      <c r="DK3" s="88"/>
-      <c r="DL3" s="88"/>
-      <c r="DM3" s="89"/>
-      <c r="DN3" s="87" t="s">
+      <c r="CJ3" s="81"/>
+      <c r="CK3" s="81"/>
+      <c r="CL3" s="81"/>
+      <c r="CM3" s="81"/>
+      <c r="CN3" s="81"/>
+      <c r="CO3" s="81"/>
+      <c r="CP3" s="81"/>
+      <c r="CQ3" s="81"/>
+      <c r="CR3" s="81"/>
+      <c r="CS3" s="81"/>
+      <c r="CT3" s="81"/>
+      <c r="CU3" s="81"/>
+      <c r="CV3" s="81"/>
+      <c r="CW3" s="81"/>
+      <c r="CX3" s="81"/>
+      <c r="CY3" s="81"/>
+      <c r="CZ3" s="81"/>
+      <c r="DA3" s="81"/>
+      <c r="DB3" s="81"/>
+      <c r="DC3" s="81"/>
+      <c r="DD3" s="81"/>
+      <c r="DE3" s="81"/>
+      <c r="DF3" s="81"/>
+      <c r="DG3" s="81"/>
+      <c r="DH3" s="81"/>
+      <c r="DI3" s="81"/>
+      <c r="DJ3" s="81"/>
+      <c r="DK3" s="81"/>
+      <c r="DL3" s="81"/>
+      <c r="DM3" s="82"/>
+      <c r="DN3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="DO3" s="88"/>
-      <c r="DP3" s="88"/>
-      <c r="DQ3" s="88"/>
-      <c r="DR3" s="88"/>
-      <c r="DS3" s="88"/>
-      <c r="DT3" s="88"/>
-      <c r="DU3" s="88"/>
-      <c r="DV3" s="88"/>
-      <c r="DW3" s="88"/>
-      <c r="DX3" s="88"/>
-      <c r="DY3" s="88"/>
-      <c r="DZ3" s="88"/>
-      <c r="EA3" s="88"/>
-      <c r="EB3" s="88"/>
-      <c r="EC3" s="88"/>
-      <c r="ED3" s="88"/>
-      <c r="EE3" s="88"/>
-      <c r="EF3" s="88"/>
-      <c r="EG3" s="88"/>
-      <c r="EH3" s="88"/>
-      <c r="EI3" s="88"/>
-      <c r="EJ3" s="88"/>
-      <c r="EK3" s="88"/>
-      <c r="EL3" s="88"/>
-      <c r="EM3" s="88"/>
-      <c r="EN3" s="88"/>
-      <c r="EO3" s="88"/>
-      <c r="EP3" s="88"/>
-      <c r="EQ3" s="88"/>
-      <c r="ER3" s="89"/>
+      <c r="DO3" s="81"/>
+      <c r="DP3" s="81"/>
+      <c r="DQ3" s="81"/>
+      <c r="DR3" s="81"/>
+      <c r="DS3" s="81"/>
+      <c r="DT3" s="81"/>
+      <c r="DU3" s="81"/>
+      <c r="DV3" s="81"/>
+      <c r="DW3" s="81"/>
+      <c r="DX3" s="81"/>
+      <c r="DY3" s="81"/>
+      <c r="DZ3" s="81"/>
+      <c r="EA3" s="81"/>
+      <c r="EB3" s="81"/>
+      <c r="EC3" s="81"/>
+      <c r="ED3" s="81"/>
+      <c r="EE3" s="81"/>
+      <c r="EF3" s="81"/>
+      <c r="EG3" s="81"/>
+      <c r="EH3" s="81"/>
+      <c r="EI3" s="81"/>
+      <c r="EJ3" s="81"/>
+      <c r="EK3" s="81"/>
+      <c r="EL3" s="81"/>
+      <c r="EM3" s="81"/>
+      <c r="EN3" s="81"/>
+      <c r="EO3" s="81"/>
+      <c r="EP3" s="81"/>
+      <c r="EQ3" s="81"/>
+      <c r="ER3" s="82"/>
       <c r="ES3" s="39"/>
       <c r="ET3" s="39"/>
       <c r="EU3" s="39"/>
@@ -2667,11 +2774,11 @@
       <c r="IS3" s="39"/>
     </row>
     <row r="4" spans="1:253" s="7" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="81"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="41">
         <v>11</v>
       </c>
@@ -4143,71 +4250,71 @@
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="85"/>
+      <c r="BJ11" s="85"/>
+      <c r="BK11" s="85"/>
+      <c r="BL11" s="85"/>
     </row>
     <row r="12" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A12" s="51">
@@ -4744,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>15</v>
@@ -5539,7 +5646,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>21</v>
@@ -6388,7 +6495,7 @@
       <c r="AT20" s="21"/>
       <c r="AU20" s="21"/>
       <c r="AV20" s="21"/>
-      <c r="AW20" s="93"/>
+      <c r="AW20" s="79"/>
       <c r="AX20" s="75"/>
       <c r="AY20" s="75"/>
       <c r="AZ20" s="75"/>
@@ -7658,71 +7765,71 @@
       <c r="A25" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="90"/>
-      <c r="AM25" s="90"/>
-      <c r="AN25" s="90"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="90"/>
-      <c r="AT25" s="90"/>
-      <c r="AU25" s="90"/>
-      <c r="AV25" s="90"/>
-      <c r="AW25" s="90"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="90"/>
-      <c r="AZ25" s="90"/>
-      <c r="BA25" s="90"/>
-      <c r="BB25" s="90"/>
-      <c r="BC25" s="90"/>
-      <c r="BD25" s="90"/>
-      <c r="BE25" s="90"/>
-      <c r="BF25" s="90"/>
-      <c r="BG25" s="90"/>
-      <c r="BH25" s="90"/>
-      <c r="BI25" s="90"/>
-      <c r="BJ25" s="90"/>
-      <c r="BK25" s="90"/>
-      <c r="BL25" s="90"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="83"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="83"/>
+      <c r="BB25" s="83"/>
+      <c r="BC25" s="83"/>
+      <c r="BD25" s="83"/>
+      <c r="BE25" s="83"/>
+      <c r="BF25" s="83"/>
+      <c r="BG25" s="83"/>
+      <c r="BH25" s="83"/>
+      <c r="BI25" s="83"/>
+      <c r="BJ25" s="83"/>
+      <c r="BK25" s="83"/>
+      <c r="BL25" s="83"/>
     </row>
     <row r="26" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A26" s="57">
@@ -8533,87 +8640,87 @@
       <c r="A29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="90"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="90"/>
-      <c r="BD29" s="90"/>
-      <c r="BE29" s="90"/>
-      <c r="BF29" s="90"/>
-      <c r="BG29" s="90"/>
-      <c r="BH29" s="90"/>
-      <c r="BI29" s="90"/>
-      <c r="BJ29" s="90"/>
-      <c r="BK29" s="90"/>
-      <c r="BL29" s="90"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="83"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="83"/>
+      <c r="BB29" s="83"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="83"/>
+      <c r="BE29" s="83"/>
+      <c r="BF29" s="83"/>
+      <c r="BG29" s="83"/>
+      <c r="BH29" s="83"/>
+      <c r="BI29" s="83"/>
+      <c r="BJ29" s="83"/>
+      <c r="BK29" s="83"/>
+      <c r="BL29" s="83"/>
     </row>
     <row r="30" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A30" s="26">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="53">
         <v>0</v>
       </c>
       <c r="E30" s="47">
-        <v>45268</v>
+        <v>45238</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
@@ -8869,16 +8976,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D31" s="23">
         <v>0</v>
       </c>
-      <c r="E31" s="31">
-        <v>45268</v>
+      <c r="E31" s="47">
+        <v>45238</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -9133,8 +9240,8 @@
       <c r="A32" s="8">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
+      <c r="B32" s="94" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -9143,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="31">
-        <v>45268</v>
+        <v>45241</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -9398,17 +9505,17 @@
       <c r="A33" s="8">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
+      <c r="B33" s="94" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D33" s="23">
         <v>0</v>
       </c>
       <c r="E33" s="31">
-        <v>45268</v>
+        <v>45245</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -9663,17 +9770,17 @@
       <c r="A34" s="8">
         <v>5</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>50</v>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D34" s="23">
         <v>0</v>
       </c>
-      <c r="E34" s="31">
-        <v>45273</v>
+      <c r="E34" s="47">
+        <v>45238</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -9928,17 +10035,17 @@
       <c r="A35" s="8">
         <v>6</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>51</v>
+      <c r="B35" s="94" t="s">
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D35" s="23">
         <v>0</v>
       </c>
       <c r="E35" s="31">
-        <v>45273</v>
+        <v>45241</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -10193,17 +10300,17 @@
       <c r="A36" s="8">
         <v>7</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
+      <c r="B36" s="94" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D36" s="23">
         <v>0</v>
       </c>
       <c r="E36" s="31">
-        <v>45273</v>
+        <v>45245</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -10455,20 +10562,20 @@
       <c r="IS36" s="1"/>
     </row>
     <row r="37" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37" s="26">
         <v>8</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>53</v>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D37" s="23">
         <v>0</v>
       </c>
       <c r="E37" s="31">
-        <v>45273</v>
+        <v>45248</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -10498,37 +10605,37 @@
       <c r="AE37" s="18"/>
       <c r="AF37" s="18"/>
       <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="18"/>
-      <c r="AP37" s="18"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="18"/>
-      <c r="AS37" s="18"/>
-      <c r="AT37" s="18"/>
-      <c r="AU37" s="18"/>
-      <c r="AV37" s="18"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
-      <c r="AY37" s="18"/>
-      <c r="AZ37" s="18"/>
-      <c r="BA37" s="18"/>
-      <c r="BB37" s="18"/>
-      <c r="BC37" s="18"/>
-      <c r="BD37" s="18"/>
-      <c r="BE37" s="18"/>
-      <c r="BF37" s="18"/>
-      <c r="BG37" s="18"/>
-      <c r="BH37" s="18"/>
-      <c r="BI37" s="18"/>
-      <c r="BJ37" s="18"/>
-      <c r="BK37" s="18"/>
-      <c r="BL37" s="38"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="37"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
@@ -10719,356 +10826,551 @@
       <c r="IR37" s="1"/>
       <c r="IS37" s="1"/>
     </row>
-    <row r="38" spans="1:253" s="61" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="91"/>
-      <c r="AJ38" s="91"/>
-      <c r="AK38" s="91"/>
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="91"/>
-      <c r="AN38" s="91"/>
-      <c r="AO38" s="91"/>
-      <c r="AP38" s="91"/>
-      <c r="AQ38" s="91"/>
-      <c r="AR38" s="91"/>
-      <c r="AS38" s="91"/>
-      <c r="AT38" s="91"/>
-      <c r="AU38" s="91"/>
-      <c r="AV38" s="91"/>
-      <c r="AW38" s="91"/>
-      <c r="AX38" s="91"/>
-      <c r="AY38" s="91"/>
-      <c r="AZ38" s="91"/>
-      <c r="BA38" s="91"/>
-      <c r="BB38" s="91"/>
-      <c r="BC38" s="91"/>
-      <c r="BD38" s="91"/>
-      <c r="BE38" s="91"/>
-      <c r="BF38" s="91"/>
-      <c r="BG38" s="91"/>
-      <c r="BH38" s="91"/>
-      <c r="BI38" s="91"/>
-      <c r="BJ38" s="91"/>
-      <c r="BK38" s="91"/>
-      <c r="BL38" s="91"/>
+    <row r="38" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>9</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31">
+        <v>45252</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
+      <c r="DA38" s="1"/>
+      <c r="DB38" s="1"/>
+      <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
+      <c r="DE38" s="1"/>
+      <c r="DF38" s="1"/>
+      <c r="DG38" s="1"/>
+      <c r="DH38" s="1"/>
+      <c r="DI38" s="1"/>
+      <c r="DJ38" s="1"/>
+      <c r="DK38" s="1"/>
+      <c r="DL38" s="1"/>
+      <c r="DM38" s="1"/>
+      <c r="DN38" s="1"/>
+      <c r="DO38" s="1"/>
+      <c r="DP38" s="1"/>
+      <c r="DQ38" s="1"/>
+      <c r="DR38" s="1"/>
+      <c r="DS38" s="1"/>
+      <c r="DT38" s="1"/>
+      <c r="DU38" s="1"/>
+      <c r="DV38" s="1"/>
+      <c r="DW38" s="1"/>
+      <c r="DX38" s="1"/>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
+      <c r="EA38" s="1"/>
+      <c r="EB38" s="1"/>
+      <c r="EC38" s="1"/>
+      <c r="ED38" s="1"/>
+      <c r="EE38" s="1"/>
+      <c r="EF38" s="1"/>
+      <c r="EG38" s="1"/>
+      <c r="EH38" s="1"/>
+      <c r="EI38" s="1"/>
+      <c r="EJ38" s="1"/>
+      <c r="EK38" s="1"/>
+      <c r="EL38" s="1"/>
+      <c r="EM38" s="1"/>
+      <c r="EN38" s="1"/>
+      <c r="EO38" s="1"/>
+      <c r="EP38" s="1"/>
+      <c r="EQ38" s="1"/>
+      <c r="ER38" s="1"/>
+      <c r="ES38" s="1"/>
+      <c r="ET38" s="1"/>
+      <c r="EU38" s="1"/>
+      <c r="EV38" s="1"/>
+      <c r="EW38" s="1"/>
+      <c r="EX38" s="1"/>
+      <c r="EY38" s="1"/>
+      <c r="EZ38" s="1"/>
+      <c r="FA38" s="1"/>
+      <c r="FB38" s="1"/>
+      <c r="FC38" s="1"/>
+      <c r="FD38" s="1"/>
+      <c r="FE38" s="1"/>
+      <c r="FF38" s="1"/>
+      <c r="FG38" s="1"/>
+      <c r="FH38" s="1"/>
+      <c r="FI38" s="1"/>
+      <c r="FJ38" s="1"/>
+      <c r="FK38" s="1"/>
+      <c r="FL38" s="1"/>
+      <c r="FM38" s="1"/>
+      <c r="FN38" s="1"/>
+      <c r="FO38" s="1"/>
+      <c r="FP38" s="1"/>
+      <c r="FQ38" s="1"/>
+      <c r="FR38" s="1"/>
+      <c r="FS38" s="1"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" s="1"/>
+      <c r="FW38" s="1"/>
+      <c r="FX38" s="1"/>
+      <c r="FY38" s="1"/>
+      <c r="FZ38" s="1"/>
+      <c r="GA38" s="1"/>
+      <c r="GB38" s="1"/>
+      <c r="GC38" s="1"/>
+      <c r="GD38" s="1"/>
+      <c r="GE38" s="1"/>
+      <c r="GF38" s="1"/>
+      <c r="GG38" s="1"/>
+      <c r="GH38" s="1"/>
+      <c r="GI38" s="1"/>
+      <c r="GJ38" s="1"/>
+      <c r="GK38" s="1"/>
+      <c r="GL38" s="1"/>
+      <c r="GM38" s="1"/>
+      <c r="GN38" s="1"/>
+      <c r="GO38" s="1"/>
+      <c r="GP38" s="1"/>
+      <c r="GQ38" s="1"/>
+      <c r="GR38" s="1"/>
+      <c r="GS38" s="1"/>
+      <c r="GT38" s="1"/>
+      <c r="GU38" s="1"/>
+      <c r="GV38" s="1"/>
+      <c r="GW38" s="1"/>
+      <c r="GX38" s="1"/>
+      <c r="GY38" s="1"/>
+      <c r="GZ38" s="1"/>
+      <c r="HA38" s="1"/>
+      <c r="HB38" s="1"/>
+      <c r="HC38" s="1"/>
+      <c r="HD38" s="1"/>
+      <c r="HE38" s="1"/>
+      <c r="HF38" s="1"/>
+      <c r="HG38" s="1"/>
+      <c r="HH38" s="1"/>
+      <c r="HI38" s="1"/>
+      <c r="HJ38" s="1"/>
+      <c r="HK38" s="1"/>
+      <c r="HL38" s="1"/>
+      <c r="HM38" s="1"/>
+      <c r="HN38" s="1"/>
+      <c r="HO38" s="1"/>
+      <c r="HP38" s="1"/>
+      <c r="HQ38" s="1"/>
+      <c r="HR38" s="1"/>
+      <c r="HS38" s="1"/>
+      <c r="HT38" s="1"/>
+      <c r="HU38" s="1"/>
+      <c r="HV38" s="1"/>
+      <c r="HW38" s="1"/>
+      <c r="HX38" s="1"/>
+      <c r="HY38" s="1"/>
+      <c r="HZ38" s="1"/>
+      <c r="IA38" s="1"/>
+      <c r="IB38" s="1"/>
+      <c r="IC38" s="1"/>
+      <c r="ID38" s="1"/>
+      <c r="IE38" s="1"/>
+      <c r="IF38" s="1"/>
+      <c r="IG38" s="1"/>
+      <c r="IH38" s="1"/>
+      <c r="II38" s="1"/>
+      <c r="IJ38" s="1"/>
+      <c r="IK38" s="1"/>
+      <c r="IL38" s="1"/>
+      <c r="IM38" s="1"/>
+      <c r="IN38" s="1"/>
+      <c r="IO38" s="1"/>
+      <c r="IP38" s="1"/>
+      <c r="IQ38" s="1"/>
+      <c r="IR38" s="1"/>
+      <c r="IS38" s="1"/>
     </row>
     <row r="39" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A39" s="26">
-        <v>1</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="45" t="s">
+      <c r="A39" s="8">
+        <v>10</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="23">
         <v>0</v>
       </c>
-      <c r="E39" s="65">
-        <v>45286</v>
-      </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="63"/>
-      <c r="AH39" s="63"/>
-      <c r="AI39" s="63"/>
-      <c r="AJ39" s="63"/>
-      <c r="AK39" s="63"/>
-      <c r="AL39" s="63"/>
-      <c r="AM39" s="63"/>
-      <c r="AN39" s="63"/>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="48"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="48"/>
-      <c r="AZ39" s="48"/>
-      <c r="BA39" s="48"/>
-      <c r="BB39" s="48"/>
-      <c r="BC39" s="48"/>
-      <c r="BD39" s="48"/>
-      <c r="BE39" s="48"/>
-      <c r="BF39" s="48"/>
-      <c r="BG39" s="48"/>
-      <c r="BH39" s="48"/>
-      <c r="BI39" s="48"/>
-      <c r="BJ39" s="48"/>
-      <c r="BK39" s="48"/>
-      <c r="BL39" s="66"/>
-      <c r="BM39" s="44"/>
-      <c r="BN39" s="44"/>
-      <c r="BO39" s="44"/>
-      <c r="BP39" s="44"/>
-      <c r="BQ39" s="44"/>
-      <c r="BR39" s="44"/>
-      <c r="BS39" s="44"/>
-      <c r="BT39" s="44"/>
-      <c r="BU39" s="44"/>
-      <c r="BV39" s="44"/>
-      <c r="BW39" s="44"/>
-      <c r="BX39" s="44"/>
-      <c r="BY39" s="44"/>
-      <c r="BZ39" s="44"/>
-      <c r="CA39" s="44"/>
-      <c r="CB39" s="44"/>
-      <c r="CC39" s="44"/>
-      <c r="CD39" s="44"/>
-      <c r="CE39" s="44"/>
-      <c r="CF39" s="44"/>
-      <c r="CG39" s="44"/>
-      <c r="CH39" s="44"/>
-      <c r="CI39" s="44"/>
-      <c r="CJ39" s="44"/>
-      <c r="CK39" s="44"/>
-      <c r="CL39" s="44"/>
-      <c r="CM39" s="44"/>
-      <c r="CN39" s="44"/>
-      <c r="CO39" s="44"/>
-      <c r="CP39" s="44"/>
-      <c r="CQ39" s="44"/>
-      <c r="CR39" s="44"/>
-      <c r="CS39" s="44"/>
-      <c r="CT39" s="44"/>
-      <c r="CU39" s="44"/>
-      <c r="CV39" s="44"/>
-      <c r="CW39" s="44"/>
-      <c r="CX39" s="44"/>
-      <c r="CY39" s="44"/>
-      <c r="CZ39" s="44"/>
-      <c r="DA39" s="44"/>
-      <c r="DB39" s="44"/>
-      <c r="DC39" s="44"/>
-      <c r="DD39" s="44"/>
-      <c r="DE39" s="44"/>
-      <c r="DF39" s="44"/>
-      <c r="DG39" s="44"/>
-      <c r="DH39" s="44"/>
-      <c r="DI39" s="44"/>
-      <c r="DJ39" s="44"/>
-      <c r="DK39" s="44"/>
-      <c r="DL39" s="44"/>
-      <c r="DM39" s="44"/>
-      <c r="DN39" s="44"/>
-      <c r="DO39" s="44"/>
-      <c r="DP39" s="44"/>
-      <c r="DQ39" s="44"/>
-      <c r="DR39" s="44"/>
-      <c r="DS39" s="44"/>
-      <c r="DT39" s="44"/>
-      <c r="DU39" s="44"/>
-      <c r="DV39" s="44"/>
-      <c r="DW39" s="44"/>
-      <c r="DX39" s="44"/>
-      <c r="DY39" s="44"/>
-      <c r="DZ39" s="44"/>
-      <c r="EA39" s="44"/>
-      <c r="EB39" s="44"/>
-      <c r="EC39" s="44"/>
-      <c r="ED39" s="44"/>
-      <c r="EE39" s="44"/>
-      <c r="EF39" s="44"/>
-      <c r="EG39" s="44"/>
-      <c r="EH39" s="44"/>
-      <c r="EI39" s="44"/>
-      <c r="EJ39" s="44"/>
-      <c r="EK39" s="44"/>
-      <c r="EL39" s="44"/>
-      <c r="EM39" s="44"/>
-      <c r="EN39" s="44"/>
-      <c r="EO39" s="44"/>
-      <c r="EP39" s="44"/>
-      <c r="EQ39" s="44"/>
-      <c r="ER39" s="44"/>
-      <c r="ES39" s="44"/>
-      <c r="ET39" s="44"/>
-      <c r="EU39" s="44"/>
-      <c r="EV39" s="44"/>
-      <c r="EW39" s="44"/>
-      <c r="EX39" s="44"/>
-      <c r="EY39" s="44"/>
-      <c r="EZ39" s="44"/>
-      <c r="FA39" s="44"/>
-      <c r="FB39" s="44"/>
-      <c r="FC39" s="44"/>
-      <c r="FD39" s="44"/>
-      <c r="FE39" s="44"/>
-      <c r="FF39" s="44"/>
-      <c r="FG39" s="44"/>
-      <c r="FH39" s="44"/>
-      <c r="FI39" s="44"/>
-      <c r="FJ39" s="44"/>
-      <c r="FK39" s="44"/>
-      <c r="FL39" s="44"/>
-      <c r="FM39" s="44"/>
-      <c r="FN39" s="44"/>
-      <c r="FO39" s="44"/>
-      <c r="FP39" s="44"/>
-      <c r="FQ39" s="44"/>
-      <c r="FR39" s="44"/>
-      <c r="FS39" s="44"/>
-      <c r="FT39" s="44"/>
-      <c r="FU39" s="44"/>
-      <c r="FV39" s="44"/>
-      <c r="FW39" s="44"/>
-      <c r="FX39" s="44"/>
-      <c r="FY39" s="44"/>
-      <c r="FZ39" s="44"/>
-      <c r="GA39" s="44"/>
-      <c r="GB39" s="44"/>
-      <c r="GC39" s="44"/>
-      <c r="GD39" s="44"/>
-      <c r="GE39" s="44"/>
-      <c r="GF39" s="44"/>
-      <c r="GG39" s="44"/>
-      <c r="GH39" s="44"/>
-      <c r="GI39" s="44"/>
-      <c r="GJ39" s="44"/>
-      <c r="GK39" s="44"/>
-      <c r="GL39" s="44"/>
-      <c r="GM39" s="44"/>
-      <c r="GN39" s="44"/>
-      <c r="GO39" s="44"/>
-      <c r="GP39" s="44"/>
-      <c r="GQ39" s="44"/>
-      <c r="GR39" s="44"/>
-      <c r="GS39" s="44"/>
-      <c r="GT39" s="44"/>
-      <c r="GU39" s="44"/>
-      <c r="GV39" s="44"/>
-      <c r="GW39" s="44"/>
-      <c r="GX39" s="44"/>
-      <c r="GY39" s="44"/>
-      <c r="GZ39" s="44"/>
-      <c r="HA39" s="44"/>
-      <c r="HB39" s="44"/>
-      <c r="HC39" s="44"/>
-      <c r="HD39" s="44"/>
-      <c r="HE39" s="44"/>
-      <c r="HF39" s="44"/>
-      <c r="HG39" s="44"/>
-      <c r="HH39" s="44"/>
-      <c r="HI39" s="44"/>
-      <c r="HJ39" s="44"/>
-      <c r="HK39" s="44"/>
-      <c r="HL39" s="44"/>
-      <c r="HM39" s="44"/>
-      <c r="HN39" s="44"/>
-      <c r="HO39" s="44"/>
-      <c r="HP39" s="44"/>
-      <c r="HQ39" s="44"/>
-      <c r="HR39" s="44"/>
-      <c r="HS39" s="44"/>
-      <c r="HT39" s="44"/>
-      <c r="HU39" s="44"/>
-      <c r="HV39" s="44"/>
-      <c r="HW39" s="44"/>
-      <c r="HX39" s="44"/>
-      <c r="HY39" s="44"/>
-      <c r="HZ39" s="44"/>
-      <c r="IA39" s="44"/>
-      <c r="IB39" s="44"/>
-      <c r="IC39" s="44"/>
-      <c r="ID39" s="44"/>
-      <c r="IE39" s="44"/>
-      <c r="IF39" s="44"/>
-      <c r="IG39" s="44"/>
-      <c r="IH39" s="44"/>
-      <c r="II39" s="44"/>
-      <c r="IJ39" s="44"/>
-      <c r="IK39" s="44"/>
-      <c r="IL39" s="44"/>
-      <c r="IM39" s="44"/>
-      <c r="IN39" s="44"/>
-      <c r="IO39" s="44"/>
-      <c r="IP39" s="44"/>
-      <c r="IQ39" s="44"/>
-      <c r="IR39" s="44"/>
-      <c r="IS39" s="44"/>
+      <c r="E39" s="31">
+        <v>45255</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="37"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="1"/>
+      <c r="DB39" s="1"/>
+      <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
+      <c r="DE39" s="1"/>
+      <c r="DF39" s="1"/>
+      <c r="DG39" s="1"/>
+      <c r="DH39" s="1"/>
+      <c r="DI39" s="1"/>
+      <c r="DJ39" s="1"/>
+      <c r="DK39" s="1"/>
+      <c r="DL39" s="1"/>
+      <c r="DM39" s="1"/>
+      <c r="DN39" s="1"/>
+      <c r="DO39" s="1"/>
+      <c r="DP39" s="1"/>
+      <c r="DQ39" s="1"/>
+      <c r="DR39" s="1"/>
+      <c r="DS39" s="1"/>
+      <c r="DT39" s="1"/>
+      <c r="DU39" s="1"/>
+      <c r="DV39" s="1"/>
+      <c r="DW39" s="1"/>
+      <c r="DX39" s="1"/>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
+      <c r="EA39" s="1"/>
+      <c r="EB39" s="1"/>
+      <c r="EC39" s="1"/>
+      <c r="ED39" s="1"/>
+      <c r="EE39" s="1"/>
+      <c r="EF39" s="1"/>
+      <c r="EG39" s="1"/>
+      <c r="EH39" s="1"/>
+      <c r="EI39" s="1"/>
+      <c r="EJ39" s="1"/>
+      <c r="EK39" s="1"/>
+      <c r="EL39" s="1"/>
+      <c r="EM39" s="1"/>
+      <c r="EN39" s="1"/>
+      <c r="EO39" s="1"/>
+      <c r="EP39" s="1"/>
+      <c r="EQ39" s="1"/>
+      <c r="ER39" s="1"/>
+      <c r="ES39" s="1"/>
+      <c r="ET39" s="1"/>
+      <c r="EU39" s="1"/>
+      <c r="EV39" s="1"/>
+      <c r="EW39" s="1"/>
+      <c r="EX39" s="1"/>
+      <c r="EY39" s="1"/>
+      <c r="EZ39" s="1"/>
+      <c r="FA39" s="1"/>
+      <c r="FB39" s="1"/>
+      <c r="FC39" s="1"/>
+      <c r="FD39" s="1"/>
+      <c r="FE39" s="1"/>
+      <c r="FF39" s="1"/>
+      <c r="FG39" s="1"/>
+      <c r="FH39" s="1"/>
+      <c r="FI39" s="1"/>
+      <c r="FJ39" s="1"/>
+      <c r="FK39" s="1"/>
+      <c r="FL39" s="1"/>
+      <c r="FM39" s="1"/>
+      <c r="FN39" s="1"/>
+      <c r="FO39" s="1"/>
+      <c r="FP39" s="1"/>
+      <c r="FQ39" s="1"/>
+      <c r="FR39" s="1"/>
+      <c r="FS39" s="1"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" s="1"/>
+      <c r="FW39" s="1"/>
+      <c r="FX39" s="1"/>
+      <c r="FY39" s="1"/>
+      <c r="FZ39" s="1"/>
+      <c r="GA39" s="1"/>
+      <c r="GB39" s="1"/>
+      <c r="GC39" s="1"/>
+      <c r="GD39" s="1"/>
+      <c r="GE39" s="1"/>
+      <c r="GF39" s="1"/>
+      <c r="GG39" s="1"/>
+      <c r="GH39" s="1"/>
+      <c r="GI39" s="1"/>
+      <c r="GJ39" s="1"/>
+      <c r="GK39" s="1"/>
+      <c r="GL39" s="1"/>
+      <c r="GM39" s="1"/>
+      <c r="GN39" s="1"/>
+      <c r="GO39" s="1"/>
+      <c r="GP39" s="1"/>
+      <c r="GQ39" s="1"/>
+      <c r="GR39" s="1"/>
+      <c r="GS39" s="1"/>
+      <c r="GT39" s="1"/>
+      <c r="GU39" s="1"/>
+      <c r="GV39" s="1"/>
+      <c r="GW39" s="1"/>
+      <c r="GX39" s="1"/>
+      <c r="GY39" s="1"/>
+      <c r="GZ39" s="1"/>
+      <c r="HA39" s="1"/>
+      <c r="HB39" s="1"/>
+      <c r="HC39" s="1"/>
+      <c r="HD39" s="1"/>
+      <c r="HE39" s="1"/>
+      <c r="HF39" s="1"/>
+      <c r="HG39" s="1"/>
+      <c r="HH39" s="1"/>
+      <c r="HI39" s="1"/>
+      <c r="HJ39" s="1"/>
+      <c r="HK39" s="1"/>
+      <c r="HL39" s="1"/>
+      <c r="HM39" s="1"/>
+      <c r="HN39" s="1"/>
+      <c r="HO39" s="1"/>
+      <c r="HP39" s="1"/>
+      <c r="HQ39" s="1"/>
+      <c r="HR39" s="1"/>
+      <c r="HS39" s="1"/>
+      <c r="HT39" s="1"/>
+      <c r="HU39" s="1"/>
+      <c r="HV39" s="1"/>
+      <c r="HW39" s="1"/>
+      <c r="HX39" s="1"/>
+      <c r="HY39" s="1"/>
+      <c r="HZ39" s="1"/>
+      <c r="IA39" s="1"/>
+      <c r="IB39" s="1"/>
+      <c r="IC39" s="1"/>
+      <c r="ID39" s="1"/>
+      <c r="IE39" s="1"/>
+      <c r="IF39" s="1"/>
+      <c r="IG39" s="1"/>
+      <c r="IH39" s="1"/>
+      <c r="II39" s="1"/>
+      <c r="IJ39" s="1"/>
+      <c r="IK39" s="1"/>
+      <c r="IL39" s="1"/>
+      <c r="IM39" s="1"/>
+      <c r="IN39" s="1"/>
+      <c r="IO39" s="1"/>
+      <c r="IP39" s="1"/>
+      <c r="IQ39" s="1"/>
+      <c r="IR39" s="1"/>
+      <c r="IS39" s="1"/>
     </row>
     <row r="40" spans="1:253" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6">
+        <v>44</v>
+      </c>
+      <c r="D40" s="23">
         <v>0</v>
       </c>
-      <c r="E40" s="40">
-        <v>45270</v>
+      <c r="E40" s="31">
+        <v>45248</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -11076,59 +11378,59 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="11"/>
-      <c r="AM40" s="11"/>
-      <c r="AN40" s="11"/>
-      <c r="AO40" s="18"/>
-      <c r="AP40" s="18"/>
-      <c r="AQ40" s="18"/>
-      <c r="AR40" s="18"/>
-      <c r="AS40" s="18"/>
-      <c r="AT40" s="18"/>
-      <c r="AU40" s="18"/>
-      <c r="AV40" s="18"/>
-      <c r="AW40" s="18"/>
-      <c r="AX40" s="18"/>
-      <c r="AY40" s="18"/>
-      <c r="AZ40" s="18"/>
-      <c r="BA40" s="18"/>
-      <c r="BB40" s="18"/>
-      <c r="BC40" s="18"/>
-      <c r="BD40" s="18"/>
-      <c r="BE40" s="18"/>
-      <c r="BF40" s="18"/>
-      <c r="BG40" s="18"/>
-      <c r="BH40" s="18"/>
-      <c r="BI40" s="18"/>
-      <c r="BJ40" s="18"/>
-      <c r="BK40" s="18"/>
-      <c r="BL40" s="38"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="37"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
@@ -11319,33 +11621,5159 @@
       <c r="IR40" s="1"/>
       <c r="IS40" s="1"/>
     </row>
+    <row r="41" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>12</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="23">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31">
+        <v>45252</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="37"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="1"/>
+      <c r="DB41" s="1"/>
+      <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
+      <c r="DE41" s="1"/>
+      <c r="DF41" s="1"/>
+      <c r="DG41" s="1"/>
+      <c r="DH41" s="1"/>
+      <c r="DI41" s="1"/>
+      <c r="DJ41" s="1"/>
+      <c r="DK41" s="1"/>
+      <c r="DL41" s="1"/>
+      <c r="DM41" s="1"/>
+      <c r="DN41" s="1"/>
+      <c r="DO41" s="1"/>
+      <c r="DP41" s="1"/>
+      <c r="DQ41" s="1"/>
+      <c r="DR41" s="1"/>
+      <c r="DS41" s="1"/>
+      <c r="DT41" s="1"/>
+      <c r="DU41" s="1"/>
+      <c r="DV41" s="1"/>
+      <c r="DW41" s="1"/>
+      <c r="DX41" s="1"/>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
+      <c r="EA41" s="1"/>
+      <c r="EB41" s="1"/>
+      <c r="EC41" s="1"/>
+      <c r="ED41" s="1"/>
+      <c r="EE41" s="1"/>
+      <c r="EF41" s="1"/>
+      <c r="EG41" s="1"/>
+      <c r="EH41" s="1"/>
+      <c r="EI41" s="1"/>
+      <c r="EJ41" s="1"/>
+      <c r="EK41" s="1"/>
+      <c r="EL41" s="1"/>
+      <c r="EM41" s="1"/>
+      <c r="EN41" s="1"/>
+      <c r="EO41" s="1"/>
+      <c r="EP41" s="1"/>
+      <c r="EQ41" s="1"/>
+      <c r="ER41" s="1"/>
+      <c r="ES41" s="1"/>
+      <c r="ET41" s="1"/>
+      <c r="EU41" s="1"/>
+      <c r="EV41" s="1"/>
+      <c r="EW41" s="1"/>
+      <c r="EX41" s="1"/>
+      <c r="EY41" s="1"/>
+      <c r="EZ41" s="1"/>
+      <c r="FA41" s="1"/>
+      <c r="FB41" s="1"/>
+      <c r="FC41" s="1"/>
+      <c r="FD41" s="1"/>
+      <c r="FE41" s="1"/>
+      <c r="FF41" s="1"/>
+      <c r="FG41" s="1"/>
+      <c r="FH41" s="1"/>
+      <c r="FI41" s="1"/>
+      <c r="FJ41" s="1"/>
+      <c r="FK41" s="1"/>
+      <c r="FL41" s="1"/>
+      <c r="FM41" s="1"/>
+      <c r="FN41" s="1"/>
+      <c r="FO41" s="1"/>
+      <c r="FP41" s="1"/>
+      <c r="FQ41" s="1"/>
+      <c r="FR41" s="1"/>
+      <c r="FS41" s="1"/>
+      <c r="FT41" s="1"/>
+      <c r="FU41" s="1"/>
+      <c r="FV41" s="1"/>
+      <c r="FW41" s="1"/>
+      <c r="FX41" s="1"/>
+      <c r="FY41" s="1"/>
+      <c r="FZ41" s="1"/>
+      <c r="GA41" s="1"/>
+      <c r="GB41" s="1"/>
+      <c r="GC41" s="1"/>
+      <c r="GD41" s="1"/>
+      <c r="GE41" s="1"/>
+      <c r="GF41" s="1"/>
+      <c r="GG41" s="1"/>
+      <c r="GH41" s="1"/>
+      <c r="GI41" s="1"/>
+      <c r="GJ41" s="1"/>
+      <c r="GK41" s="1"/>
+      <c r="GL41" s="1"/>
+      <c r="GM41" s="1"/>
+      <c r="GN41" s="1"/>
+      <c r="GO41" s="1"/>
+      <c r="GP41" s="1"/>
+      <c r="GQ41" s="1"/>
+      <c r="GR41" s="1"/>
+      <c r="GS41" s="1"/>
+      <c r="GT41" s="1"/>
+      <c r="GU41" s="1"/>
+      <c r="GV41" s="1"/>
+      <c r="GW41" s="1"/>
+      <c r="GX41" s="1"/>
+      <c r="GY41" s="1"/>
+      <c r="GZ41" s="1"/>
+      <c r="HA41" s="1"/>
+      <c r="HB41" s="1"/>
+      <c r="HC41" s="1"/>
+      <c r="HD41" s="1"/>
+      <c r="HE41" s="1"/>
+      <c r="HF41" s="1"/>
+      <c r="HG41" s="1"/>
+      <c r="HH41" s="1"/>
+      <c r="HI41" s="1"/>
+      <c r="HJ41" s="1"/>
+      <c r="HK41" s="1"/>
+      <c r="HL41" s="1"/>
+      <c r="HM41" s="1"/>
+      <c r="HN41" s="1"/>
+      <c r="HO41" s="1"/>
+      <c r="HP41" s="1"/>
+      <c r="HQ41" s="1"/>
+      <c r="HR41" s="1"/>
+      <c r="HS41" s="1"/>
+      <c r="HT41" s="1"/>
+      <c r="HU41" s="1"/>
+      <c r="HV41" s="1"/>
+      <c r="HW41" s="1"/>
+      <c r="HX41" s="1"/>
+      <c r="HY41" s="1"/>
+      <c r="HZ41" s="1"/>
+      <c r="IA41" s="1"/>
+      <c r="IB41" s="1"/>
+      <c r="IC41" s="1"/>
+      <c r="ID41" s="1"/>
+      <c r="IE41" s="1"/>
+      <c r="IF41" s="1"/>
+      <c r="IG41" s="1"/>
+      <c r="IH41" s="1"/>
+      <c r="II41" s="1"/>
+      <c r="IJ41" s="1"/>
+      <c r="IK41" s="1"/>
+      <c r="IL41" s="1"/>
+      <c r="IM41" s="1"/>
+      <c r="IN41" s="1"/>
+      <c r="IO41" s="1"/>
+      <c r="IP41" s="1"/>
+      <c r="IQ41" s="1"/>
+      <c r="IR41" s="1"/>
+      <c r="IS41" s="1"/>
+    </row>
     <row r="42" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="8">
+        <v>13</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+      <c r="E42" s="31">
+        <v>45255</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="37"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
+      <c r="CZ42" s="1"/>
+      <c r="DA42" s="1"/>
+      <c r="DB42" s="1"/>
+      <c r="DC42" s="1"/>
+      <c r="DD42" s="1"/>
+      <c r="DE42" s="1"/>
+      <c r="DF42" s="1"/>
+      <c r="DG42" s="1"/>
+      <c r="DH42" s="1"/>
+      <c r="DI42" s="1"/>
+      <c r="DJ42" s="1"/>
+      <c r="DK42" s="1"/>
+      <c r="DL42" s="1"/>
+      <c r="DM42" s="1"/>
+      <c r="DN42" s="1"/>
+      <c r="DO42" s="1"/>
+      <c r="DP42" s="1"/>
+      <c r="DQ42" s="1"/>
+      <c r="DR42" s="1"/>
+      <c r="DS42" s="1"/>
+      <c r="DT42" s="1"/>
+      <c r="DU42" s="1"/>
+      <c r="DV42" s="1"/>
+      <c r="DW42" s="1"/>
+      <c r="DX42" s="1"/>
+      <c r="DY42" s="1"/>
+      <c r="DZ42" s="1"/>
+      <c r="EA42" s="1"/>
+      <c r="EB42" s="1"/>
+      <c r="EC42" s="1"/>
+      <c r="ED42" s="1"/>
+      <c r="EE42" s="1"/>
+      <c r="EF42" s="1"/>
+      <c r="EG42" s="1"/>
+      <c r="EH42" s="1"/>
+      <c r="EI42" s="1"/>
+      <c r="EJ42" s="1"/>
+      <c r="EK42" s="1"/>
+      <c r="EL42" s="1"/>
+      <c r="EM42" s="1"/>
+      <c r="EN42" s="1"/>
+      <c r="EO42" s="1"/>
+      <c r="EP42" s="1"/>
+      <c r="EQ42" s="1"/>
+      <c r="ER42" s="1"/>
+      <c r="ES42" s="1"/>
+      <c r="ET42" s="1"/>
+      <c r="EU42" s="1"/>
+      <c r="EV42" s="1"/>
+      <c r="EW42" s="1"/>
+      <c r="EX42" s="1"/>
+      <c r="EY42" s="1"/>
+      <c r="EZ42" s="1"/>
+      <c r="FA42" s="1"/>
+      <c r="FB42" s="1"/>
+      <c r="FC42" s="1"/>
+      <c r="FD42" s="1"/>
+      <c r="FE42" s="1"/>
+      <c r="FF42" s="1"/>
+      <c r="FG42" s="1"/>
+      <c r="FH42" s="1"/>
+      <c r="FI42" s="1"/>
+      <c r="FJ42" s="1"/>
+      <c r="FK42" s="1"/>
+      <c r="FL42" s="1"/>
+      <c r="FM42" s="1"/>
+      <c r="FN42" s="1"/>
+      <c r="FO42" s="1"/>
+      <c r="FP42" s="1"/>
+      <c r="FQ42" s="1"/>
+      <c r="FR42" s="1"/>
+      <c r="FS42" s="1"/>
+      <c r="FT42" s="1"/>
+      <c r="FU42" s="1"/>
+      <c r="FV42" s="1"/>
+      <c r="FW42" s="1"/>
+      <c r="FX42" s="1"/>
+      <c r="FY42" s="1"/>
+      <c r="FZ42" s="1"/>
+      <c r="GA42" s="1"/>
+      <c r="GB42" s="1"/>
+      <c r="GC42" s="1"/>
+      <c r="GD42" s="1"/>
+      <c r="GE42" s="1"/>
+      <c r="GF42" s="1"/>
+      <c r="GG42" s="1"/>
+      <c r="GH42" s="1"/>
+      <c r="GI42" s="1"/>
+      <c r="GJ42" s="1"/>
+      <c r="GK42" s="1"/>
+      <c r="GL42" s="1"/>
+      <c r="GM42" s="1"/>
+      <c r="GN42" s="1"/>
+      <c r="GO42" s="1"/>
+      <c r="GP42" s="1"/>
+      <c r="GQ42" s="1"/>
+      <c r="GR42" s="1"/>
+      <c r="GS42" s="1"/>
+      <c r="GT42" s="1"/>
+      <c r="GU42" s="1"/>
+      <c r="GV42" s="1"/>
+      <c r="GW42" s="1"/>
+      <c r="GX42" s="1"/>
+      <c r="GY42" s="1"/>
+      <c r="GZ42" s="1"/>
+      <c r="HA42" s="1"/>
+      <c r="HB42" s="1"/>
+      <c r="HC42" s="1"/>
+      <c r="HD42" s="1"/>
+      <c r="HE42" s="1"/>
+      <c r="HF42" s="1"/>
+      <c r="HG42" s="1"/>
+      <c r="HH42" s="1"/>
+      <c r="HI42" s="1"/>
+      <c r="HJ42" s="1"/>
+      <c r="HK42" s="1"/>
+      <c r="HL42" s="1"/>
+      <c r="HM42" s="1"/>
+      <c r="HN42" s="1"/>
+      <c r="HO42" s="1"/>
+      <c r="HP42" s="1"/>
+      <c r="HQ42" s="1"/>
+      <c r="HR42" s="1"/>
+      <c r="HS42" s="1"/>
+      <c r="HT42" s="1"/>
+      <c r="HU42" s="1"/>
+      <c r="HV42" s="1"/>
+      <c r="HW42" s="1"/>
+      <c r="HX42" s="1"/>
+      <c r="HY42" s="1"/>
+      <c r="HZ42" s="1"/>
+      <c r="IA42" s="1"/>
+      <c r="IB42" s="1"/>
+      <c r="IC42" s="1"/>
+      <c r="ID42" s="1"/>
+      <c r="IE42" s="1"/>
+      <c r="IF42" s="1"/>
+      <c r="IG42" s="1"/>
+      <c r="IH42" s="1"/>
+      <c r="II42" s="1"/>
+      <c r="IJ42" s="1"/>
+      <c r="IK42" s="1"/>
+      <c r="IL42" s="1"/>
+      <c r="IM42" s="1"/>
+      <c r="IN42" s="1"/>
+      <c r="IO42" s="1"/>
+      <c r="IP42" s="1"/>
+      <c r="IQ42" s="1"/>
+      <c r="IR42" s="1"/>
+      <c r="IS42" s="1"/>
     </row>
     <row r="43" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A43" s="8">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="23">
+        <v>0</v>
+      </c>
+      <c r="E43" s="31">
+        <v>45259</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="37"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
+      <c r="CW43" s="1"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="1"/>
+      <c r="CZ43" s="1"/>
+      <c r="DA43" s="1"/>
+      <c r="DB43" s="1"/>
+      <c r="DC43" s="1"/>
+      <c r="DD43" s="1"/>
+      <c r="DE43" s="1"/>
+      <c r="DF43" s="1"/>
+      <c r="DG43" s="1"/>
+      <c r="DH43" s="1"/>
+      <c r="DI43" s="1"/>
+      <c r="DJ43" s="1"/>
+      <c r="DK43" s="1"/>
+      <c r="DL43" s="1"/>
+      <c r="DM43" s="1"/>
+      <c r="DN43" s="1"/>
+      <c r="DO43" s="1"/>
+      <c r="DP43" s="1"/>
+      <c r="DQ43" s="1"/>
+      <c r="DR43" s="1"/>
+      <c r="DS43" s="1"/>
+      <c r="DT43" s="1"/>
+      <c r="DU43" s="1"/>
+      <c r="DV43" s="1"/>
+      <c r="DW43" s="1"/>
+      <c r="DX43" s="1"/>
+      <c r="DY43" s="1"/>
+      <c r="DZ43" s="1"/>
+      <c r="EA43" s="1"/>
+      <c r="EB43" s="1"/>
+      <c r="EC43" s="1"/>
+      <c r="ED43" s="1"/>
+      <c r="EE43" s="1"/>
+      <c r="EF43" s="1"/>
+      <c r="EG43" s="1"/>
+      <c r="EH43" s="1"/>
+      <c r="EI43" s="1"/>
+      <c r="EJ43" s="1"/>
+      <c r="EK43" s="1"/>
+      <c r="EL43" s="1"/>
+      <c r="EM43" s="1"/>
+      <c r="EN43" s="1"/>
+      <c r="EO43" s="1"/>
+      <c r="EP43" s="1"/>
+      <c r="EQ43" s="1"/>
+      <c r="ER43" s="1"/>
+      <c r="ES43" s="1"/>
+      <c r="ET43" s="1"/>
+      <c r="EU43" s="1"/>
+      <c r="EV43" s="1"/>
+      <c r="EW43" s="1"/>
+      <c r="EX43" s="1"/>
+      <c r="EY43" s="1"/>
+      <c r="EZ43" s="1"/>
+      <c r="FA43" s="1"/>
+      <c r="FB43" s="1"/>
+      <c r="FC43" s="1"/>
+      <c r="FD43" s="1"/>
+      <c r="FE43" s="1"/>
+      <c r="FF43" s="1"/>
+      <c r="FG43" s="1"/>
+      <c r="FH43" s="1"/>
+      <c r="FI43" s="1"/>
+      <c r="FJ43" s="1"/>
+      <c r="FK43" s="1"/>
+      <c r="FL43" s="1"/>
+      <c r="FM43" s="1"/>
+      <c r="FN43" s="1"/>
+      <c r="FO43" s="1"/>
+      <c r="FP43" s="1"/>
+      <c r="FQ43" s="1"/>
+      <c r="FR43" s="1"/>
+      <c r="FS43" s="1"/>
+      <c r="FT43" s="1"/>
+      <c r="FU43" s="1"/>
+      <c r="FV43" s="1"/>
+      <c r="FW43" s="1"/>
+      <c r="FX43" s="1"/>
+      <c r="FY43" s="1"/>
+      <c r="FZ43" s="1"/>
+      <c r="GA43" s="1"/>
+      <c r="GB43" s="1"/>
+      <c r="GC43" s="1"/>
+      <c r="GD43" s="1"/>
+      <c r="GE43" s="1"/>
+      <c r="GF43" s="1"/>
+      <c r="GG43" s="1"/>
+      <c r="GH43" s="1"/>
+      <c r="GI43" s="1"/>
+      <c r="GJ43" s="1"/>
+      <c r="GK43" s="1"/>
+      <c r="GL43" s="1"/>
+      <c r="GM43" s="1"/>
+      <c r="GN43" s="1"/>
+      <c r="GO43" s="1"/>
+      <c r="GP43" s="1"/>
+      <c r="GQ43" s="1"/>
+      <c r="GR43" s="1"/>
+      <c r="GS43" s="1"/>
+      <c r="GT43" s="1"/>
+      <c r="GU43" s="1"/>
+      <c r="GV43" s="1"/>
+      <c r="GW43" s="1"/>
+      <c r="GX43" s="1"/>
+      <c r="GY43" s="1"/>
+      <c r="GZ43" s="1"/>
+      <c r="HA43" s="1"/>
+      <c r="HB43" s="1"/>
+      <c r="HC43" s="1"/>
+      <c r="HD43" s="1"/>
+      <c r="HE43" s="1"/>
+      <c r="HF43" s="1"/>
+      <c r="HG43" s="1"/>
+      <c r="HH43" s="1"/>
+      <c r="HI43" s="1"/>
+      <c r="HJ43" s="1"/>
+      <c r="HK43" s="1"/>
+      <c r="HL43" s="1"/>
+      <c r="HM43" s="1"/>
+      <c r="HN43" s="1"/>
+      <c r="HO43" s="1"/>
+      <c r="HP43" s="1"/>
+      <c r="HQ43" s="1"/>
+      <c r="HR43" s="1"/>
+      <c r="HS43" s="1"/>
+      <c r="HT43" s="1"/>
+      <c r="HU43" s="1"/>
+      <c r="HV43" s="1"/>
+      <c r="HW43" s="1"/>
+      <c r="HX43" s="1"/>
+      <c r="HY43" s="1"/>
+      <c r="HZ43" s="1"/>
+      <c r="IA43" s="1"/>
+      <c r="IB43" s="1"/>
+      <c r="IC43" s="1"/>
+      <c r="ID43" s="1"/>
+      <c r="IE43" s="1"/>
+      <c r="IF43" s="1"/>
+      <c r="IG43" s="1"/>
+      <c r="IH43" s="1"/>
+      <c r="II43" s="1"/>
+      <c r="IJ43" s="1"/>
+      <c r="IK43" s="1"/>
+      <c r="IL43" s="1"/>
+      <c r="IM43" s="1"/>
+      <c r="IN43" s="1"/>
+      <c r="IO43" s="1"/>
+      <c r="IP43" s="1"/>
+      <c r="IQ43" s="1"/>
+      <c r="IR43" s="1"/>
+      <c r="IS43" s="1"/>
     </row>
     <row r="44" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
+      <c r="A44" s="26">
+        <v>15</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0</v>
+      </c>
+      <c r="E44" s="31">
+        <v>45262</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="37"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
+      <c r="DA44" s="1"/>
+      <c r="DB44" s="1"/>
+      <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
+      <c r="DE44" s="1"/>
+      <c r="DF44" s="1"/>
+      <c r="DG44" s="1"/>
+      <c r="DH44" s="1"/>
+      <c r="DI44" s="1"/>
+      <c r="DJ44" s="1"/>
+      <c r="DK44" s="1"/>
+      <c r="DL44" s="1"/>
+      <c r="DM44" s="1"/>
+      <c r="DN44" s="1"/>
+      <c r="DO44" s="1"/>
+      <c r="DP44" s="1"/>
+      <c r="DQ44" s="1"/>
+      <c r="DR44" s="1"/>
+      <c r="DS44" s="1"/>
+      <c r="DT44" s="1"/>
+      <c r="DU44" s="1"/>
+      <c r="DV44" s="1"/>
+      <c r="DW44" s="1"/>
+      <c r="DX44" s="1"/>
+      <c r="DY44" s="1"/>
+      <c r="DZ44" s="1"/>
+      <c r="EA44" s="1"/>
+      <c r="EB44" s="1"/>
+      <c r="EC44" s="1"/>
+      <c r="ED44" s="1"/>
+      <c r="EE44" s="1"/>
+      <c r="EF44" s="1"/>
+      <c r="EG44" s="1"/>
+      <c r="EH44" s="1"/>
+      <c r="EI44" s="1"/>
+      <c r="EJ44" s="1"/>
+      <c r="EK44" s="1"/>
+      <c r="EL44" s="1"/>
+      <c r="EM44" s="1"/>
+      <c r="EN44" s="1"/>
+      <c r="EO44" s="1"/>
+      <c r="EP44" s="1"/>
+      <c r="EQ44" s="1"/>
+      <c r="ER44" s="1"/>
+      <c r="ES44" s="1"/>
+      <c r="ET44" s="1"/>
+      <c r="EU44" s="1"/>
+      <c r="EV44" s="1"/>
+      <c r="EW44" s="1"/>
+      <c r="EX44" s="1"/>
+      <c r="EY44" s="1"/>
+      <c r="EZ44" s="1"/>
+      <c r="FA44" s="1"/>
+      <c r="FB44" s="1"/>
+      <c r="FC44" s="1"/>
+      <c r="FD44" s="1"/>
+      <c r="FE44" s="1"/>
+      <c r="FF44" s="1"/>
+      <c r="FG44" s="1"/>
+      <c r="FH44" s="1"/>
+      <c r="FI44" s="1"/>
+      <c r="FJ44" s="1"/>
+      <c r="FK44" s="1"/>
+      <c r="FL44" s="1"/>
+      <c r="FM44" s="1"/>
+      <c r="FN44" s="1"/>
+      <c r="FO44" s="1"/>
+      <c r="FP44" s="1"/>
+      <c r="FQ44" s="1"/>
+      <c r="FR44" s="1"/>
+      <c r="FS44" s="1"/>
+      <c r="FT44" s="1"/>
+      <c r="FU44" s="1"/>
+      <c r="FV44" s="1"/>
+      <c r="FW44" s="1"/>
+      <c r="FX44" s="1"/>
+      <c r="FY44" s="1"/>
+      <c r="FZ44" s="1"/>
+      <c r="GA44" s="1"/>
+      <c r="GB44" s="1"/>
+      <c r="GC44" s="1"/>
+      <c r="GD44" s="1"/>
+      <c r="GE44" s="1"/>
+      <c r="GF44" s="1"/>
+      <c r="GG44" s="1"/>
+      <c r="GH44" s="1"/>
+      <c r="GI44" s="1"/>
+      <c r="GJ44" s="1"/>
+      <c r="GK44" s="1"/>
+      <c r="GL44" s="1"/>
+      <c r="GM44" s="1"/>
+      <c r="GN44" s="1"/>
+      <c r="GO44" s="1"/>
+      <c r="GP44" s="1"/>
+      <c r="GQ44" s="1"/>
+      <c r="GR44" s="1"/>
+      <c r="GS44" s="1"/>
+      <c r="GT44" s="1"/>
+      <c r="GU44" s="1"/>
+      <c r="GV44" s="1"/>
+      <c r="GW44" s="1"/>
+      <c r="GX44" s="1"/>
+      <c r="GY44" s="1"/>
+      <c r="GZ44" s="1"/>
+      <c r="HA44" s="1"/>
+      <c r="HB44" s="1"/>
+      <c r="HC44" s="1"/>
+      <c r="HD44" s="1"/>
+      <c r="HE44" s="1"/>
+      <c r="HF44" s="1"/>
+      <c r="HG44" s="1"/>
+      <c r="HH44" s="1"/>
+      <c r="HI44" s="1"/>
+      <c r="HJ44" s="1"/>
+      <c r="HK44" s="1"/>
+      <c r="HL44" s="1"/>
+      <c r="HM44" s="1"/>
+      <c r="HN44" s="1"/>
+      <c r="HO44" s="1"/>
+      <c r="HP44" s="1"/>
+      <c r="HQ44" s="1"/>
+      <c r="HR44" s="1"/>
+      <c r="HS44" s="1"/>
+      <c r="HT44" s="1"/>
+      <c r="HU44" s="1"/>
+      <c r="HV44" s="1"/>
+      <c r="HW44" s="1"/>
+      <c r="HX44" s="1"/>
+      <c r="HY44" s="1"/>
+      <c r="HZ44" s="1"/>
+      <c r="IA44" s="1"/>
+      <c r="IB44" s="1"/>
+      <c r="IC44" s="1"/>
+      <c r="ID44" s="1"/>
+      <c r="IE44" s="1"/>
+      <c r="IF44" s="1"/>
+      <c r="IG44" s="1"/>
+      <c r="IH44" s="1"/>
+      <c r="II44" s="1"/>
+      <c r="IJ44" s="1"/>
+      <c r="IK44" s="1"/>
+      <c r="IL44" s="1"/>
+      <c r="IM44" s="1"/>
+      <c r="IN44" s="1"/>
+      <c r="IO44" s="1"/>
+      <c r="IP44" s="1"/>
+      <c r="IQ44" s="1"/>
+      <c r="IR44" s="1"/>
+      <c r="IS44" s="1"/>
+    </row>
+    <row r="45" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>16</v>
+      </c>
+      <c r="B45" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0</v>
+      </c>
+      <c r="E45" s="31">
+        <v>45266</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="37"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="1"/>
+      <c r="DB45" s="1"/>
+      <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
+      <c r="DE45" s="1"/>
+      <c r="DF45" s="1"/>
+      <c r="DG45" s="1"/>
+      <c r="DH45" s="1"/>
+      <c r="DI45" s="1"/>
+      <c r="DJ45" s="1"/>
+      <c r="DK45" s="1"/>
+      <c r="DL45" s="1"/>
+      <c r="DM45" s="1"/>
+      <c r="DN45" s="1"/>
+      <c r="DO45" s="1"/>
+      <c r="DP45" s="1"/>
+      <c r="DQ45" s="1"/>
+      <c r="DR45" s="1"/>
+      <c r="DS45" s="1"/>
+      <c r="DT45" s="1"/>
+      <c r="DU45" s="1"/>
+      <c r="DV45" s="1"/>
+      <c r="DW45" s="1"/>
+      <c r="DX45" s="1"/>
+      <c r="DY45" s="1"/>
+      <c r="DZ45" s="1"/>
+      <c r="EA45" s="1"/>
+      <c r="EB45" s="1"/>
+      <c r="EC45" s="1"/>
+      <c r="ED45" s="1"/>
+      <c r="EE45" s="1"/>
+      <c r="EF45" s="1"/>
+      <c r="EG45" s="1"/>
+      <c r="EH45" s="1"/>
+      <c r="EI45" s="1"/>
+      <c r="EJ45" s="1"/>
+      <c r="EK45" s="1"/>
+      <c r="EL45" s="1"/>
+      <c r="EM45" s="1"/>
+      <c r="EN45" s="1"/>
+      <c r="EO45" s="1"/>
+      <c r="EP45" s="1"/>
+      <c r="EQ45" s="1"/>
+      <c r="ER45" s="1"/>
+      <c r="ES45" s="1"/>
+      <c r="ET45" s="1"/>
+      <c r="EU45" s="1"/>
+      <c r="EV45" s="1"/>
+      <c r="EW45" s="1"/>
+      <c r="EX45" s="1"/>
+      <c r="EY45" s="1"/>
+      <c r="EZ45" s="1"/>
+      <c r="FA45" s="1"/>
+      <c r="FB45" s="1"/>
+      <c r="FC45" s="1"/>
+      <c r="FD45" s="1"/>
+      <c r="FE45" s="1"/>
+      <c r="FF45" s="1"/>
+      <c r="FG45" s="1"/>
+      <c r="FH45" s="1"/>
+      <c r="FI45" s="1"/>
+      <c r="FJ45" s="1"/>
+      <c r="FK45" s="1"/>
+      <c r="FL45" s="1"/>
+      <c r="FM45" s="1"/>
+      <c r="FN45" s="1"/>
+      <c r="FO45" s="1"/>
+      <c r="FP45" s="1"/>
+      <c r="FQ45" s="1"/>
+      <c r="FR45" s="1"/>
+      <c r="FS45" s="1"/>
+      <c r="FT45" s="1"/>
+      <c r="FU45" s="1"/>
+      <c r="FV45" s="1"/>
+      <c r="FW45" s="1"/>
+      <c r="FX45" s="1"/>
+      <c r="FY45" s="1"/>
+      <c r="FZ45" s="1"/>
+      <c r="GA45" s="1"/>
+      <c r="GB45" s="1"/>
+      <c r="GC45" s="1"/>
+      <c r="GD45" s="1"/>
+      <c r="GE45" s="1"/>
+      <c r="GF45" s="1"/>
+      <c r="GG45" s="1"/>
+      <c r="GH45" s="1"/>
+      <c r="GI45" s="1"/>
+      <c r="GJ45" s="1"/>
+      <c r="GK45" s="1"/>
+      <c r="GL45" s="1"/>
+      <c r="GM45" s="1"/>
+      <c r="GN45" s="1"/>
+      <c r="GO45" s="1"/>
+      <c r="GP45" s="1"/>
+      <c r="GQ45" s="1"/>
+      <c r="GR45" s="1"/>
+      <c r="GS45" s="1"/>
+      <c r="GT45" s="1"/>
+      <c r="GU45" s="1"/>
+      <c r="GV45" s="1"/>
+      <c r="GW45" s="1"/>
+      <c r="GX45" s="1"/>
+      <c r="GY45" s="1"/>
+      <c r="GZ45" s="1"/>
+      <c r="HA45" s="1"/>
+      <c r="HB45" s="1"/>
+      <c r="HC45" s="1"/>
+      <c r="HD45" s="1"/>
+      <c r="HE45" s="1"/>
+      <c r="HF45" s="1"/>
+      <c r="HG45" s="1"/>
+      <c r="HH45" s="1"/>
+      <c r="HI45" s="1"/>
+      <c r="HJ45" s="1"/>
+      <c r="HK45" s="1"/>
+      <c r="HL45" s="1"/>
+      <c r="HM45" s="1"/>
+      <c r="HN45" s="1"/>
+      <c r="HO45" s="1"/>
+      <c r="HP45" s="1"/>
+      <c r="HQ45" s="1"/>
+      <c r="HR45" s="1"/>
+      <c r="HS45" s="1"/>
+      <c r="HT45" s="1"/>
+      <c r="HU45" s="1"/>
+      <c r="HV45" s="1"/>
+      <c r="HW45" s="1"/>
+      <c r="HX45" s="1"/>
+      <c r="HY45" s="1"/>
+      <c r="HZ45" s="1"/>
+      <c r="IA45" s="1"/>
+      <c r="IB45" s="1"/>
+      <c r="IC45" s="1"/>
+      <c r="ID45" s="1"/>
+      <c r="IE45" s="1"/>
+      <c r="IF45" s="1"/>
+      <c r="IG45" s="1"/>
+      <c r="IH45" s="1"/>
+      <c r="II45" s="1"/>
+      <c r="IJ45" s="1"/>
+      <c r="IK45" s="1"/>
+      <c r="IL45" s="1"/>
+      <c r="IM45" s="1"/>
+      <c r="IN45" s="1"/>
+      <c r="IO45" s="1"/>
+      <c r="IP45" s="1"/>
+      <c r="IQ45" s="1"/>
+      <c r="IR45" s="1"/>
+      <c r="IS45" s="1"/>
+    </row>
+    <row r="46" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0</v>
+      </c>
+      <c r="E46" s="31">
+        <v>45259</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+      <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
+      <c r="BJ46" s="3"/>
+      <c r="BK46" s="3"/>
+      <c r="BL46" s="37"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
+      <c r="CZ46" s="1"/>
+      <c r="DA46" s="1"/>
+      <c r="DB46" s="1"/>
+      <c r="DC46" s="1"/>
+      <c r="DD46" s="1"/>
+      <c r="DE46" s="1"/>
+      <c r="DF46" s="1"/>
+      <c r="DG46" s="1"/>
+      <c r="DH46" s="1"/>
+      <c r="DI46" s="1"/>
+      <c r="DJ46" s="1"/>
+      <c r="DK46" s="1"/>
+      <c r="DL46" s="1"/>
+      <c r="DM46" s="1"/>
+      <c r="DN46" s="1"/>
+      <c r="DO46" s="1"/>
+      <c r="DP46" s="1"/>
+      <c r="DQ46" s="1"/>
+      <c r="DR46" s="1"/>
+      <c r="DS46" s="1"/>
+      <c r="DT46" s="1"/>
+      <c r="DU46" s="1"/>
+      <c r="DV46" s="1"/>
+      <c r="DW46" s="1"/>
+      <c r="DX46" s="1"/>
+      <c r="DY46" s="1"/>
+      <c r="DZ46" s="1"/>
+      <c r="EA46" s="1"/>
+      <c r="EB46" s="1"/>
+      <c r="EC46" s="1"/>
+      <c r="ED46" s="1"/>
+      <c r="EE46" s="1"/>
+      <c r="EF46" s="1"/>
+      <c r="EG46" s="1"/>
+      <c r="EH46" s="1"/>
+      <c r="EI46" s="1"/>
+      <c r="EJ46" s="1"/>
+      <c r="EK46" s="1"/>
+      <c r="EL46" s="1"/>
+      <c r="EM46" s="1"/>
+      <c r="EN46" s="1"/>
+      <c r="EO46" s="1"/>
+      <c r="EP46" s="1"/>
+      <c r="EQ46" s="1"/>
+      <c r="ER46" s="1"/>
+      <c r="ES46" s="1"/>
+      <c r="ET46" s="1"/>
+      <c r="EU46" s="1"/>
+      <c r="EV46" s="1"/>
+      <c r="EW46" s="1"/>
+      <c r="EX46" s="1"/>
+      <c r="EY46" s="1"/>
+      <c r="EZ46" s="1"/>
+      <c r="FA46" s="1"/>
+      <c r="FB46" s="1"/>
+      <c r="FC46" s="1"/>
+      <c r="FD46" s="1"/>
+      <c r="FE46" s="1"/>
+      <c r="FF46" s="1"/>
+      <c r="FG46" s="1"/>
+      <c r="FH46" s="1"/>
+      <c r="FI46" s="1"/>
+      <c r="FJ46" s="1"/>
+      <c r="FK46" s="1"/>
+      <c r="FL46" s="1"/>
+      <c r="FM46" s="1"/>
+      <c r="FN46" s="1"/>
+      <c r="FO46" s="1"/>
+      <c r="FP46" s="1"/>
+      <c r="FQ46" s="1"/>
+      <c r="FR46" s="1"/>
+      <c r="FS46" s="1"/>
+      <c r="FT46" s="1"/>
+      <c r="FU46" s="1"/>
+      <c r="FV46" s="1"/>
+      <c r="FW46" s="1"/>
+      <c r="FX46" s="1"/>
+      <c r="FY46" s="1"/>
+      <c r="FZ46" s="1"/>
+      <c r="GA46" s="1"/>
+      <c r="GB46" s="1"/>
+      <c r="GC46" s="1"/>
+      <c r="GD46" s="1"/>
+      <c r="GE46" s="1"/>
+      <c r="GF46" s="1"/>
+      <c r="GG46" s="1"/>
+      <c r="GH46" s="1"/>
+      <c r="GI46" s="1"/>
+      <c r="GJ46" s="1"/>
+      <c r="GK46" s="1"/>
+      <c r="GL46" s="1"/>
+      <c r="GM46" s="1"/>
+      <c r="GN46" s="1"/>
+      <c r="GO46" s="1"/>
+      <c r="GP46" s="1"/>
+      <c r="GQ46" s="1"/>
+      <c r="GR46" s="1"/>
+      <c r="GS46" s="1"/>
+      <c r="GT46" s="1"/>
+      <c r="GU46" s="1"/>
+      <c r="GV46" s="1"/>
+      <c r="GW46" s="1"/>
+      <c r="GX46" s="1"/>
+      <c r="GY46" s="1"/>
+      <c r="GZ46" s="1"/>
+      <c r="HA46" s="1"/>
+      <c r="HB46" s="1"/>
+      <c r="HC46" s="1"/>
+      <c r="HD46" s="1"/>
+      <c r="HE46" s="1"/>
+      <c r="HF46" s="1"/>
+      <c r="HG46" s="1"/>
+      <c r="HH46" s="1"/>
+      <c r="HI46" s="1"/>
+      <c r="HJ46" s="1"/>
+      <c r="HK46" s="1"/>
+      <c r="HL46" s="1"/>
+      <c r="HM46" s="1"/>
+      <c r="HN46" s="1"/>
+      <c r="HO46" s="1"/>
+      <c r="HP46" s="1"/>
+      <c r="HQ46" s="1"/>
+      <c r="HR46" s="1"/>
+      <c r="HS46" s="1"/>
+      <c r="HT46" s="1"/>
+      <c r="HU46" s="1"/>
+      <c r="HV46" s="1"/>
+      <c r="HW46" s="1"/>
+      <c r="HX46" s="1"/>
+      <c r="HY46" s="1"/>
+      <c r="HZ46" s="1"/>
+      <c r="IA46" s="1"/>
+      <c r="IB46" s="1"/>
+      <c r="IC46" s="1"/>
+      <c r="ID46" s="1"/>
+      <c r="IE46" s="1"/>
+      <c r="IF46" s="1"/>
+      <c r="IG46" s="1"/>
+      <c r="IH46" s="1"/>
+      <c r="II46" s="1"/>
+      <c r="IJ46" s="1"/>
+      <c r="IK46" s="1"/>
+      <c r="IL46" s="1"/>
+      <c r="IM46" s="1"/>
+      <c r="IN46" s="1"/>
+      <c r="IO46" s="1"/>
+      <c r="IP46" s="1"/>
+      <c r="IQ46" s="1"/>
+      <c r="IR46" s="1"/>
+      <c r="IS46" s="1"/>
+    </row>
+    <row r="47" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>18</v>
+      </c>
+      <c r="B47" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="31">
+        <v>45262</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="37"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
+      <c r="CZ47" s="1"/>
+      <c r="DA47" s="1"/>
+      <c r="DB47" s="1"/>
+      <c r="DC47" s="1"/>
+      <c r="DD47" s="1"/>
+      <c r="DE47" s="1"/>
+      <c r="DF47" s="1"/>
+      <c r="DG47" s="1"/>
+      <c r="DH47" s="1"/>
+      <c r="DI47" s="1"/>
+      <c r="DJ47" s="1"/>
+      <c r="DK47" s="1"/>
+      <c r="DL47" s="1"/>
+      <c r="DM47" s="1"/>
+      <c r="DN47" s="1"/>
+      <c r="DO47" s="1"/>
+      <c r="DP47" s="1"/>
+      <c r="DQ47" s="1"/>
+      <c r="DR47" s="1"/>
+      <c r="DS47" s="1"/>
+      <c r="DT47" s="1"/>
+      <c r="DU47" s="1"/>
+      <c r="DV47" s="1"/>
+      <c r="DW47" s="1"/>
+      <c r="DX47" s="1"/>
+      <c r="DY47" s="1"/>
+      <c r="DZ47" s="1"/>
+      <c r="EA47" s="1"/>
+      <c r="EB47" s="1"/>
+      <c r="EC47" s="1"/>
+      <c r="ED47" s="1"/>
+      <c r="EE47" s="1"/>
+      <c r="EF47" s="1"/>
+      <c r="EG47" s="1"/>
+      <c r="EH47" s="1"/>
+      <c r="EI47" s="1"/>
+      <c r="EJ47" s="1"/>
+      <c r="EK47" s="1"/>
+      <c r="EL47" s="1"/>
+      <c r="EM47" s="1"/>
+      <c r="EN47" s="1"/>
+      <c r="EO47" s="1"/>
+      <c r="EP47" s="1"/>
+      <c r="EQ47" s="1"/>
+      <c r="ER47" s="1"/>
+      <c r="ES47" s="1"/>
+      <c r="ET47" s="1"/>
+      <c r="EU47" s="1"/>
+      <c r="EV47" s="1"/>
+      <c r="EW47" s="1"/>
+      <c r="EX47" s="1"/>
+      <c r="EY47" s="1"/>
+      <c r="EZ47" s="1"/>
+      <c r="FA47" s="1"/>
+      <c r="FB47" s="1"/>
+      <c r="FC47" s="1"/>
+      <c r="FD47" s="1"/>
+      <c r="FE47" s="1"/>
+      <c r="FF47" s="1"/>
+      <c r="FG47" s="1"/>
+      <c r="FH47" s="1"/>
+      <c r="FI47" s="1"/>
+      <c r="FJ47" s="1"/>
+      <c r="FK47" s="1"/>
+      <c r="FL47" s="1"/>
+      <c r="FM47" s="1"/>
+      <c r="FN47" s="1"/>
+      <c r="FO47" s="1"/>
+      <c r="FP47" s="1"/>
+      <c r="FQ47" s="1"/>
+      <c r="FR47" s="1"/>
+      <c r="FS47" s="1"/>
+      <c r="FT47" s="1"/>
+      <c r="FU47" s="1"/>
+      <c r="FV47" s="1"/>
+      <c r="FW47" s="1"/>
+      <c r="FX47" s="1"/>
+      <c r="FY47" s="1"/>
+      <c r="FZ47" s="1"/>
+      <c r="GA47" s="1"/>
+      <c r="GB47" s="1"/>
+      <c r="GC47" s="1"/>
+      <c r="GD47" s="1"/>
+      <c r="GE47" s="1"/>
+      <c r="GF47" s="1"/>
+      <c r="GG47" s="1"/>
+      <c r="GH47" s="1"/>
+      <c r="GI47" s="1"/>
+      <c r="GJ47" s="1"/>
+      <c r="GK47" s="1"/>
+      <c r="GL47" s="1"/>
+      <c r="GM47" s="1"/>
+      <c r="GN47" s="1"/>
+      <c r="GO47" s="1"/>
+      <c r="GP47" s="1"/>
+      <c r="GQ47" s="1"/>
+      <c r="GR47" s="1"/>
+      <c r="GS47" s="1"/>
+      <c r="GT47" s="1"/>
+      <c r="GU47" s="1"/>
+      <c r="GV47" s="1"/>
+      <c r="GW47" s="1"/>
+      <c r="GX47" s="1"/>
+      <c r="GY47" s="1"/>
+      <c r="GZ47" s="1"/>
+      <c r="HA47" s="1"/>
+      <c r="HB47" s="1"/>
+      <c r="HC47" s="1"/>
+      <c r="HD47" s="1"/>
+      <c r="HE47" s="1"/>
+      <c r="HF47" s="1"/>
+      <c r="HG47" s="1"/>
+      <c r="HH47" s="1"/>
+      <c r="HI47" s="1"/>
+      <c r="HJ47" s="1"/>
+      <c r="HK47" s="1"/>
+      <c r="HL47" s="1"/>
+      <c r="HM47" s="1"/>
+      <c r="HN47" s="1"/>
+      <c r="HO47" s="1"/>
+      <c r="HP47" s="1"/>
+      <c r="HQ47" s="1"/>
+      <c r="HR47" s="1"/>
+      <c r="HS47" s="1"/>
+      <c r="HT47" s="1"/>
+      <c r="HU47" s="1"/>
+      <c r="HV47" s="1"/>
+      <c r="HW47" s="1"/>
+      <c r="HX47" s="1"/>
+      <c r="HY47" s="1"/>
+      <c r="HZ47" s="1"/>
+      <c r="IA47" s="1"/>
+      <c r="IB47" s="1"/>
+      <c r="IC47" s="1"/>
+      <c r="ID47" s="1"/>
+      <c r="IE47" s="1"/>
+      <c r="IF47" s="1"/>
+      <c r="IG47" s="1"/>
+      <c r="IH47" s="1"/>
+      <c r="II47" s="1"/>
+      <c r="IJ47" s="1"/>
+      <c r="IK47" s="1"/>
+      <c r="IL47" s="1"/>
+      <c r="IM47" s="1"/>
+      <c r="IN47" s="1"/>
+      <c r="IO47" s="1"/>
+      <c r="IP47" s="1"/>
+      <c r="IQ47" s="1"/>
+      <c r="IR47" s="1"/>
+      <c r="IS47" s="1"/>
+    </row>
+    <row r="48" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>19</v>
+      </c>
+      <c r="B48" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="23">
+        <v>0</v>
+      </c>
+      <c r="E48" s="31">
+        <v>45266</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="37"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
+      <c r="CZ48" s="1"/>
+      <c r="DA48" s="1"/>
+      <c r="DB48" s="1"/>
+      <c r="DC48" s="1"/>
+      <c r="DD48" s="1"/>
+      <c r="DE48" s="1"/>
+      <c r="DF48" s="1"/>
+      <c r="DG48" s="1"/>
+      <c r="DH48" s="1"/>
+      <c r="DI48" s="1"/>
+      <c r="DJ48" s="1"/>
+      <c r="DK48" s="1"/>
+      <c r="DL48" s="1"/>
+      <c r="DM48" s="1"/>
+      <c r="DN48" s="1"/>
+      <c r="DO48" s="1"/>
+      <c r="DP48" s="1"/>
+      <c r="DQ48" s="1"/>
+      <c r="DR48" s="1"/>
+      <c r="DS48" s="1"/>
+      <c r="DT48" s="1"/>
+      <c r="DU48" s="1"/>
+      <c r="DV48" s="1"/>
+      <c r="DW48" s="1"/>
+      <c r="DX48" s="1"/>
+      <c r="DY48" s="1"/>
+      <c r="DZ48" s="1"/>
+      <c r="EA48" s="1"/>
+      <c r="EB48" s="1"/>
+      <c r="EC48" s="1"/>
+      <c r="ED48" s="1"/>
+      <c r="EE48" s="1"/>
+      <c r="EF48" s="1"/>
+      <c r="EG48" s="1"/>
+      <c r="EH48" s="1"/>
+      <c r="EI48" s="1"/>
+      <c r="EJ48" s="1"/>
+      <c r="EK48" s="1"/>
+      <c r="EL48" s="1"/>
+      <c r="EM48" s="1"/>
+      <c r="EN48" s="1"/>
+      <c r="EO48" s="1"/>
+      <c r="EP48" s="1"/>
+      <c r="EQ48" s="1"/>
+      <c r="ER48" s="1"/>
+      <c r="ES48" s="1"/>
+      <c r="ET48" s="1"/>
+      <c r="EU48" s="1"/>
+      <c r="EV48" s="1"/>
+      <c r="EW48" s="1"/>
+      <c r="EX48" s="1"/>
+      <c r="EY48" s="1"/>
+      <c r="EZ48" s="1"/>
+      <c r="FA48" s="1"/>
+      <c r="FB48" s="1"/>
+      <c r="FC48" s="1"/>
+      <c r="FD48" s="1"/>
+      <c r="FE48" s="1"/>
+      <c r="FF48" s="1"/>
+      <c r="FG48" s="1"/>
+      <c r="FH48" s="1"/>
+      <c r="FI48" s="1"/>
+      <c r="FJ48" s="1"/>
+      <c r="FK48" s="1"/>
+      <c r="FL48" s="1"/>
+      <c r="FM48" s="1"/>
+      <c r="FN48" s="1"/>
+      <c r="FO48" s="1"/>
+      <c r="FP48" s="1"/>
+      <c r="FQ48" s="1"/>
+      <c r="FR48" s="1"/>
+      <c r="FS48" s="1"/>
+      <c r="FT48" s="1"/>
+      <c r="FU48" s="1"/>
+      <c r="FV48" s="1"/>
+      <c r="FW48" s="1"/>
+      <c r="FX48" s="1"/>
+      <c r="FY48" s="1"/>
+      <c r="FZ48" s="1"/>
+      <c r="GA48" s="1"/>
+      <c r="GB48" s="1"/>
+      <c r="GC48" s="1"/>
+      <c r="GD48" s="1"/>
+      <c r="GE48" s="1"/>
+      <c r="GF48" s="1"/>
+      <c r="GG48" s="1"/>
+      <c r="GH48" s="1"/>
+      <c r="GI48" s="1"/>
+      <c r="GJ48" s="1"/>
+      <c r="GK48" s="1"/>
+      <c r="GL48" s="1"/>
+      <c r="GM48" s="1"/>
+      <c r="GN48" s="1"/>
+      <c r="GO48" s="1"/>
+      <c r="GP48" s="1"/>
+      <c r="GQ48" s="1"/>
+      <c r="GR48" s="1"/>
+      <c r="GS48" s="1"/>
+      <c r="GT48" s="1"/>
+      <c r="GU48" s="1"/>
+      <c r="GV48" s="1"/>
+      <c r="GW48" s="1"/>
+      <c r="GX48" s="1"/>
+      <c r="GY48" s="1"/>
+      <c r="GZ48" s="1"/>
+      <c r="HA48" s="1"/>
+      <c r="HB48" s="1"/>
+      <c r="HC48" s="1"/>
+      <c r="HD48" s="1"/>
+      <c r="HE48" s="1"/>
+      <c r="HF48" s="1"/>
+      <c r="HG48" s="1"/>
+      <c r="HH48" s="1"/>
+      <c r="HI48" s="1"/>
+      <c r="HJ48" s="1"/>
+      <c r="HK48" s="1"/>
+      <c r="HL48" s="1"/>
+      <c r="HM48" s="1"/>
+      <c r="HN48" s="1"/>
+      <c r="HO48" s="1"/>
+      <c r="HP48" s="1"/>
+      <c r="HQ48" s="1"/>
+      <c r="HR48" s="1"/>
+      <c r="HS48" s="1"/>
+      <c r="HT48" s="1"/>
+      <c r="HU48" s="1"/>
+      <c r="HV48" s="1"/>
+      <c r="HW48" s="1"/>
+      <c r="HX48" s="1"/>
+      <c r="HY48" s="1"/>
+      <c r="HZ48" s="1"/>
+      <c r="IA48" s="1"/>
+      <c r="IB48" s="1"/>
+      <c r="IC48" s="1"/>
+      <c r="ID48" s="1"/>
+      <c r="IE48" s="1"/>
+      <c r="IF48" s="1"/>
+      <c r="IG48" s="1"/>
+      <c r="IH48" s="1"/>
+      <c r="II48" s="1"/>
+      <c r="IJ48" s="1"/>
+      <c r="IK48" s="1"/>
+      <c r="IL48" s="1"/>
+      <c r="IM48" s="1"/>
+      <c r="IN48" s="1"/>
+      <c r="IO48" s="1"/>
+      <c r="IP48" s="1"/>
+      <c r="IQ48" s="1"/>
+      <c r="IR48" s="1"/>
+      <c r="IS48" s="1"/>
+    </row>
+    <row r="49" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
+        <v>20</v>
+      </c>
+      <c r="B49" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0</v>
+      </c>
+      <c r="E49" s="31">
+        <v>45269</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="37"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="1"/>
+      <c r="DB49" s="1"/>
+      <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
+      <c r="DE49" s="1"/>
+      <c r="DF49" s="1"/>
+      <c r="DG49" s="1"/>
+      <c r="DH49" s="1"/>
+      <c r="DI49" s="1"/>
+      <c r="DJ49" s="1"/>
+      <c r="DK49" s="1"/>
+      <c r="DL49" s="1"/>
+      <c r="DM49" s="1"/>
+      <c r="DN49" s="1"/>
+      <c r="DO49" s="1"/>
+      <c r="DP49" s="1"/>
+      <c r="DQ49" s="1"/>
+      <c r="DR49" s="1"/>
+      <c r="DS49" s="1"/>
+      <c r="DT49" s="1"/>
+      <c r="DU49" s="1"/>
+      <c r="DV49" s="1"/>
+      <c r="DW49" s="1"/>
+      <c r="DX49" s="1"/>
+      <c r="DY49" s="1"/>
+      <c r="DZ49" s="1"/>
+      <c r="EA49" s="1"/>
+      <c r="EB49" s="1"/>
+      <c r="EC49" s="1"/>
+      <c r="ED49" s="1"/>
+      <c r="EE49" s="1"/>
+      <c r="EF49" s="1"/>
+      <c r="EG49" s="1"/>
+      <c r="EH49" s="1"/>
+      <c r="EI49" s="1"/>
+      <c r="EJ49" s="1"/>
+      <c r="EK49" s="1"/>
+      <c r="EL49" s="1"/>
+      <c r="EM49" s="1"/>
+      <c r="EN49" s="1"/>
+      <c r="EO49" s="1"/>
+      <c r="EP49" s="1"/>
+      <c r="EQ49" s="1"/>
+      <c r="ER49" s="1"/>
+      <c r="ES49" s="1"/>
+      <c r="ET49" s="1"/>
+      <c r="EU49" s="1"/>
+      <c r="EV49" s="1"/>
+      <c r="EW49" s="1"/>
+      <c r="EX49" s="1"/>
+      <c r="EY49" s="1"/>
+      <c r="EZ49" s="1"/>
+      <c r="FA49" s="1"/>
+      <c r="FB49" s="1"/>
+      <c r="FC49" s="1"/>
+      <c r="FD49" s="1"/>
+      <c r="FE49" s="1"/>
+      <c r="FF49" s="1"/>
+      <c r="FG49" s="1"/>
+      <c r="FH49" s="1"/>
+      <c r="FI49" s="1"/>
+      <c r="FJ49" s="1"/>
+      <c r="FK49" s="1"/>
+      <c r="FL49" s="1"/>
+      <c r="FM49" s="1"/>
+      <c r="FN49" s="1"/>
+      <c r="FO49" s="1"/>
+      <c r="FP49" s="1"/>
+      <c r="FQ49" s="1"/>
+      <c r="FR49" s="1"/>
+      <c r="FS49" s="1"/>
+      <c r="FT49" s="1"/>
+      <c r="FU49" s="1"/>
+      <c r="FV49" s="1"/>
+      <c r="FW49" s="1"/>
+      <c r="FX49" s="1"/>
+      <c r="FY49" s="1"/>
+      <c r="FZ49" s="1"/>
+      <c r="GA49" s="1"/>
+      <c r="GB49" s="1"/>
+      <c r="GC49" s="1"/>
+      <c r="GD49" s="1"/>
+      <c r="GE49" s="1"/>
+      <c r="GF49" s="1"/>
+      <c r="GG49" s="1"/>
+      <c r="GH49" s="1"/>
+      <c r="GI49" s="1"/>
+      <c r="GJ49" s="1"/>
+      <c r="GK49" s="1"/>
+      <c r="GL49" s="1"/>
+      <c r="GM49" s="1"/>
+      <c r="GN49" s="1"/>
+      <c r="GO49" s="1"/>
+      <c r="GP49" s="1"/>
+      <c r="GQ49" s="1"/>
+      <c r="GR49" s="1"/>
+      <c r="GS49" s="1"/>
+      <c r="GT49" s="1"/>
+      <c r="GU49" s="1"/>
+      <c r="GV49" s="1"/>
+      <c r="GW49" s="1"/>
+      <c r="GX49" s="1"/>
+      <c r="GY49" s="1"/>
+      <c r="GZ49" s="1"/>
+      <c r="HA49" s="1"/>
+      <c r="HB49" s="1"/>
+      <c r="HC49" s="1"/>
+      <c r="HD49" s="1"/>
+      <c r="HE49" s="1"/>
+      <c r="HF49" s="1"/>
+      <c r="HG49" s="1"/>
+      <c r="HH49" s="1"/>
+      <c r="HI49" s="1"/>
+      <c r="HJ49" s="1"/>
+      <c r="HK49" s="1"/>
+      <c r="HL49" s="1"/>
+      <c r="HM49" s="1"/>
+      <c r="HN49" s="1"/>
+      <c r="HO49" s="1"/>
+      <c r="HP49" s="1"/>
+      <c r="HQ49" s="1"/>
+      <c r="HR49" s="1"/>
+      <c r="HS49" s="1"/>
+      <c r="HT49" s="1"/>
+      <c r="HU49" s="1"/>
+      <c r="HV49" s="1"/>
+      <c r="HW49" s="1"/>
+      <c r="HX49" s="1"/>
+      <c r="HY49" s="1"/>
+      <c r="HZ49" s="1"/>
+      <c r="IA49" s="1"/>
+      <c r="IB49" s="1"/>
+      <c r="IC49" s="1"/>
+      <c r="ID49" s="1"/>
+      <c r="IE49" s="1"/>
+      <c r="IF49" s="1"/>
+      <c r="IG49" s="1"/>
+      <c r="IH49" s="1"/>
+      <c r="II49" s="1"/>
+      <c r="IJ49" s="1"/>
+      <c r="IK49" s="1"/>
+      <c r="IL49" s="1"/>
+      <c r="IM49" s="1"/>
+      <c r="IN49" s="1"/>
+      <c r="IO49" s="1"/>
+      <c r="IP49" s="1"/>
+      <c r="IQ49" s="1"/>
+      <c r="IR49" s="1"/>
+      <c r="IS49" s="1"/>
+    </row>
+    <row r="50" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>21</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="23">
+        <v>0</v>
+      </c>
+      <c r="E50" s="31">
+        <v>45269</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+      <c r="BJ50" s="3"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="37"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1"/>
+      <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
+      <c r="CZ50" s="1"/>
+      <c r="DA50" s="1"/>
+      <c r="DB50" s="1"/>
+      <c r="DC50" s="1"/>
+      <c r="DD50" s="1"/>
+      <c r="DE50" s="1"/>
+      <c r="DF50" s="1"/>
+      <c r="DG50" s="1"/>
+      <c r="DH50" s="1"/>
+      <c r="DI50" s="1"/>
+      <c r="DJ50" s="1"/>
+      <c r="DK50" s="1"/>
+      <c r="DL50" s="1"/>
+      <c r="DM50" s="1"/>
+      <c r="DN50" s="1"/>
+      <c r="DO50" s="1"/>
+      <c r="DP50" s="1"/>
+      <c r="DQ50" s="1"/>
+      <c r="DR50" s="1"/>
+      <c r="DS50" s="1"/>
+      <c r="DT50" s="1"/>
+      <c r="DU50" s="1"/>
+      <c r="DV50" s="1"/>
+      <c r="DW50" s="1"/>
+      <c r="DX50" s="1"/>
+      <c r="DY50" s="1"/>
+      <c r="DZ50" s="1"/>
+      <c r="EA50" s="1"/>
+      <c r="EB50" s="1"/>
+      <c r="EC50" s="1"/>
+      <c r="ED50" s="1"/>
+      <c r="EE50" s="1"/>
+      <c r="EF50" s="1"/>
+      <c r="EG50" s="1"/>
+      <c r="EH50" s="1"/>
+      <c r="EI50" s="1"/>
+      <c r="EJ50" s="1"/>
+      <c r="EK50" s="1"/>
+      <c r="EL50" s="1"/>
+      <c r="EM50" s="1"/>
+      <c r="EN50" s="1"/>
+      <c r="EO50" s="1"/>
+      <c r="EP50" s="1"/>
+      <c r="EQ50" s="1"/>
+      <c r="ER50" s="1"/>
+      <c r="ES50" s="1"/>
+      <c r="ET50" s="1"/>
+      <c r="EU50" s="1"/>
+      <c r="EV50" s="1"/>
+      <c r="EW50" s="1"/>
+      <c r="EX50" s="1"/>
+      <c r="EY50" s="1"/>
+      <c r="EZ50" s="1"/>
+      <c r="FA50" s="1"/>
+      <c r="FB50" s="1"/>
+      <c r="FC50" s="1"/>
+      <c r="FD50" s="1"/>
+      <c r="FE50" s="1"/>
+      <c r="FF50" s="1"/>
+      <c r="FG50" s="1"/>
+      <c r="FH50" s="1"/>
+      <c r="FI50" s="1"/>
+      <c r="FJ50" s="1"/>
+      <c r="FK50" s="1"/>
+      <c r="FL50" s="1"/>
+      <c r="FM50" s="1"/>
+      <c r="FN50" s="1"/>
+      <c r="FO50" s="1"/>
+      <c r="FP50" s="1"/>
+      <c r="FQ50" s="1"/>
+      <c r="FR50" s="1"/>
+      <c r="FS50" s="1"/>
+      <c r="FT50" s="1"/>
+      <c r="FU50" s="1"/>
+      <c r="FV50" s="1"/>
+      <c r="FW50" s="1"/>
+      <c r="FX50" s="1"/>
+      <c r="FY50" s="1"/>
+      <c r="FZ50" s="1"/>
+      <c r="GA50" s="1"/>
+      <c r="GB50" s="1"/>
+      <c r="GC50" s="1"/>
+      <c r="GD50" s="1"/>
+      <c r="GE50" s="1"/>
+      <c r="GF50" s="1"/>
+      <c r="GG50" s="1"/>
+      <c r="GH50" s="1"/>
+      <c r="GI50" s="1"/>
+      <c r="GJ50" s="1"/>
+      <c r="GK50" s="1"/>
+      <c r="GL50" s="1"/>
+      <c r="GM50" s="1"/>
+      <c r="GN50" s="1"/>
+      <c r="GO50" s="1"/>
+      <c r="GP50" s="1"/>
+      <c r="GQ50" s="1"/>
+      <c r="GR50" s="1"/>
+      <c r="GS50" s="1"/>
+      <c r="GT50" s="1"/>
+      <c r="GU50" s="1"/>
+      <c r="GV50" s="1"/>
+      <c r="GW50" s="1"/>
+      <c r="GX50" s="1"/>
+      <c r="GY50" s="1"/>
+      <c r="GZ50" s="1"/>
+      <c r="HA50" s="1"/>
+      <c r="HB50" s="1"/>
+      <c r="HC50" s="1"/>
+      <c r="HD50" s="1"/>
+      <c r="HE50" s="1"/>
+      <c r="HF50" s="1"/>
+      <c r="HG50" s="1"/>
+      <c r="HH50" s="1"/>
+      <c r="HI50" s="1"/>
+      <c r="HJ50" s="1"/>
+      <c r="HK50" s="1"/>
+      <c r="HL50" s="1"/>
+      <c r="HM50" s="1"/>
+      <c r="HN50" s="1"/>
+      <c r="HO50" s="1"/>
+      <c r="HP50" s="1"/>
+      <c r="HQ50" s="1"/>
+      <c r="HR50" s="1"/>
+      <c r="HS50" s="1"/>
+      <c r="HT50" s="1"/>
+      <c r="HU50" s="1"/>
+      <c r="HV50" s="1"/>
+      <c r="HW50" s="1"/>
+      <c r="HX50" s="1"/>
+      <c r="HY50" s="1"/>
+      <c r="HZ50" s="1"/>
+      <c r="IA50" s="1"/>
+      <c r="IB50" s="1"/>
+      <c r="IC50" s="1"/>
+      <c r="ID50" s="1"/>
+      <c r="IE50" s="1"/>
+      <c r="IF50" s="1"/>
+      <c r="IG50" s="1"/>
+      <c r="IH50" s="1"/>
+      <c r="II50" s="1"/>
+      <c r="IJ50" s="1"/>
+      <c r="IK50" s="1"/>
+      <c r="IL50" s="1"/>
+      <c r="IM50" s="1"/>
+      <c r="IN50" s="1"/>
+      <c r="IO50" s="1"/>
+      <c r="IP50" s="1"/>
+      <c r="IQ50" s="1"/>
+      <c r="IR50" s="1"/>
+      <c r="IS50" s="1"/>
+    </row>
+    <row r="51" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A51" s="26">
+        <v>22</v>
+      </c>
+      <c r="B51" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0</v>
+      </c>
+      <c r="E51" s="31">
+        <v>45273</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+      <c r="BJ51" s="3"/>
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="37"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="1"/>
+      <c r="DB51" s="1"/>
+      <c r="DC51" s="1"/>
+      <c r="DD51" s="1"/>
+      <c r="DE51" s="1"/>
+      <c r="DF51" s="1"/>
+      <c r="DG51" s="1"/>
+      <c r="DH51" s="1"/>
+      <c r="DI51" s="1"/>
+      <c r="DJ51" s="1"/>
+      <c r="DK51" s="1"/>
+      <c r="DL51" s="1"/>
+      <c r="DM51" s="1"/>
+      <c r="DN51" s="1"/>
+      <c r="DO51" s="1"/>
+      <c r="DP51" s="1"/>
+      <c r="DQ51" s="1"/>
+      <c r="DR51" s="1"/>
+      <c r="DS51" s="1"/>
+      <c r="DT51" s="1"/>
+      <c r="DU51" s="1"/>
+      <c r="DV51" s="1"/>
+      <c r="DW51" s="1"/>
+      <c r="DX51" s="1"/>
+      <c r="DY51" s="1"/>
+      <c r="DZ51" s="1"/>
+      <c r="EA51" s="1"/>
+      <c r="EB51" s="1"/>
+      <c r="EC51" s="1"/>
+      <c r="ED51" s="1"/>
+      <c r="EE51" s="1"/>
+      <c r="EF51" s="1"/>
+      <c r="EG51" s="1"/>
+      <c r="EH51" s="1"/>
+      <c r="EI51" s="1"/>
+      <c r="EJ51" s="1"/>
+      <c r="EK51" s="1"/>
+      <c r="EL51" s="1"/>
+      <c r="EM51" s="1"/>
+      <c r="EN51" s="1"/>
+      <c r="EO51" s="1"/>
+      <c r="EP51" s="1"/>
+      <c r="EQ51" s="1"/>
+      <c r="ER51" s="1"/>
+      <c r="ES51" s="1"/>
+      <c r="ET51" s="1"/>
+      <c r="EU51" s="1"/>
+      <c r="EV51" s="1"/>
+      <c r="EW51" s="1"/>
+      <c r="EX51" s="1"/>
+      <c r="EY51" s="1"/>
+      <c r="EZ51" s="1"/>
+      <c r="FA51" s="1"/>
+      <c r="FB51" s="1"/>
+      <c r="FC51" s="1"/>
+      <c r="FD51" s="1"/>
+      <c r="FE51" s="1"/>
+      <c r="FF51" s="1"/>
+      <c r="FG51" s="1"/>
+      <c r="FH51" s="1"/>
+      <c r="FI51" s="1"/>
+      <c r="FJ51" s="1"/>
+      <c r="FK51" s="1"/>
+      <c r="FL51" s="1"/>
+      <c r="FM51" s="1"/>
+      <c r="FN51" s="1"/>
+      <c r="FO51" s="1"/>
+      <c r="FP51" s="1"/>
+      <c r="FQ51" s="1"/>
+      <c r="FR51" s="1"/>
+      <c r="FS51" s="1"/>
+      <c r="FT51" s="1"/>
+      <c r="FU51" s="1"/>
+      <c r="FV51" s="1"/>
+      <c r="FW51" s="1"/>
+      <c r="FX51" s="1"/>
+      <c r="FY51" s="1"/>
+      <c r="FZ51" s="1"/>
+      <c r="GA51" s="1"/>
+      <c r="GB51" s="1"/>
+      <c r="GC51" s="1"/>
+      <c r="GD51" s="1"/>
+      <c r="GE51" s="1"/>
+      <c r="GF51" s="1"/>
+      <c r="GG51" s="1"/>
+      <c r="GH51" s="1"/>
+      <c r="GI51" s="1"/>
+      <c r="GJ51" s="1"/>
+      <c r="GK51" s="1"/>
+      <c r="GL51" s="1"/>
+      <c r="GM51" s="1"/>
+      <c r="GN51" s="1"/>
+      <c r="GO51" s="1"/>
+      <c r="GP51" s="1"/>
+      <c r="GQ51" s="1"/>
+      <c r="GR51" s="1"/>
+      <c r="GS51" s="1"/>
+      <c r="GT51" s="1"/>
+      <c r="GU51" s="1"/>
+      <c r="GV51" s="1"/>
+      <c r="GW51" s="1"/>
+      <c r="GX51" s="1"/>
+      <c r="GY51" s="1"/>
+      <c r="GZ51" s="1"/>
+      <c r="HA51" s="1"/>
+      <c r="HB51" s="1"/>
+      <c r="HC51" s="1"/>
+      <c r="HD51" s="1"/>
+      <c r="HE51" s="1"/>
+      <c r="HF51" s="1"/>
+      <c r="HG51" s="1"/>
+      <c r="HH51" s="1"/>
+      <c r="HI51" s="1"/>
+      <c r="HJ51" s="1"/>
+      <c r="HK51" s="1"/>
+      <c r="HL51" s="1"/>
+      <c r="HM51" s="1"/>
+      <c r="HN51" s="1"/>
+      <c r="HO51" s="1"/>
+      <c r="HP51" s="1"/>
+      <c r="HQ51" s="1"/>
+      <c r="HR51" s="1"/>
+      <c r="HS51" s="1"/>
+      <c r="HT51" s="1"/>
+      <c r="HU51" s="1"/>
+      <c r="HV51" s="1"/>
+      <c r="HW51" s="1"/>
+      <c r="HX51" s="1"/>
+      <c r="HY51" s="1"/>
+      <c r="HZ51" s="1"/>
+      <c r="IA51" s="1"/>
+      <c r="IB51" s="1"/>
+      <c r="IC51" s="1"/>
+      <c r="ID51" s="1"/>
+      <c r="IE51" s="1"/>
+      <c r="IF51" s="1"/>
+      <c r="IG51" s="1"/>
+      <c r="IH51" s="1"/>
+      <c r="II51" s="1"/>
+      <c r="IJ51" s="1"/>
+      <c r="IK51" s="1"/>
+      <c r="IL51" s="1"/>
+      <c r="IM51" s="1"/>
+      <c r="IN51" s="1"/>
+      <c r="IO51" s="1"/>
+      <c r="IP51" s="1"/>
+      <c r="IQ51" s="1"/>
+      <c r="IR51" s="1"/>
+      <c r="IS51" s="1"/>
+    </row>
+    <row r="52" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
+        <v>23</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="23">
+        <v>0</v>
+      </c>
+      <c r="E52" s="31">
+        <v>45273</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
+      <c r="BJ52" s="3"/>
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="37"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
+      <c r="DB52" s="1"/>
+      <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
+      <c r="DE52" s="1"/>
+      <c r="DF52" s="1"/>
+      <c r="DG52" s="1"/>
+      <c r="DH52" s="1"/>
+      <c r="DI52" s="1"/>
+      <c r="DJ52" s="1"/>
+      <c r="DK52" s="1"/>
+      <c r="DL52" s="1"/>
+      <c r="DM52" s="1"/>
+      <c r="DN52" s="1"/>
+      <c r="DO52" s="1"/>
+      <c r="DP52" s="1"/>
+      <c r="DQ52" s="1"/>
+      <c r="DR52" s="1"/>
+      <c r="DS52" s="1"/>
+      <c r="DT52" s="1"/>
+      <c r="DU52" s="1"/>
+      <c r="DV52" s="1"/>
+      <c r="DW52" s="1"/>
+      <c r="DX52" s="1"/>
+      <c r="DY52" s="1"/>
+      <c r="DZ52" s="1"/>
+      <c r="EA52" s="1"/>
+      <c r="EB52" s="1"/>
+      <c r="EC52" s="1"/>
+      <c r="ED52" s="1"/>
+      <c r="EE52" s="1"/>
+      <c r="EF52" s="1"/>
+      <c r="EG52" s="1"/>
+      <c r="EH52" s="1"/>
+      <c r="EI52" s="1"/>
+      <c r="EJ52" s="1"/>
+      <c r="EK52" s="1"/>
+      <c r="EL52" s="1"/>
+      <c r="EM52" s="1"/>
+      <c r="EN52" s="1"/>
+      <c r="EO52" s="1"/>
+      <c r="EP52" s="1"/>
+      <c r="EQ52" s="1"/>
+      <c r="ER52" s="1"/>
+      <c r="ES52" s="1"/>
+      <c r="ET52" s="1"/>
+      <c r="EU52" s="1"/>
+      <c r="EV52" s="1"/>
+      <c r="EW52" s="1"/>
+      <c r="EX52" s="1"/>
+      <c r="EY52" s="1"/>
+      <c r="EZ52" s="1"/>
+      <c r="FA52" s="1"/>
+      <c r="FB52" s="1"/>
+      <c r="FC52" s="1"/>
+      <c r="FD52" s="1"/>
+      <c r="FE52" s="1"/>
+      <c r="FF52" s="1"/>
+      <c r="FG52" s="1"/>
+      <c r="FH52" s="1"/>
+      <c r="FI52" s="1"/>
+      <c r="FJ52" s="1"/>
+      <c r="FK52" s="1"/>
+      <c r="FL52" s="1"/>
+      <c r="FM52" s="1"/>
+      <c r="FN52" s="1"/>
+      <c r="FO52" s="1"/>
+      <c r="FP52" s="1"/>
+      <c r="FQ52" s="1"/>
+      <c r="FR52" s="1"/>
+      <c r="FS52" s="1"/>
+      <c r="FT52" s="1"/>
+      <c r="FU52" s="1"/>
+      <c r="FV52" s="1"/>
+      <c r="FW52" s="1"/>
+      <c r="FX52" s="1"/>
+      <c r="FY52" s="1"/>
+      <c r="FZ52" s="1"/>
+      <c r="GA52" s="1"/>
+      <c r="GB52" s="1"/>
+      <c r="GC52" s="1"/>
+      <c r="GD52" s="1"/>
+      <c r="GE52" s="1"/>
+      <c r="GF52" s="1"/>
+      <c r="GG52" s="1"/>
+      <c r="GH52" s="1"/>
+      <c r="GI52" s="1"/>
+      <c r="GJ52" s="1"/>
+      <c r="GK52" s="1"/>
+      <c r="GL52" s="1"/>
+      <c r="GM52" s="1"/>
+      <c r="GN52" s="1"/>
+      <c r="GO52" s="1"/>
+      <c r="GP52" s="1"/>
+      <c r="GQ52" s="1"/>
+      <c r="GR52" s="1"/>
+      <c r="GS52" s="1"/>
+      <c r="GT52" s="1"/>
+      <c r="GU52" s="1"/>
+      <c r="GV52" s="1"/>
+      <c r="GW52" s="1"/>
+      <c r="GX52" s="1"/>
+      <c r="GY52" s="1"/>
+      <c r="GZ52" s="1"/>
+      <c r="HA52" s="1"/>
+      <c r="HB52" s="1"/>
+      <c r="HC52" s="1"/>
+      <c r="HD52" s="1"/>
+      <c r="HE52" s="1"/>
+      <c r="HF52" s="1"/>
+      <c r="HG52" s="1"/>
+      <c r="HH52" s="1"/>
+      <c r="HI52" s="1"/>
+      <c r="HJ52" s="1"/>
+      <c r="HK52" s="1"/>
+      <c r="HL52" s="1"/>
+      <c r="HM52" s="1"/>
+      <c r="HN52" s="1"/>
+      <c r="HO52" s="1"/>
+      <c r="HP52" s="1"/>
+      <c r="HQ52" s="1"/>
+      <c r="HR52" s="1"/>
+      <c r="HS52" s="1"/>
+      <c r="HT52" s="1"/>
+      <c r="HU52" s="1"/>
+      <c r="HV52" s="1"/>
+      <c r="HW52" s="1"/>
+      <c r="HX52" s="1"/>
+      <c r="HY52" s="1"/>
+      <c r="HZ52" s="1"/>
+      <c r="IA52" s="1"/>
+      <c r="IB52" s="1"/>
+      <c r="IC52" s="1"/>
+      <c r="ID52" s="1"/>
+      <c r="IE52" s="1"/>
+      <c r="IF52" s="1"/>
+      <c r="IG52" s="1"/>
+      <c r="IH52" s="1"/>
+      <c r="II52" s="1"/>
+      <c r="IJ52" s="1"/>
+      <c r="IK52" s="1"/>
+      <c r="IL52" s="1"/>
+      <c r="IM52" s="1"/>
+      <c r="IN52" s="1"/>
+      <c r="IO52" s="1"/>
+      <c r="IP52" s="1"/>
+      <c r="IQ52" s="1"/>
+      <c r="IR52" s="1"/>
+      <c r="IS52" s="1"/>
+    </row>
+    <row r="53" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
+        <v>24</v>
+      </c>
+      <c r="B53" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="23">
+        <v>0</v>
+      </c>
+      <c r="E53" s="31">
+        <v>45276</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="37"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1"/>
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
+      <c r="CW53" s="1"/>
+      <c r="CX53" s="1"/>
+      <c r="CY53" s="1"/>
+      <c r="CZ53" s="1"/>
+      <c r="DA53" s="1"/>
+      <c r="DB53" s="1"/>
+      <c r="DC53" s="1"/>
+      <c r="DD53" s="1"/>
+      <c r="DE53" s="1"/>
+      <c r="DF53" s="1"/>
+      <c r="DG53" s="1"/>
+      <c r="DH53" s="1"/>
+      <c r="DI53" s="1"/>
+      <c r="DJ53" s="1"/>
+      <c r="DK53" s="1"/>
+      <c r="DL53" s="1"/>
+      <c r="DM53" s="1"/>
+      <c r="DN53" s="1"/>
+      <c r="DO53" s="1"/>
+      <c r="DP53" s="1"/>
+      <c r="DQ53" s="1"/>
+      <c r="DR53" s="1"/>
+      <c r="DS53" s="1"/>
+      <c r="DT53" s="1"/>
+      <c r="DU53" s="1"/>
+      <c r="DV53" s="1"/>
+      <c r="DW53" s="1"/>
+      <c r="DX53" s="1"/>
+      <c r="DY53" s="1"/>
+      <c r="DZ53" s="1"/>
+      <c r="EA53" s="1"/>
+      <c r="EB53" s="1"/>
+      <c r="EC53" s="1"/>
+      <c r="ED53" s="1"/>
+      <c r="EE53" s="1"/>
+      <c r="EF53" s="1"/>
+      <c r="EG53" s="1"/>
+      <c r="EH53" s="1"/>
+      <c r="EI53" s="1"/>
+      <c r="EJ53" s="1"/>
+      <c r="EK53" s="1"/>
+      <c r="EL53" s="1"/>
+      <c r="EM53" s="1"/>
+      <c r="EN53" s="1"/>
+      <c r="EO53" s="1"/>
+      <c r="EP53" s="1"/>
+      <c r="EQ53" s="1"/>
+      <c r="ER53" s="1"/>
+      <c r="ES53" s="1"/>
+      <c r="ET53" s="1"/>
+      <c r="EU53" s="1"/>
+      <c r="EV53" s="1"/>
+      <c r="EW53" s="1"/>
+      <c r="EX53" s="1"/>
+      <c r="EY53" s="1"/>
+      <c r="EZ53" s="1"/>
+      <c r="FA53" s="1"/>
+      <c r="FB53" s="1"/>
+      <c r="FC53" s="1"/>
+      <c r="FD53" s="1"/>
+      <c r="FE53" s="1"/>
+      <c r="FF53" s="1"/>
+      <c r="FG53" s="1"/>
+      <c r="FH53" s="1"/>
+      <c r="FI53" s="1"/>
+      <c r="FJ53" s="1"/>
+      <c r="FK53" s="1"/>
+      <c r="FL53" s="1"/>
+      <c r="FM53" s="1"/>
+      <c r="FN53" s="1"/>
+      <c r="FO53" s="1"/>
+      <c r="FP53" s="1"/>
+      <c r="FQ53" s="1"/>
+      <c r="FR53" s="1"/>
+      <c r="FS53" s="1"/>
+      <c r="FT53" s="1"/>
+      <c r="FU53" s="1"/>
+      <c r="FV53" s="1"/>
+      <c r="FW53" s="1"/>
+      <c r="FX53" s="1"/>
+      <c r="FY53" s="1"/>
+      <c r="FZ53" s="1"/>
+      <c r="GA53" s="1"/>
+      <c r="GB53" s="1"/>
+      <c r="GC53" s="1"/>
+      <c r="GD53" s="1"/>
+      <c r="GE53" s="1"/>
+      <c r="GF53" s="1"/>
+      <c r="GG53" s="1"/>
+      <c r="GH53" s="1"/>
+      <c r="GI53" s="1"/>
+      <c r="GJ53" s="1"/>
+      <c r="GK53" s="1"/>
+      <c r="GL53" s="1"/>
+      <c r="GM53" s="1"/>
+      <c r="GN53" s="1"/>
+      <c r="GO53" s="1"/>
+      <c r="GP53" s="1"/>
+      <c r="GQ53" s="1"/>
+      <c r="GR53" s="1"/>
+      <c r="GS53" s="1"/>
+      <c r="GT53" s="1"/>
+      <c r="GU53" s="1"/>
+      <c r="GV53" s="1"/>
+      <c r="GW53" s="1"/>
+      <c r="GX53" s="1"/>
+      <c r="GY53" s="1"/>
+      <c r="GZ53" s="1"/>
+      <c r="HA53" s="1"/>
+      <c r="HB53" s="1"/>
+      <c r="HC53" s="1"/>
+      <c r="HD53" s="1"/>
+      <c r="HE53" s="1"/>
+      <c r="HF53" s="1"/>
+      <c r="HG53" s="1"/>
+      <c r="HH53" s="1"/>
+      <c r="HI53" s="1"/>
+      <c r="HJ53" s="1"/>
+      <c r="HK53" s="1"/>
+      <c r="HL53" s="1"/>
+      <c r="HM53" s="1"/>
+      <c r="HN53" s="1"/>
+      <c r="HO53" s="1"/>
+      <c r="HP53" s="1"/>
+      <c r="HQ53" s="1"/>
+      <c r="HR53" s="1"/>
+      <c r="HS53" s="1"/>
+      <c r="HT53" s="1"/>
+      <c r="HU53" s="1"/>
+      <c r="HV53" s="1"/>
+      <c r="HW53" s="1"/>
+      <c r="HX53" s="1"/>
+      <c r="HY53" s="1"/>
+      <c r="HZ53" s="1"/>
+      <c r="IA53" s="1"/>
+      <c r="IB53" s="1"/>
+      <c r="IC53" s="1"/>
+      <c r="ID53" s="1"/>
+      <c r="IE53" s="1"/>
+      <c r="IF53" s="1"/>
+      <c r="IG53" s="1"/>
+      <c r="IH53" s="1"/>
+      <c r="II53" s="1"/>
+      <c r="IJ53" s="1"/>
+      <c r="IK53" s="1"/>
+      <c r="IL53" s="1"/>
+      <c r="IM53" s="1"/>
+      <c r="IN53" s="1"/>
+      <c r="IO53" s="1"/>
+      <c r="IP53" s="1"/>
+      <c r="IQ53" s="1"/>
+      <c r="IR53" s="1"/>
+      <c r="IS53" s="1"/>
+    </row>
+    <row r="54" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
+        <v>25</v>
+      </c>
+      <c r="B54" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0</v>
+      </c>
+      <c r="E54" s="31">
+        <v>45276</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="3"/>
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="37"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+      <c r="CA54" s="1"/>
+      <c r="CB54" s="1"/>
+      <c r="CC54" s="1"/>
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CL54" s="1"/>
+      <c r="CM54" s="1"/>
+      <c r="CN54" s="1"/>
+      <c r="CO54" s="1"/>
+      <c r="CP54" s="1"/>
+      <c r="CQ54" s="1"/>
+      <c r="CR54" s="1"/>
+      <c r="CS54" s="1"/>
+      <c r="CT54" s="1"/>
+      <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
+      <c r="CW54" s="1"/>
+      <c r="CX54" s="1"/>
+      <c r="CY54" s="1"/>
+      <c r="CZ54" s="1"/>
+      <c r="DA54" s="1"/>
+      <c r="DB54" s="1"/>
+      <c r="DC54" s="1"/>
+      <c r="DD54" s="1"/>
+      <c r="DE54" s="1"/>
+      <c r="DF54" s="1"/>
+      <c r="DG54" s="1"/>
+      <c r="DH54" s="1"/>
+      <c r="DI54" s="1"/>
+      <c r="DJ54" s="1"/>
+      <c r="DK54" s="1"/>
+      <c r="DL54" s="1"/>
+      <c r="DM54" s="1"/>
+      <c r="DN54" s="1"/>
+      <c r="DO54" s="1"/>
+      <c r="DP54" s="1"/>
+      <c r="DQ54" s="1"/>
+      <c r="DR54" s="1"/>
+      <c r="DS54" s="1"/>
+      <c r="DT54" s="1"/>
+      <c r="DU54" s="1"/>
+      <c r="DV54" s="1"/>
+      <c r="DW54" s="1"/>
+      <c r="DX54" s="1"/>
+      <c r="DY54" s="1"/>
+      <c r="DZ54" s="1"/>
+      <c r="EA54" s="1"/>
+      <c r="EB54" s="1"/>
+      <c r="EC54" s="1"/>
+      <c r="ED54" s="1"/>
+      <c r="EE54" s="1"/>
+      <c r="EF54" s="1"/>
+      <c r="EG54" s="1"/>
+      <c r="EH54" s="1"/>
+      <c r="EI54" s="1"/>
+      <c r="EJ54" s="1"/>
+      <c r="EK54" s="1"/>
+      <c r="EL54" s="1"/>
+      <c r="EM54" s="1"/>
+      <c r="EN54" s="1"/>
+      <c r="EO54" s="1"/>
+      <c r="EP54" s="1"/>
+      <c r="EQ54" s="1"/>
+      <c r="ER54" s="1"/>
+      <c r="ES54" s="1"/>
+      <c r="ET54" s="1"/>
+      <c r="EU54" s="1"/>
+      <c r="EV54" s="1"/>
+      <c r="EW54" s="1"/>
+      <c r="EX54" s="1"/>
+      <c r="EY54" s="1"/>
+      <c r="EZ54" s="1"/>
+      <c r="FA54" s="1"/>
+      <c r="FB54" s="1"/>
+      <c r="FC54" s="1"/>
+      <c r="FD54" s="1"/>
+      <c r="FE54" s="1"/>
+      <c r="FF54" s="1"/>
+      <c r="FG54" s="1"/>
+      <c r="FH54" s="1"/>
+      <c r="FI54" s="1"/>
+      <c r="FJ54" s="1"/>
+      <c r="FK54" s="1"/>
+      <c r="FL54" s="1"/>
+      <c r="FM54" s="1"/>
+      <c r="FN54" s="1"/>
+      <c r="FO54" s="1"/>
+      <c r="FP54" s="1"/>
+      <c r="FQ54" s="1"/>
+      <c r="FR54" s="1"/>
+      <c r="FS54" s="1"/>
+      <c r="FT54" s="1"/>
+      <c r="FU54" s="1"/>
+      <c r="FV54" s="1"/>
+      <c r="FW54" s="1"/>
+      <c r="FX54" s="1"/>
+      <c r="FY54" s="1"/>
+      <c r="FZ54" s="1"/>
+      <c r="GA54" s="1"/>
+      <c r="GB54" s="1"/>
+      <c r="GC54" s="1"/>
+      <c r="GD54" s="1"/>
+      <c r="GE54" s="1"/>
+      <c r="GF54" s="1"/>
+      <c r="GG54" s="1"/>
+      <c r="GH54" s="1"/>
+      <c r="GI54" s="1"/>
+      <c r="GJ54" s="1"/>
+      <c r="GK54" s="1"/>
+      <c r="GL54" s="1"/>
+      <c r="GM54" s="1"/>
+      <c r="GN54" s="1"/>
+      <c r="GO54" s="1"/>
+      <c r="GP54" s="1"/>
+      <c r="GQ54" s="1"/>
+      <c r="GR54" s="1"/>
+      <c r="GS54" s="1"/>
+      <c r="GT54" s="1"/>
+      <c r="GU54" s="1"/>
+      <c r="GV54" s="1"/>
+      <c r="GW54" s="1"/>
+      <c r="GX54" s="1"/>
+      <c r="GY54" s="1"/>
+      <c r="GZ54" s="1"/>
+      <c r="HA54" s="1"/>
+      <c r="HB54" s="1"/>
+      <c r="HC54" s="1"/>
+      <c r="HD54" s="1"/>
+      <c r="HE54" s="1"/>
+      <c r="HF54" s="1"/>
+      <c r="HG54" s="1"/>
+      <c r="HH54" s="1"/>
+      <c r="HI54" s="1"/>
+      <c r="HJ54" s="1"/>
+      <c r="HK54" s="1"/>
+      <c r="HL54" s="1"/>
+      <c r="HM54" s="1"/>
+      <c r="HN54" s="1"/>
+      <c r="HO54" s="1"/>
+      <c r="HP54" s="1"/>
+      <c r="HQ54" s="1"/>
+      <c r="HR54" s="1"/>
+      <c r="HS54" s="1"/>
+      <c r="HT54" s="1"/>
+      <c r="HU54" s="1"/>
+      <c r="HV54" s="1"/>
+      <c r="HW54" s="1"/>
+      <c r="HX54" s="1"/>
+      <c r="HY54" s="1"/>
+      <c r="HZ54" s="1"/>
+      <c r="IA54" s="1"/>
+      <c r="IB54" s="1"/>
+      <c r="IC54" s="1"/>
+      <c r="ID54" s="1"/>
+      <c r="IE54" s="1"/>
+      <c r="IF54" s="1"/>
+      <c r="IG54" s="1"/>
+      <c r="IH54" s="1"/>
+      <c r="II54" s="1"/>
+      <c r="IJ54" s="1"/>
+      <c r="IK54" s="1"/>
+      <c r="IL54" s="1"/>
+      <c r="IM54" s="1"/>
+      <c r="IN54" s="1"/>
+      <c r="IO54" s="1"/>
+      <c r="IP54" s="1"/>
+      <c r="IQ54" s="1"/>
+      <c r="IR54" s="1"/>
+      <c r="IS54" s="1"/>
+    </row>
+    <row r="55" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
+        <v>26</v>
+      </c>
+      <c r="B55" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="23">
+        <v>0</v>
+      </c>
+      <c r="E55" s="31">
+        <v>45280</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="3"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+      <c r="BC55" s="3"/>
+      <c r="BD55" s="3"/>
+      <c r="BE55" s="3"/>
+      <c r="BF55" s="3"/>
+      <c r="BG55" s="3"/>
+      <c r="BH55" s="3"/>
+      <c r="BI55" s="3"/>
+      <c r="BJ55" s="3"/>
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="37"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="1"/>
+      <c r="DB55" s="1"/>
+      <c r="DC55" s="1"/>
+      <c r="DD55" s="1"/>
+      <c r="DE55" s="1"/>
+      <c r="DF55" s="1"/>
+      <c r="DG55" s="1"/>
+      <c r="DH55" s="1"/>
+      <c r="DI55" s="1"/>
+      <c r="DJ55" s="1"/>
+      <c r="DK55" s="1"/>
+      <c r="DL55" s="1"/>
+      <c r="DM55" s="1"/>
+      <c r="DN55" s="1"/>
+      <c r="DO55" s="1"/>
+      <c r="DP55" s="1"/>
+      <c r="DQ55" s="1"/>
+      <c r="DR55" s="1"/>
+      <c r="DS55" s="1"/>
+      <c r="DT55" s="1"/>
+      <c r="DU55" s="1"/>
+      <c r="DV55" s="1"/>
+      <c r="DW55" s="1"/>
+      <c r="DX55" s="1"/>
+      <c r="DY55" s="1"/>
+      <c r="DZ55" s="1"/>
+      <c r="EA55" s="1"/>
+      <c r="EB55" s="1"/>
+      <c r="EC55" s="1"/>
+      <c r="ED55" s="1"/>
+      <c r="EE55" s="1"/>
+      <c r="EF55" s="1"/>
+      <c r="EG55" s="1"/>
+      <c r="EH55" s="1"/>
+      <c r="EI55" s="1"/>
+      <c r="EJ55" s="1"/>
+      <c r="EK55" s="1"/>
+      <c r="EL55" s="1"/>
+      <c r="EM55" s="1"/>
+      <c r="EN55" s="1"/>
+      <c r="EO55" s="1"/>
+      <c r="EP55" s="1"/>
+      <c r="EQ55" s="1"/>
+      <c r="ER55" s="1"/>
+      <c r="ES55" s="1"/>
+      <c r="ET55" s="1"/>
+      <c r="EU55" s="1"/>
+      <c r="EV55" s="1"/>
+      <c r="EW55" s="1"/>
+      <c r="EX55" s="1"/>
+      <c r="EY55" s="1"/>
+      <c r="EZ55" s="1"/>
+      <c r="FA55" s="1"/>
+      <c r="FB55" s="1"/>
+      <c r="FC55" s="1"/>
+      <c r="FD55" s="1"/>
+      <c r="FE55" s="1"/>
+      <c r="FF55" s="1"/>
+      <c r="FG55" s="1"/>
+      <c r="FH55" s="1"/>
+      <c r="FI55" s="1"/>
+      <c r="FJ55" s="1"/>
+      <c r="FK55" s="1"/>
+      <c r="FL55" s="1"/>
+      <c r="FM55" s="1"/>
+      <c r="FN55" s="1"/>
+      <c r="FO55" s="1"/>
+      <c r="FP55" s="1"/>
+      <c r="FQ55" s="1"/>
+      <c r="FR55" s="1"/>
+      <c r="FS55" s="1"/>
+      <c r="FT55" s="1"/>
+      <c r="FU55" s="1"/>
+      <c r="FV55" s="1"/>
+      <c r="FW55" s="1"/>
+      <c r="FX55" s="1"/>
+      <c r="FY55" s="1"/>
+      <c r="FZ55" s="1"/>
+      <c r="GA55" s="1"/>
+      <c r="GB55" s="1"/>
+      <c r="GC55" s="1"/>
+      <c r="GD55" s="1"/>
+      <c r="GE55" s="1"/>
+      <c r="GF55" s="1"/>
+      <c r="GG55" s="1"/>
+      <c r="GH55" s="1"/>
+      <c r="GI55" s="1"/>
+      <c r="GJ55" s="1"/>
+      <c r="GK55" s="1"/>
+      <c r="GL55" s="1"/>
+      <c r="GM55" s="1"/>
+      <c r="GN55" s="1"/>
+      <c r="GO55" s="1"/>
+      <c r="GP55" s="1"/>
+      <c r="GQ55" s="1"/>
+      <c r="GR55" s="1"/>
+      <c r="GS55" s="1"/>
+      <c r="GT55" s="1"/>
+      <c r="GU55" s="1"/>
+      <c r="GV55" s="1"/>
+      <c r="GW55" s="1"/>
+      <c r="GX55" s="1"/>
+      <c r="GY55" s="1"/>
+      <c r="GZ55" s="1"/>
+      <c r="HA55" s="1"/>
+      <c r="HB55" s="1"/>
+      <c r="HC55" s="1"/>
+      <c r="HD55" s="1"/>
+      <c r="HE55" s="1"/>
+      <c r="HF55" s="1"/>
+      <c r="HG55" s="1"/>
+      <c r="HH55" s="1"/>
+      <c r="HI55" s="1"/>
+      <c r="HJ55" s="1"/>
+      <c r="HK55" s="1"/>
+      <c r="HL55" s="1"/>
+      <c r="HM55" s="1"/>
+      <c r="HN55" s="1"/>
+      <c r="HO55" s="1"/>
+      <c r="HP55" s="1"/>
+      <c r="HQ55" s="1"/>
+      <c r="HR55" s="1"/>
+      <c r="HS55" s="1"/>
+      <c r="HT55" s="1"/>
+      <c r="HU55" s="1"/>
+      <c r="HV55" s="1"/>
+      <c r="HW55" s="1"/>
+      <c r="HX55" s="1"/>
+      <c r="HY55" s="1"/>
+      <c r="HZ55" s="1"/>
+      <c r="IA55" s="1"/>
+      <c r="IB55" s="1"/>
+      <c r="IC55" s="1"/>
+      <c r="ID55" s="1"/>
+      <c r="IE55" s="1"/>
+      <c r="IF55" s="1"/>
+      <c r="IG55" s="1"/>
+      <c r="IH55" s="1"/>
+      <c r="II55" s="1"/>
+      <c r="IJ55" s="1"/>
+      <c r="IK55" s="1"/>
+      <c r="IL55" s="1"/>
+      <c r="IM55" s="1"/>
+      <c r="IN55" s="1"/>
+      <c r="IO55" s="1"/>
+      <c r="IP55" s="1"/>
+      <c r="IQ55" s="1"/>
+      <c r="IR55" s="1"/>
+      <c r="IS55" s="1"/>
+    </row>
+    <row r="56" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
+        <v>27</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="23">
+        <v>0</v>
+      </c>
+      <c r="E56" s="31">
+        <v>45280</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="3"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="3"/>
+      <c r="AY56" s="3"/>
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+      <c r="BC56" s="3"/>
+      <c r="BD56" s="3"/>
+      <c r="BE56" s="3"/>
+      <c r="BF56" s="3"/>
+      <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+      <c r="BI56" s="3"/>
+      <c r="BJ56" s="3"/>
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="37"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1"/>
+      <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
+      <c r="CZ56" s="1"/>
+      <c r="DA56" s="1"/>
+      <c r="DB56" s="1"/>
+      <c r="DC56" s="1"/>
+      <c r="DD56" s="1"/>
+      <c r="DE56" s="1"/>
+      <c r="DF56" s="1"/>
+      <c r="DG56" s="1"/>
+      <c r="DH56" s="1"/>
+      <c r="DI56" s="1"/>
+      <c r="DJ56" s="1"/>
+      <c r="DK56" s="1"/>
+      <c r="DL56" s="1"/>
+      <c r="DM56" s="1"/>
+      <c r="DN56" s="1"/>
+      <c r="DO56" s="1"/>
+      <c r="DP56" s="1"/>
+      <c r="DQ56" s="1"/>
+      <c r="DR56" s="1"/>
+      <c r="DS56" s="1"/>
+      <c r="DT56" s="1"/>
+      <c r="DU56" s="1"/>
+      <c r="DV56" s="1"/>
+      <c r="DW56" s="1"/>
+      <c r="DX56" s="1"/>
+      <c r="DY56" s="1"/>
+      <c r="DZ56" s="1"/>
+      <c r="EA56" s="1"/>
+      <c r="EB56" s="1"/>
+      <c r="EC56" s="1"/>
+      <c r="ED56" s="1"/>
+      <c r="EE56" s="1"/>
+      <c r="EF56" s="1"/>
+      <c r="EG56" s="1"/>
+      <c r="EH56" s="1"/>
+      <c r="EI56" s="1"/>
+      <c r="EJ56" s="1"/>
+      <c r="EK56" s="1"/>
+      <c r="EL56" s="1"/>
+      <c r="EM56" s="1"/>
+      <c r="EN56" s="1"/>
+      <c r="EO56" s="1"/>
+      <c r="EP56" s="1"/>
+      <c r="EQ56" s="1"/>
+      <c r="ER56" s="1"/>
+      <c r="ES56" s="1"/>
+      <c r="ET56" s="1"/>
+      <c r="EU56" s="1"/>
+      <c r="EV56" s="1"/>
+      <c r="EW56" s="1"/>
+      <c r="EX56" s="1"/>
+      <c r="EY56" s="1"/>
+      <c r="EZ56" s="1"/>
+      <c r="FA56" s="1"/>
+      <c r="FB56" s="1"/>
+      <c r="FC56" s="1"/>
+      <c r="FD56" s="1"/>
+      <c r="FE56" s="1"/>
+      <c r="FF56" s="1"/>
+      <c r="FG56" s="1"/>
+      <c r="FH56" s="1"/>
+      <c r="FI56" s="1"/>
+      <c r="FJ56" s="1"/>
+      <c r="FK56" s="1"/>
+      <c r="FL56" s="1"/>
+      <c r="FM56" s="1"/>
+      <c r="FN56" s="1"/>
+      <c r="FO56" s="1"/>
+      <c r="FP56" s="1"/>
+      <c r="FQ56" s="1"/>
+      <c r="FR56" s="1"/>
+      <c r="FS56" s="1"/>
+      <c r="FT56" s="1"/>
+      <c r="FU56" s="1"/>
+      <c r="FV56" s="1"/>
+      <c r="FW56" s="1"/>
+      <c r="FX56" s="1"/>
+      <c r="FY56" s="1"/>
+      <c r="FZ56" s="1"/>
+      <c r="GA56" s="1"/>
+      <c r="GB56" s="1"/>
+      <c r="GC56" s="1"/>
+      <c r="GD56" s="1"/>
+      <c r="GE56" s="1"/>
+      <c r="GF56" s="1"/>
+      <c r="GG56" s="1"/>
+      <c r="GH56" s="1"/>
+      <c r="GI56" s="1"/>
+      <c r="GJ56" s="1"/>
+      <c r="GK56" s="1"/>
+      <c r="GL56" s="1"/>
+      <c r="GM56" s="1"/>
+      <c r="GN56" s="1"/>
+      <c r="GO56" s="1"/>
+      <c r="GP56" s="1"/>
+      <c r="GQ56" s="1"/>
+      <c r="GR56" s="1"/>
+      <c r="GS56" s="1"/>
+      <c r="GT56" s="1"/>
+      <c r="GU56" s="1"/>
+      <c r="GV56" s="1"/>
+      <c r="GW56" s="1"/>
+      <c r="GX56" s="1"/>
+      <c r="GY56" s="1"/>
+      <c r="GZ56" s="1"/>
+      <c r="HA56" s="1"/>
+      <c r="HB56" s="1"/>
+      <c r="HC56" s="1"/>
+      <c r="HD56" s="1"/>
+      <c r="HE56" s="1"/>
+      <c r="HF56" s="1"/>
+      <c r="HG56" s="1"/>
+      <c r="HH56" s="1"/>
+      <c r="HI56" s="1"/>
+      <c r="HJ56" s="1"/>
+      <c r="HK56" s="1"/>
+      <c r="HL56" s="1"/>
+      <c r="HM56" s="1"/>
+      <c r="HN56" s="1"/>
+      <c r="HO56" s="1"/>
+      <c r="HP56" s="1"/>
+      <c r="HQ56" s="1"/>
+      <c r="HR56" s="1"/>
+      <c r="HS56" s="1"/>
+      <c r="HT56" s="1"/>
+      <c r="HU56" s="1"/>
+      <c r="HV56" s="1"/>
+      <c r="HW56" s="1"/>
+      <c r="HX56" s="1"/>
+      <c r="HY56" s="1"/>
+      <c r="HZ56" s="1"/>
+      <c r="IA56" s="1"/>
+      <c r="IB56" s="1"/>
+      <c r="IC56" s="1"/>
+      <c r="ID56" s="1"/>
+      <c r="IE56" s="1"/>
+      <c r="IF56" s="1"/>
+      <c r="IG56" s="1"/>
+      <c r="IH56" s="1"/>
+      <c r="II56" s="1"/>
+      <c r="IJ56" s="1"/>
+      <c r="IK56" s="1"/>
+      <c r="IL56" s="1"/>
+      <c r="IM56" s="1"/>
+      <c r="IN56" s="1"/>
+      <c r="IO56" s="1"/>
+      <c r="IP56" s="1"/>
+      <c r="IQ56" s="1"/>
+      <c r="IR56" s="1"/>
+      <c r="IS56" s="1"/>
+    </row>
+    <row r="57" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
+        <v>28</v>
+      </c>
+      <c r="B57" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="23">
+        <v>0</v>
+      </c>
+      <c r="E57" s="31">
+        <v>45280</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="3"/>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="3"/>
+      <c r="BD57" s="3"/>
+      <c r="BE57" s="3"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+      <c r="BI57" s="3"/>
+      <c r="BJ57" s="3"/>
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="37"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1"/>
+      <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
+      <c r="CW57" s="1"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="1"/>
+      <c r="CZ57" s="1"/>
+      <c r="DA57" s="1"/>
+      <c r="DB57" s="1"/>
+      <c r="DC57" s="1"/>
+      <c r="DD57" s="1"/>
+      <c r="DE57" s="1"/>
+      <c r="DF57" s="1"/>
+      <c r="DG57" s="1"/>
+      <c r="DH57" s="1"/>
+      <c r="DI57" s="1"/>
+      <c r="DJ57" s="1"/>
+      <c r="DK57" s="1"/>
+      <c r="DL57" s="1"/>
+      <c r="DM57" s="1"/>
+      <c r="DN57" s="1"/>
+      <c r="DO57" s="1"/>
+      <c r="DP57" s="1"/>
+      <c r="DQ57" s="1"/>
+      <c r="DR57" s="1"/>
+      <c r="DS57" s="1"/>
+      <c r="DT57" s="1"/>
+      <c r="DU57" s="1"/>
+      <c r="DV57" s="1"/>
+      <c r="DW57" s="1"/>
+      <c r="DX57" s="1"/>
+      <c r="DY57" s="1"/>
+      <c r="DZ57" s="1"/>
+      <c r="EA57" s="1"/>
+      <c r="EB57" s="1"/>
+      <c r="EC57" s="1"/>
+      <c r="ED57" s="1"/>
+      <c r="EE57" s="1"/>
+      <c r="EF57" s="1"/>
+      <c r="EG57" s="1"/>
+      <c r="EH57" s="1"/>
+      <c r="EI57" s="1"/>
+      <c r="EJ57" s="1"/>
+      <c r="EK57" s="1"/>
+      <c r="EL57" s="1"/>
+      <c r="EM57" s="1"/>
+      <c r="EN57" s="1"/>
+      <c r="EO57" s="1"/>
+      <c r="EP57" s="1"/>
+      <c r="EQ57" s="1"/>
+      <c r="ER57" s="1"/>
+      <c r="ES57" s="1"/>
+      <c r="ET57" s="1"/>
+      <c r="EU57" s="1"/>
+      <c r="EV57" s="1"/>
+      <c r="EW57" s="1"/>
+      <c r="EX57" s="1"/>
+      <c r="EY57" s="1"/>
+      <c r="EZ57" s="1"/>
+      <c r="FA57" s="1"/>
+      <c r="FB57" s="1"/>
+      <c r="FC57" s="1"/>
+      <c r="FD57" s="1"/>
+      <c r="FE57" s="1"/>
+      <c r="FF57" s="1"/>
+      <c r="FG57" s="1"/>
+      <c r="FH57" s="1"/>
+      <c r="FI57" s="1"/>
+      <c r="FJ57" s="1"/>
+      <c r="FK57" s="1"/>
+      <c r="FL57" s="1"/>
+      <c r="FM57" s="1"/>
+      <c r="FN57" s="1"/>
+      <c r="FO57" s="1"/>
+      <c r="FP57" s="1"/>
+      <c r="FQ57" s="1"/>
+      <c r="FR57" s="1"/>
+      <c r="FS57" s="1"/>
+      <c r="FT57" s="1"/>
+      <c r="FU57" s="1"/>
+      <c r="FV57" s="1"/>
+      <c r="FW57" s="1"/>
+      <c r="FX57" s="1"/>
+      <c r="FY57" s="1"/>
+      <c r="FZ57" s="1"/>
+      <c r="GA57" s="1"/>
+      <c r="GB57" s="1"/>
+      <c r="GC57" s="1"/>
+      <c r="GD57" s="1"/>
+      <c r="GE57" s="1"/>
+      <c r="GF57" s="1"/>
+      <c r="GG57" s="1"/>
+      <c r="GH57" s="1"/>
+      <c r="GI57" s="1"/>
+      <c r="GJ57" s="1"/>
+      <c r="GK57" s="1"/>
+      <c r="GL57" s="1"/>
+      <c r="GM57" s="1"/>
+      <c r="GN57" s="1"/>
+      <c r="GO57" s="1"/>
+      <c r="GP57" s="1"/>
+      <c r="GQ57" s="1"/>
+      <c r="GR57" s="1"/>
+      <c r="GS57" s="1"/>
+      <c r="GT57" s="1"/>
+      <c r="GU57" s="1"/>
+      <c r="GV57" s="1"/>
+      <c r="GW57" s="1"/>
+      <c r="GX57" s="1"/>
+      <c r="GY57" s="1"/>
+      <c r="GZ57" s="1"/>
+      <c r="HA57" s="1"/>
+      <c r="HB57" s="1"/>
+      <c r="HC57" s="1"/>
+      <c r="HD57" s="1"/>
+      <c r="HE57" s="1"/>
+      <c r="HF57" s="1"/>
+      <c r="HG57" s="1"/>
+      <c r="HH57" s="1"/>
+      <c r="HI57" s="1"/>
+      <c r="HJ57" s="1"/>
+      <c r="HK57" s="1"/>
+      <c r="HL57" s="1"/>
+      <c r="HM57" s="1"/>
+      <c r="HN57" s="1"/>
+      <c r="HO57" s="1"/>
+      <c r="HP57" s="1"/>
+      <c r="HQ57" s="1"/>
+      <c r="HR57" s="1"/>
+      <c r="HS57" s="1"/>
+      <c r="HT57" s="1"/>
+      <c r="HU57" s="1"/>
+      <c r="HV57" s="1"/>
+      <c r="HW57" s="1"/>
+      <c r="HX57" s="1"/>
+      <c r="HY57" s="1"/>
+      <c r="HZ57" s="1"/>
+      <c r="IA57" s="1"/>
+      <c r="IB57" s="1"/>
+      <c r="IC57" s="1"/>
+      <c r="ID57" s="1"/>
+      <c r="IE57" s="1"/>
+      <c r="IF57" s="1"/>
+      <c r="IG57" s="1"/>
+      <c r="IH57" s="1"/>
+      <c r="II57" s="1"/>
+      <c r="IJ57" s="1"/>
+      <c r="IK57" s="1"/>
+      <c r="IL57" s="1"/>
+      <c r="IM57" s="1"/>
+      <c r="IN57" s="1"/>
+      <c r="IO57" s="1"/>
+      <c r="IP57" s="1"/>
+      <c r="IQ57" s="1"/>
+      <c r="IR57" s="1"/>
+      <c r="IS57" s="1"/>
+    </row>
+    <row r="58" spans="1:253" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="68"/>
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="84"/>
+      <c r="AJ58" s="84"/>
+      <c r="AK58" s="84"/>
+      <c r="AL58" s="84"/>
+      <c r="AM58" s="84"/>
+      <c r="AN58" s="84"/>
+      <c r="AO58" s="84"/>
+      <c r="AP58" s="84"/>
+      <c r="AQ58" s="84"/>
+      <c r="AR58" s="84"/>
+      <c r="AS58" s="84"/>
+      <c r="AT58" s="84"/>
+      <c r="AU58" s="84"/>
+      <c r="AV58" s="84"/>
+      <c r="AW58" s="84"/>
+      <c r="AX58" s="84"/>
+      <c r="AY58" s="84"/>
+      <c r="AZ58" s="84"/>
+      <c r="BA58" s="84"/>
+      <c r="BB58" s="84"/>
+      <c r="BC58" s="84"/>
+      <c r="BD58" s="84"/>
+      <c r="BE58" s="84"/>
+      <c r="BF58" s="84"/>
+      <c r="BG58" s="84"/>
+      <c r="BH58" s="84"/>
+      <c r="BI58" s="84"/>
+      <c r="BJ58" s="84"/>
+      <c r="BK58" s="84"/>
+      <c r="BL58" s="84"/>
+    </row>
+    <row r="59" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A59" s="26">
+        <v>1</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="53">
+        <v>0</v>
+      </c>
+      <c r="E59" s="65">
+        <v>45286</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="45"/>
+      <c r="AD59" s="45"/>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="63"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="63"/>
+      <c r="AK59" s="63"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="63"/>
+      <c r="AN59" s="63"/>
+      <c r="AO59" s="48"/>
+      <c r="AP59" s="48"/>
+      <c r="AQ59" s="48"/>
+      <c r="AR59" s="48"/>
+      <c r="AS59" s="48"/>
+      <c r="AT59" s="48"/>
+      <c r="AU59" s="48"/>
+      <c r="AV59" s="48"/>
+      <c r="AW59" s="48"/>
+      <c r="AX59" s="48"/>
+      <c r="AY59" s="48"/>
+      <c r="AZ59" s="48"/>
+      <c r="BA59" s="48"/>
+      <c r="BB59" s="48"/>
+      <c r="BC59" s="48"/>
+      <c r="BD59" s="48"/>
+      <c r="BE59" s="48"/>
+      <c r="BF59" s="48"/>
+      <c r="BG59" s="48"/>
+      <c r="BH59" s="48"/>
+      <c r="BI59" s="48"/>
+      <c r="BJ59" s="48"/>
+      <c r="BK59" s="48"/>
+      <c r="BL59" s="66"/>
+      <c r="BM59" s="44"/>
+      <c r="BN59" s="44"/>
+      <c r="BO59" s="44"/>
+      <c r="BP59" s="44"/>
+      <c r="BQ59" s="44"/>
+      <c r="BR59" s="44"/>
+      <c r="BS59" s="44"/>
+      <c r="BT59" s="44"/>
+      <c r="BU59" s="44"/>
+      <c r="BV59" s="44"/>
+      <c r="BW59" s="44"/>
+      <c r="BX59" s="44"/>
+      <c r="BY59" s="44"/>
+      <c r="BZ59" s="44"/>
+      <c r="CA59" s="44"/>
+      <c r="CB59" s="44"/>
+      <c r="CC59" s="44"/>
+      <c r="CD59" s="44"/>
+      <c r="CE59" s="44"/>
+      <c r="CF59" s="44"/>
+      <c r="CG59" s="44"/>
+      <c r="CH59" s="44"/>
+      <c r="CI59" s="44"/>
+      <c r="CJ59" s="44"/>
+      <c r="CK59" s="44"/>
+      <c r="CL59" s="44"/>
+      <c r="CM59" s="44"/>
+      <c r="CN59" s="44"/>
+      <c r="CO59" s="44"/>
+      <c r="CP59" s="44"/>
+      <c r="CQ59" s="44"/>
+      <c r="CR59" s="44"/>
+      <c r="CS59" s="44"/>
+      <c r="CT59" s="44"/>
+      <c r="CU59" s="44"/>
+      <c r="CV59" s="44"/>
+      <c r="CW59" s="44"/>
+      <c r="CX59" s="44"/>
+      <c r="CY59" s="44"/>
+      <c r="CZ59" s="44"/>
+      <c r="DA59" s="44"/>
+      <c r="DB59" s="44"/>
+      <c r="DC59" s="44"/>
+      <c r="DD59" s="44"/>
+      <c r="DE59" s="44"/>
+      <c r="DF59" s="44"/>
+      <c r="DG59" s="44"/>
+      <c r="DH59" s="44"/>
+      <c r="DI59" s="44"/>
+      <c r="DJ59" s="44"/>
+      <c r="DK59" s="44"/>
+      <c r="DL59" s="44"/>
+      <c r="DM59" s="44"/>
+      <c r="DN59" s="44"/>
+      <c r="DO59" s="44"/>
+      <c r="DP59" s="44"/>
+      <c r="DQ59" s="44"/>
+      <c r="DR59" s="44"/>
+      <c r="DS59" s="44"/>
+      <c r="DT59" s="44"/>
+      <c r="DU59" s="44"/>
+      <c r="DV59" s="44"/>
+      <c r="DW59" s="44"/>
+      <c r="DX59" s="44"/>
+      <c r="DY59" s="44"/>
+      <c r="DZ59" s="44"/>
+      <c r="EA59" s="44"/>
+      <c r="EB59" s="44"/>
+      <c r="EC59" s="44"/>
+      <c r="ED59" s="44"/>
+      <c r="EE59" s="44"/>
+      <c r="EF59" s="44"/>
+      <c r="EG59" s="44"/>
+      <c r="EH59" s="44"/>
+      <c r="EI59" s="44"/>
+      <c r="EJ59" s="44"/>
+      <c r="EK59" s="44"/>
+      <c r="EL59" s="44"/>
+      <c r="EM59" s="44"/>
+      <c r="EN59" s="44"/>
+      <c r="EO59" s="44"/>
+      <c r="EP59" s="44"/>
+      <c r="EQ59" s="44"/>
+      <c r="ER59" s="44"/>
+      <c r="ES59" s="44"/>
+      <c r="ET59" s="44"/>
+      <c r="EU59" s="44"/>
+      <c r="EV59" s="44"/>
+      <c r="EW59" s="44"/>
+      <c r="EX59" s="44"/>
+      <c r="EY59" s="44"/>
+      <c r="EZ59" s="44"/>
+      <c r="FA59" s="44"/>
+      <c r="FB59" s="44"/>
+      <c r="FC59" s="44"/>
+      <c r="FD59" s="44"/>
+      <c r="FE59" s="44"/>
+      <c r="FF59" s="44"/>
+      <c r="FG59" s="44"/>
+      <c r="FH59" s="44"/>
+      <c r="FI59" s="44"/>
+      <c r="FJ59" s="44"/>
+      <c r="FK59" s="44"/>
+      <c r="FL59" s="44"/>
+      <c r="FM59" s="44"/>
+      <c r="FN59" s="44"/>
+      <c r="FO59" s="44"/>
+      <c r="FP59" s="44"/>
+      <c r="FQ59" s="44"/>
+      <c r="FR59" s="44"/>
+      <c r="FS59" s="44"/>
+      <c r="FT59" s="44"/>
+      <c r="FU59" s="44"/>
+      <c r="FV59" s="44"/>
+      <c r="FW59" s="44"/>
+      <c r="FX59" s="44"/>
+      <c r="FY59" s="44"/>
+      <c r="FZ59" s="44"/>
+      <c r="GA59" s="44"/>
+      <c r="GB59" s="44"/>
+      <c r="GC59" s="44"/>
+      <c r="GD59" s="44"/>
+      <c r="GE59" s="44"/>
+      <c r="GF59" s="44"/>
+      <c r="GG59" s="44"/>
+      <c r="GH59" s="44"/>
+      <c r="GI59" s="44"/>
+      <c r="GJ59" s="44"/>
+      <c r="GK59" s="44"/>
+      <c r="GL59" s="44"/>
+      <c r="GM59" s="44"/>
+      <c r="GN59" s="44"/>
+      <c r="GO59" s="44"/>
+      <c r="GP59" s="44"/>
+      <c r="GQ59" s="44"/>
+      <c r="GR59" s="44"/>
+      <c r="GS59" s="44"/>
+      <c r="GT59" s="44"/>
+      <c r="GU59" s="44"/>
+      <c r="GV59" s="44"/>
+      <c r="GW59" s="44"/>
+      <c r="GX59" s="44"/>
+      <c r="GY59" s="44"/>
+      <c r="GZ59" s="44"/>
+      <c r="HA59" s="44"/>
+      <c r="HB59" s="44"/>
+      <c r="HC59" s="44"/>
+      <c r="HD59" s="44"/>
+      <c r="HE59" s="44"/>
+      <c r="HF59" s="44"/>
+      <c r="HG59" s="44"/>
+      <c r="HH59" s="44"/>
+      <c r="HI59" s="44"/>
+      <c r="HJ59" s="44"/>
+      <c r="HK59" s="44"/>
+      <c r="HL59" s="44"/>
+      <c r="HM59" s="44"/>
+      <c r="HN59" s="44"/>
+      <c r="HO59" s="44"/>
+      <c r="HP59" s="44"/>
+      <c r="HQ59" s="44"/>
+      <c r="HR59" s="44"/>
+      <c r="HS59" s="44"/>
+      <c r="HT59" s="44"/>
+      <c r="HU59" s="44"/>
+      <c r="HV59" s="44"/>
+      <c r="HW59" s="44"/>
+      <c r="HX59" s="44"/>
+      <c r="HY59" s="44"/>
+      <c r="HZ59" s="44"/>
+      <c r="IA59" s="44"/>
+      <c r="IB59" s="44"/>
+      <c r="IC59" s="44"/>
+      <c r="ID59" s="44"/>
+      <c r="IE59" s="44"/>
+      <c r="IF59" s="44"/>
+      <c r="IG59" s="44"/>
+      <c r="IH59" s="44"/>
+      <c r="II59" s="44"/>
+      <c r="IJ59" s="44"/>
+      <c r="IK59" s="44"/>
+      <c r="IL59" s="44"/>
+      <c r="IM59" s="44"/>
+      <c r="IN59" s="44"/>
+      <c r="IO59" s="44"/>
+      <c r="IP59" s="44"/>
+      <c r="IQ59" s="44"/>
+      <c r="IR59" s="44"/>
+      <c r="IS59" s="44"/>
+    </row>
+    <row r="60" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="40">
+        <v>45270</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18"/>
+      <c r="AQ60" s="18"/>
+      <c r="AR60" s="18"/>
+      <c r="AS60" s="18"/>
+      <c r="AT60" s="18"/>
+      <c r="AU60" s="18"/>
+      <c r="AV60" s="18"/>
+      <c r="AW60" s="18"/>
+      <c r="AX60" s="18"/>
+      <c r="AY60" s="18"/>
+      <c r="AZ60" s="18"/>
+      <c r="BA60" s="18"/>
+      <c r="BB60" s="18"/>
+      <c r="BC60" s="18"/>
+      <c r="BD60" s="18"/>
+      <c r="BE60" s="18"/>
+      <c r="BF60" s="18"/>
+      <c r="BG60" s="18"/>
+      <c r="BH60" s="18"/>
+      <c r="BI60" s="18"/>
+      <c r="BJ60" s="18"/>
+      <c r="BK60" s="18"/>
+      <c r="BL60" s="38"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1"/>
+      <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
+      <c r="CT60" s="1"/>
+      <c r="CU60" s="1"/>
+      <c r="CV60" s="1"/>
+      <c r="CW60" s="1"/>
+      <c r="CX60" s="1"/>
+      <c r="CY60" s="1"/>
+      <c r="CZ60" s="1"/>
+      <c r="DA60" s="1"/>
+      <c r="DB60" s="1"/>
+      <c r="DC60" s="1"/>
+      <c r="DD60" s="1"/>
+      <c r="DE60" s="1"/>
+      <c r="DF60" s="1"/>
+      <c r="DG60" s="1"/>
+      <c r="DH60" s="1"/>
+      <c r="DI60" s="1"/>
+      <c r="DJ60" s="1"/>
+      <c r="DK60" s="1"/>
+      <c r="DL60" s="1"/>
+      <c r="DM60" s="1"/>
+      <c r="DN60" s="1"/>
+      <c r="DO60" s="1"/>
+      <c r="DP60" s="1"/>
+      <c r="DQ60" s="1"/>
+      <c r="DR60" s="1"/>
+      <c r="DS60" s="1"/>
+      <c r="DT60" s="1"/>
+      <c r="DU60" s="1"/>
+      <c r="DV60" s="1"/>
+      <c r="DW60" s="1"/>
+      <c r="DX60" s="1"/>
+      <c r="DY60" s="1"/>
+      <c r="DZ60" s="1"/>
+      <c r="EA60" s="1"/>
+      <c r="EB60" s="1"/>
+      <c r="EC60" s="1"/>
+      <c r="ED60" s="1"/>
+      <c r="EE60" s="1"/>
+      <c r="EF60" s="1"/>
+      <c r="EG60" s="1"/>
+      <c r="EH60" s="1"/>
+      <c r="EI60" s="1"/>
+      <c r="EJ60" s="1"/>
+      <c r="EK60" s="1"/>
+      <c r="EL60" s="1"/>
+      <c r="EM60" s="1"/>
+      <c r="EN60" s="1"/>
+      <c r="EO60" s="1"/>
+      <c r="EP60" s="1"/>
+      <c r="EQ60" s="1"/>
+      <c r="ER60" s="1"/>
+      <c r="ES60" s="1"/>
+      <c r="ET60" s="1"/>
+      <c r="EU60" s="1"/>
+      <c r="EV60" s="1"/>
+      <c r="EW60" s="1"/>
+      <c r="EX60" s="1"/>
+      <c r="EY60" s="1"/>
+      <c r="EZ60" s="1"/>
+      <c r="FA60" s="1"/>
+      <c r="FB60" s="1"/>
+      <c r="FC60" s="1"/>
+      <c r="FD60" s="1"/>
+      <c r="FE60" s="1"/>
+      <c r="FF60" s="1"/>
+      <c r="FG60" s="1"/>
+      <c r="FH60" s="1"/>
+      <c r="FI60" s="1"/>
+      <c r="FJ60" s="1"/>
+      <c r="FK60" s="1"/>
+      <c r="FL60" s="1"/>
+      <c r="FM60" s="1"/>
+      <c r="FN60" s="1"/>
+      <c r="FO60" s="1"/>
+      <c r="FP60" s="1"/>
+      <c r="FQ60" s="1"/>
+      <c r="FR60" s="1"/>
+      <c r="FS60" s="1"/>
+      <c r="FT60" s="1"/>
+      <c r="FU60" s="1"/>
+      <c r="FV60" s="1"/>
+      <c r="FW60" s="1"/>
+      <c r="FX60" s="1"/>
+      <c r="FY60" s="1"/>
+      <c r="FZ60" s="1"/>
+      <c r="GA60" s="1"/>
+      <c r="GB60" s="1"/>
+      <c r="GC60" s="1"/>
+      <c r="GD60" s="1"/>
+      <c r="GE60" s="1"/>
+      <c r="GF60" s="1"/>
+      <c r="GG60" s="1"/>
+      <c r="GH60" s="1"/>
+      <c r="GI60" s="1"/>
+      <c r="GJ60" s="1"/>
+      <c r="GK60" s="1"/>
+      <c r="GL60" s="1"/>
+      <c r="GM60" s="1"/>
+      <c r="GN60" s="1"/>
+      <c r="GO60" s="1"/>
+      <c r="GP60" s="1"/>
+      <c r="GQ60" s="1"/>
+      <c r="GR60" s="1"/>
+      <c r="GS60" s="1"/>
+      <c r="GT60" s="1"/>
+      <c r="GU60" s="1"/>
+      <c r="GV60" s="1"/>
+      <c r="GW60" s="1"/>
+      <c r="GX60" s="1"/>
+      <c r="GY60" s="1"/>
+      <c r="GZ60" s="1"/>
+      <c r="HA60" s="1"/>
+      <c r="HB60" s="1"/>
+      <c r="HC60" s="1"/>
+      <c r="HD60" s="1"/>
+      <c r="HE60" s="1"/>
+      <c r="HF60" s="1"/>
+      <c r="HG60" s="1"/>
+      <c r="HH60" s="1"/>
+      <c r="HI60" s="1"/>
+      <c r="HJ60" s="1"/>
+      <c r="HK60" s="1"/>
+      <c r="HL60" s="1"/>
+      <c r="HM60" s="1"/>
+      <c r="HN60" s="1"/>
+      <c r="HO60" s="1"/>
+      <c r="HP60" s="1"/>
+      <c r="HQ60" s="1"/>
+      <c r="HR60" s="1"/>
+      <c r="HS60" s="1"/>
+      <c r="HT60" s="1"/>
+      <c r="HU60" s="1"/>
+      <c r="HV60" s="1"/>
+      <c r="HW60" s="1"/>
+      <c r="HX60" s="1"/>
+      <c r="HY60" s="1"/>
+      <c r="HZ60" s="1"/>
+      <c r="IA60" s="1"/>
+      <c r="IB60" s="1"/>
+      <c r="IC60" s="1"/>
+      <c r="ID60" s="1"/>
+      <c r="IE60" s="1"/>
+      <c r="IF60" s="1"/>
+      <c r="IG60" s="1"/>
+      <c r="IH60" s="1"/>
+      <c r="II60" s="1"/>
+      <c r="IJ60" s="1"/>
+      <c r="IK60" s="1"/>
+      <c r="IL60" s="1"/>
+      <c r="IM60" s="1"/>
+      <c r="IN60" s="1"/>
+      <c r="IO60" s="1"/>
+      <c r="IP60" s="1"/>
+      <c r="IQ60" s="1"/>
+      <c r="IR60" s="1"/>
+      <c r="IS60" s="1"/>
+    </row>
+    <row r="62" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:253" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E65" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E66" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E67" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E68" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E69" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="CI3:DM3"/>
-    <mergeCell ref="DN3:ER3"/>
-    <mergeCell ref="B29:BL29"/>
-    <mergeCell ref="AI38:BL38"/>
-    <mergeCell ref="B11:BL11"/>
-    <mergeCell ref="B25:BL25"/>
-    <mergeCell ref="BE3:CH3"/>
     <mergeCell ref="A1:AR1"/>
     <mergeCell ref="A2:AR2"/>
     <mergeCell ref="E3:E4"/>
@@ -11355,6 +16783,13 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:Y3"/>
     <mergeCell ref="Z3:BD3"/>
+    <mergeCell ref="CI3:DM3"/>
+    <mergeCell ref="DN3:ER3"/>
+    <mergeCell ref="B29:BL29"/>
+    <mergeCell ref="AI58:BL58"/>
+    <mergeCell ref="B11:BL11"/>
+    <mergeCell ref="B25:BL25"/>
+    <mergeCell ref="BE3:CH3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11364,6 +16799,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x010100B2104835603E494C8E73FA282078A2A1" ma:contentTypeVersion="3" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="8909ba6cd089f1cad09b5d19bbf1fb99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a2d2fc0-172c-493e-9700-481b0102245d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31284ce68694fe7d11028b04c62020b4" ns2:_="">
     <xsd:import namespace="2a2d2fc0-172c-493e-9700-481b0102245d"/>
@@ -11501,15 +16945,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11517,6 +16952,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAEF3D-215E-428B-AE72-4BFAC95A48D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B3975D8-E299-4F26-AE13-046589BA6C39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11534,14 +16977,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAEF3D-215E-428B-AE72-4BFAC95A48D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB288A8-B438-4DBD-A4D1-DB25AF880886}">
   <ds:schemaRefs>
